--- a/tabela_imprimir.xlsx
+++ b/tabela_imprimir.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Enzo\Desktop\Linea\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\linea-ordenacao-requisicao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35E9094E-3706-4F4F-A9C2-0837E4319E62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Tabela" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="70">
   <si>
     <t>Codigo</t>
   </si>
@@ -46,157 +45,196 @@
     <t>QTD Entregue</t>
   </si>
   <si>
-    <t>Vol Entregue</t>
-  </si>
-  <si>
-    <t>Saldo Final</t>
+    <t>Requisição</t>
   </si>
   <si>
     <t>-</t>
   </si>
   <si>
-    <t>PARAFUSO 4,5X35 CABECA FLANGEA</t>
+    <t>PARAFUSO 4,5X22 CABECA CHATA -</t>
   </si>
   <si>
     <t>R3E</t>
   </si>
   <si>
-    <t>S2</t>
+    <t>S3</t>
   </si>
   <si>
     <t>D1</t>
   </si>
   <si>
-    <t>12.000,00</t>
+    <t>10.000,00</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>PARAFUSO 4,5X22 CABECA CHATA -</t>
-  </si>
-  <si>
-    <t>S3</t>
+    <t>176.750</t>
+  </si>
+  <si>
+    <t>PREGO 8X8 COM CABECA LISO - 18</t>
+  </si>
+  <si>
+    <t>D0</t>
+  </si>
+  <si>
+    <t>100.000,00</t>
+  </si>
+  <si>
+    <t>PARAFUSO 3,5X12 CABECA FLANGEA</t>
+  </si>
+  <si>
+    <t>S4</t>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>200.000,00</t>
+  </si>
+  <si>
+    <t>E0</t>
+  </si>
+  <si>
+    <t>PARAFUSO M4 12MM CHATA PHS BIC</t>
+  </si>
+  <si>
+    <t>S5</t>
+  </si>
+  <si>
+    <t>5.000,00</t>
+  </si>
+  <si>
+    <t>PARAFUSO 3,5X40 CABECA CHATA P</t>
   </si>
   <si>
     <t>30.000,00</t>
   </si>
   <si>
-    <t>PARAFUSO ESTRUTURAL 7X40 CABEC</t>
-  </si>
-  <si>
-    <t>E0</t>
-  </si>
-  <si>
-    <t>8.000,00</t>
-  </si>
-  <si>
-    <t>PREGO 8X8 COM CABECA LISO - 18</t>
-  </si>
-  <si>
-    <t>D0</t>
-  </si>
-  <si>
-    <t>100.000,00</t>
-  </si>
-  <si>
-    <t>PARAFUSO 3,5X12 CABECA CHATA P</t>
-  </si>
-  <si>
-    <t>D2</t>
-  </si>
-  <si>
-    <t>10.000,00</t>
-  </si>
-  <si>
-    <t>PARAFUSO 3,5X12 CABECA FLANGEA</t>
-  </si>
-  <si>
-    <t>S4</t>
-  </si>
-  <si>
-    <t>E1</t>
-  </si>
-  <si>
-    <t>150.000,00</t>
-  </si>
-  <si>
-    <t>PARAFUSO 4,5X25 CABECA CHATA P</t>
-  </si>
-  <si>
-    <t>PARAFUSO 3,5X40 CABECA CHATA P</t>
-  </si>
-  <si>
-    <t>S5</t>
+    <t xml:space="preserve">COLA PARA MONTAGEM - 08GRS    </t>
+  </si>
+  <si>
+    <t>2.000,00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRENDEDOR DE FUNDOS 13X13 COM </t>
+  </si>
+  <si>
+    <t>S6</t>
+  </si>
+  <si>
+    <t>50.000,00</t>
+  </si>
+  <si>
+    <t>3014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAPATA OVAL 12X50 PRETO       </t>
+  </si>
+  <si>
+    <t>15.000,00</t>
+  </si>
+  <si>
+    <t>CANTONEIRA PLASTICA CINZA 20X2</t>
+  </si>
+  <si>
+    <t>S7</t>
+  </si>
+  <si>
+    <t>6.000,00</t>
+  </si>
+  <si>
+    <t>CHAPA JUNCAO 18X40 COM 2 FUROS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAVILHA 5X25MM                </t>
+  </si>
+  <si>
+    <t>S8</t>
+  </si>
+  <si>
+    <t>E3</t>
+  </si>
+  <si>
+    <t>PINO GIROFIX COM ROSCA SOBERBA</t>
+  </si>
+  <si>
+    <t>40.000,00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAVILHA 8X55MM PINUS          </t>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>CASTANHA DO MINI-GIROFIX 12X9M</t>
+  </si>
+  <si>
+    <t>S9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DISPOSITIVO TRAPEZIO CINZA    </t>
+  </si>
+  <si>
+    <t>SUPORTE PRATELEIRA NYLON 8X10M</t>
   </si>
   <si>
     <t>CANTONEIRA PLASTICA 20x20x42 C</t>
   </si>
   <si>
-    <t>33.000,00</t>
-  </si>
-  <si>
-    <t>CHAPA JUNCAO 18X40 COM 2 FUROS</t>
-  </si>
-  <si>
-    <t>14.000,00</t>
+    <t>21.000,00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAVILHAS 8X20MM PINUS         </t>
+  </si>
+  <si>
+    <t>20.000,00</t>
   </si>
   <si>
     <t xml:space="preserve">CAVILHA 6X30MM                </t>
   </si>
   <si>
-    <t>50.000,00</t>
-  </si>
-  <si>
-    <t>PINO GIROFIX COM ROSCA SOBERBA</t>
-  </si>
-  <si>
-    <t>CASTANHA DO MINI-GIROFIX 12X9M</t>
-  </si>
-  <si>
     <t>3039</t>
   </si>
   <si>
+    <t>GUIA CABO / PASSA FIO 46MM +/-</t>
+  </si>
+  <si>
     <t>GIZ DE CORRECAO 15x8 OFF WHITE</t>
   </si>
   <si>
-    <t>3.000,00</t>
-  </si>
-  <si>
-    <t>3070</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GIZ DE CORRECAO 15x8 NATURE   </t>
+    <t>1.000,00</t>
+  </si>
+  <si>
+    <t>3011</t>
+  </si>
+  <si>
+    <t>GIZ DE CORRECAO 15x8 CAPUCCINO</t>
+  </si>
+  <si>
+    <t>3080</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAMPA ADESIVA 18MM TAUARI     </t>
   </si>
   <si>
     <t>3000</t>
   </si>
   <si>
-    <t xml:space="preserve">BUCHA 8MM (PAREDE) NEUTRO     </t>
+    <t>EMBALAGEM PLASTICA VIRGEM 10X1</t>
   </si>
   <si>
     <t>FILME POLIETILENO (PE) 590X280</t>
   </si>
   <si>
     <t>20,00</t>
-  </si>
-  <si>
-    <t>PARAFUSO 3,5X20 CABECA FLANGEA</t>
-  </si>
-  <si>
-    <t>EMBALAGEM PLASTICA VIRGEM 10X1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAMPA ADESIVA 18MM OFF WHITE  </t>
-  </si>
-  <si>
-    <t>20.000,00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -206,8 +244,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="10"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -251,7 +288,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -553,21 +590,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="9" customWidth="1"/>
-    <col min="3" max="3" width="33" customWidth="1"/>
-    <col min="4" max="6" width="6" customWidth="1"/>
-    <col min="7" max="10" width="13" customWidth="1"/>
+    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="2" max="2" width="8" customWidth="1"/>
+    <col min="3" max="3" width="30" customWidth="1"/>
+    <col min="4" max="6" width="5" customWidth="1"/>
+    <col min="7" max="8" width="12" customWidth="1"/>
+    <col min="9" max="9" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -595,612 +633,761 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>160006021</v>
+        <v>160006018</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="H2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>160006018</v>
+        <v>160006011</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>19</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>160006053</v>
+        <v>160006016</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>160006016</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>160006011</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>24</v>
       </c>
       <c r="G5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>160006022</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>160006001</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="F6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="H6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>160006006</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>160006016</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="2" t="s">
+      <c r="H7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>160001001</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="D8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="H8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>160001002</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>160006016</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>160006008</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>24</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>160006006</v>
+        <v>160002004</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>160001018</v>
+        <v>160001032</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="G11" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>160001034</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="G12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>160001034</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>160001023</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+      <c r="F13" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="G13" s="2" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>160001024</v>
+        <v>160001059</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="D14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="G14" s="2" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>160001025</v>
+        <v>160001024</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+      <c r="F15" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="G15" s="2" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>160002012</v>
+        <v>160001024</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+      <c r="D16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="G16" s="2" t="s">
         <v>46</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>160002012</v>
+        <v>160001005</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="D17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
       <c r="G17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>160001025</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="H17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <v>160002006</v>
-      </c>
-      <c r="B18" s="2" t="s">
+      <c r="H18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>160001025</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="D19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
-        <v>170001005</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="2" t="s">
+      <c r="F19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>160001012</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2" t="s">
+      <c r="D20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>160002003</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="H19" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
-        <v>160006050</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="2" t="s">
+      <c r="D21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>160001018</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
-        <v>160002007</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
-        <v>160002002</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I22" s="2"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>160001003</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H22" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="H23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I23" s="2"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>160001023</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I24" s="2"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>160002005</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I25" s="2"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>160002012</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I26" s="2"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>160002012</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I27" s="2"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>160002012</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I28" s="2"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>160002002</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I29" s="2"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>160002007</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I30" s="2"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>170001005</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I31" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/tabela_imprimir.xlsx
+++ b/tabela_imprimir.xlsx
@@ -441,7 +441,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="10" customWidth="1" min="1" max="1"/>
-    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="6" customWidth="1" min="2" max="2"/>
     <col width="30" customWidth="1" min="3" max="3"/>
     <col width="5" customWidth="1" min="4" max="4"/>
     <col width="5" customWidth="1" min="5" max="5"/>
@@ -459,7 +459,7 @@
       </c>
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>Deriv_x</t>
+          <t>Deriv</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
@@ -502,7 +502,7 @@
       <c r="A2" s="3" t="n">
         <v>160002006</v>
       </c>
-      <c r="B2" s="3" t="inlineStr">
+      <c r="B2" s="2" t="inlineStr">
         <is>
           <t>3000</t>
         </is>
@@ -512,22 +512,22 @@
           <t xml:space="preserve">BUCHA 8MM (PAREDE) NEUTRO     </t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="D2" s="2" t="inlineStr">
         <is>
           <t>R3E</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="E2" s="2" t="inlineStr">
         <is>
           <t>S2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="F2" s="2" t="inlineStr">
         <is>
           <t>D0</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="G2" s="2" t="inlineStr">
         <is>
           <t>8.000,00</t>
         </is>
@@ -547,7 +547,7 @@
       <c r="A3" s="3" t="n">
         <v>160006011</v>
       </c>
-      <c r="B3" s="3" t="inlineStr">
+      <c r="B3" s="2" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -557,22 +557,22 @@
           <t>PREGO 8X8 COM CABECA LISO - 18</t>
         </is>
       </c>
-      <c r="D3" s="3" t="inlineStr">
+      <c r="D3" s="2" t="inlineStr">
         <is>
           <t>R3E</t>
         </is>
       </c>
-      <c r="E3" s="3" t="inlineStr">
+      <c r="E3" s="2" t="inlineStr">
         <is>
           <t>S3</t>
         </is>
       </c>
-      <c r="F3" s="3" t="inlineStr">
+      <c r="F3" s="2" t="inlineStr">
         <is>
           <t>D0</t>
         </is>
       </c>
-      <c r="G3" s="3" t="inlineStr">
+      <c r="G3" s="2" t="inlineStr">
         <is>
           <t>200.000,00</t>
         </is>
@@ -588,7 +588,7 @@
       <c r="A4" s="3" t="n">
         <v>160006018</v>
       </c>
-      <c r="B4" s="3" t="inlineStr">
+      <c r="B4" s="2" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -598,22 +598,22 @@
           <t>PARAFUSO 4,5X22 CABECA CHATA -</t>
         </is>
       </c>
-      <c r="D4" s="3" t="inlineStr">
+      <c r="D4" s="2" t="inlineStr">
         <is>
           <t>R3E</t>
         </is>
       </c>
-      <c r="E4" s="3" t="inlineStr">
+      <c r="E4" s="2" t="inlineStr">
         <is>
           <t>S3</t>
         </is>
       </c>
-      <c r="F4" s="3" t="inlineStr">
+      <c r="F4" s="2" t="inlineStr">
         <is>
           <t>D1</t>
         </is>
       </c>
-      <c r="G4" s="3" t="inlineStr">
+      <c r="G4" s="2" t="inlineStr">
         <is>
           <t>40.000,00</t>
         </is>
@@ -629,7 +629,7 @@
       <c r="A5" s="3" t="n">
         <v>160006016</v>
       </c>
-      <c r="B5" s="3" t="inlineStr">
+      <c r="B5" s="2" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -639,22 +639,22 @@
           <t>PARAFUSO 3,5X12 CABECA FLANGEA</t>
         </is>
       </c>
-      <c r="D5" s="3" t="inlineStr">
+      <c r="D5" s="2" t="inlineStr">
         <is>
           <t>R3E</t>
         </is>
       </c>
-      <c r="E5" s="3" t="inlineStr">
+      <c r="E5" s="2" t="inlineStr">
         <is>
           <t>S4</t>
         </is>
       </c>
-      <c r="F5" s="3" t="inlineStr">
+      <c r="F5" s="2" t="inlineStr">
         <is>
           <t>E1</t>
         </is>
       </c>
-      <c r="G5" s="3" t="inlineStr">
+      <c r="G5" s="2" t="inlineStr">
         <is>
           <t>260.000,00</t>
         </is>
@@ -670,7 +670,7 @@
       <c r="A6" s="3" t="n">
         <v>160006016</v>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B6" s="2" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -680,22 +680,22 @@
           <t>PARAFUSO 3,5X12 CABECA FLANGEA</t>
         </is>
       </c>
-      <c r="D6" s="3" t="inlineStr">
+      <c r="D6" s="2" t="inlineStr">
         <is>
           <t>R3E</t>
         </is>
       </c>
-      <c r="E6" s="3" t="inlineStr">
+      <c r="E6" s="2" t="inlineStr">
         <is>
           <t>S4</t>
         </is>
       </c>
-      <c r="F6" s="3" t="inlineStr">
+      <c r="F6" s="2" t="inlineStr">
         <is>
           <t>E0</t>
         </is>
       </c>
-      <c r="G6" s="3" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
         <is>
           <t>260.000,00</t>
         </is>
@@ -711,7 +711,7 @@
       <c r="A7" s="3" t="n">
         <v>160006010</v>
       </c>
-      <c r="B7" s="3" t="inlineStr">
+      <c r="B7" s="2" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -721,22 +721,22 @@
           <t>PARAFUSO 4,5X50 CABECA CHATA P</t>
         </is>
       </c>
-      <c r="D7" s="3" t="inlineStr">
+      <c r="D7" s="2" t="inlineStr">
         <is>
           <t>R3E</t>
         </is>
       </c>
-      <c r="E7" s="3" t="inlineStr">
+      <c r="E7" s="2" t="inlineStr">
         <is>
           <t>S5</t>
         </is>
       </c>
-      <c r="F7" s="3" t="inlineStr">
+      <c r="F7" s="2" t="inlineStr">
         <is>
           <t>D0</t>
         </is>
       </c>
-      <c r="G7" s="3" t="inlineStr">
+      <c r="G7" s="2" t="inlineStr">
         <is>
           <t>12.000,00</t>
         </is>
@@ -752,7 +752,7 @@
       <c r="A8" s="3" t="n">
         <v>160001034</v>
       </c>
-      <c r="B8" s="3" t="inlineStr">
+      <c r="B8" s="2" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -762,22 +762,22 @@
           <t>CHAPA JUNCAO 18X40 COM 2 FUROS</t>
         </is>
       </c>
-      <c r="D8" s="3" t="inlineStr">
+      <c r="D8" s="2" t="inlineStr">
         <is>
           <t>R3E</t>
         </is>
       </c>
-      <c r="E8" s="3" t="inlineStr">
+      <c r="E8" s="2" t="inlineStr">
         <is>
           <t>S7</t>
         </is>
       </c>
-      <c r="F8" s="3" t="inlineStr">
+      <c r="F8" s="2" t="inlineStr">
         <is>
           <t>E0</t>
         </is>
       </c>
-      <c r="G8" s="3" t="inlineStr">
+      <c r="G8" s="2" t="inlineStr">
         <is>
           <t>10.000,00</t>
         </is>
@@ -793,7 +793,7 @@
       <c r="A9" s="3" t="n">
         <v>160001034</v>
       </c>
-      <c r="B9" s="3" t="inlineStr">
+      <c r="B9" s="2" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -803,22 +803,22 @@
           <t>CHAPA JUNCAO 18X40 COM 2 FUROS</t>
         </is>
       </c>
-      <c r="D9" s="3" t="inlineStr">
+      <c r="D9" s="2" t="inlineStr">
         <is>
           <t>R3E</t>
         </is>
       </c>
-      <c r="E9" s="3" t="inlineStr">
+      <c r="E9" s="2" t="inlineStr">
         <is>
           <t>S7</t>
         </is>
       </c>
-      <c r="F9" s="3" t="inlineStr">
+      <c r="F9" s="2" t="inlineStr">
         <is>
           <t>D0</t>
         </is>
       </c>
-      <c r="G9" s="3" t="inlineStr">
+      <c r="G9" s="2" t="inlineStr">
         <is>
           <t>10.000,00</t>
         </is>
@@ -834,7 +834,7 @@
       <c r="A10" s="3" t="n">
         <v>160001032</v>
       </c>
-      <c r="B10" s="3" t="inlineStr">
+      <c r="B10" s="2" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -844,22 +844,22 @@
           <t>CANTONEIRA PLASTICA CINZA 20X2</t>
         </is>
       </c>
-      <c r="D10" s="3" t="inlineStr">
+      <c r="D10" s="2" t="inlineStr">
         <is>
           <t>R3E</t>
         </is>
       </c>
-      <c r="E10" s="3" t="inlineStr">
+      <c r="E10" s="2" t="inlineStr">
         <is>
           <t>S7</t>
         </is>
       </c>
-      <c r="F10" s="3" t="inlineStr">
+      <c r="F10" s="2" t="inlineStr">
         <is>
           <t>E1</t>
         </is>
       </c>
-      <c r="G10" s="3" t="inlineStr">
+      <c r="G10" s="2" t="inlineStr">
         <is>
           <t>10.000,00</t>
         </is>
@@ -875,7 +875,7 @@
       <c r="A11" s="3" t="n">
         <v>160001011</v>
       </c>
-      <c r="B11" s="3" t="inlineStr">
+      <c r="B11" s="2" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -885,22 +885,22 @@
           <t>SUPORTE ANGULAR CENTRAL MARRON</t>
         </is>
       </c>
-      <c r="D11" s="3" t="inlineStr">
+      <c r="D11" s="2" t="inlineStr">
         <is>
           <t>R3E</t>
         </is>
       </c>
-      <c r="E11" s="3" t="inlineStr">
+      <c r="E11" s="2" t="inlineStr">
         <is>
           <t>S8</t>
         </is>
       </c>
-      <c r="F11" s="3" t="inlineStr">
+      <c r="F11" s="2" t="inlineStr">
         <is>
           <t>D2</t>
         </is>
       </c>
-      <c r="G11" s="3" t="inlineStr">
+      <c r="G11" s="2" t="inlineStr">
         <is>
           <t>10.000,00</t>
         </is>
@@ -916,7 +916,7 @@
       <c r="A12" s="3" t="n">
         <v>160001024</v>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B12" s="2" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -926,22 +926,22 @@
           <t>PINO GIROFIX COM ROSCA SOBERBA</t>
         </is>
       </c>
-      <c r="D12" s="3" t="inlineStr">
+      <c r="D12" s="2" t="inlineStr">
         <is>
           <t>R3E</t>
         </is>
       </c>
-      <c r="E12" s="3" t="inlineStr">
+      <c r="E12" s="2" t="inlineStr">
         <is>
           <t>S8</t>
         </is>
       </c>
-      <c r="F12" s="3" t="inlineStr">
+      <c r="F12" s="2" t="inlineStr">
         <is>
           <t>E0</t>
         </is>
       </c>
-      <c r="G12" s="3" t="inlineStr">
+      <c r="G12" s="2" t="inlineStr">
         <is>
           <t>50.000,00</t>
         </is>
@@ -957,7 +957,7 @@
       <c r="A13" s="3" t="n">
         <v>160001024</v>
       </c>
-      <c r="B13" s="3" t="inlineStr">
+      <c r="B13" s="2" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -967,22 +967,22 @@
           <t>PINO GIROFIX COM ROSCA SOBERBA</t>
         </is>
       </c>
-      <c r="D13" s="3" t="inlineStr">
+      <c r="D13" s="2" t="inlineStr">
         <is>
           <t>R3E</t>
         </is>
       </c>
-      <c r="E13" s="3" t="inlineStr">
+      <c r="E13" s="2" t="inlineStr">
         <is>
           <t>S8</t>
         </is>
       </c>
-      <c r="F13" s="3" t="inlineStr">
+      <c r="F13" s="2" t="inlineStr">
         <is>
           <t>D0</t>
         </is>
       </c>
-      <c r="G13" s="3" t="inlineStr">
+      <c r="G13" s="2" t="inlineStr">
         <is>
           <t>50.000,00</t>
         </is>
@@ -998,7 +998,7 @@
       <c r="A14" s="3" t="n">
         <v>160002003</v>
       </c>
-      <c r="B14" s="3" t="inlineStr">
+      <c r="B14" s="2" t="inlineStr">
         <is>
           <t>3014</t>
         </is>
@@ -1008,22 +1008,22 @@
           <t>SUPORTE PRATELEIRA NYLON 8X10M</t>
         </is>
       </c>
-      <c r="D14" s="3" t="inlineStr">
+      <c r="D14" s="2" t="inlineStr">
         <is>
           <t>R3E</t>
         </is>
       </c>
-      <c r="E14" s="3" t="inlineStr">
+      <c r="E14" s="2" t="inlineStr">
         <is>
           <t>S9</t>
         </is>
       </c>
-      <c r="F14" s="3" t="inlineStr">
+      <c r="F14" s="2" t="inlineStr">
         <is>
           <t>E2</t>
         </is>
       </c>
-      <c r="G14" s="3" t="inlineStr">
+      <c r="G14" s="2" t="inlineStr">
         <is>
           <t>6.000,00</t>
         </is>
@@ -1039,7 +1039,7 @@
       <c r="A15" s="3" t="n">
         <v>160001025</v>
       </c>
-      <c r="B15" s="3" t="inlineStr">
+      <c r="B15" s="2" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1049,22 +1049,22 @@
           <t>CASTANHA DO MINI-GIROFIX 12X9M</t>
         </is>
       </c>
-      <c r="D15" s="3" t="inlineStr">
+      <c r="D15" s="2" t="inlineStr">
         <is>
           <t>R3E</t>
         </is>
       </c>
-      <c r="E15" s="3" t="inlineStr">
+      <c r="E15" s="2" t="inlineStr">
         <is>
           <t>S9</t>
         </is>
       </c>
-      <c r="F15" s="3" t="inlineStr">
+      <c r="F15" s="2" t="inlineStr">
         <is>
           <t>E0</t>
         </is>
       </c>
-      <c r="G15" s="3" t="inlineStr">
+      <c r="G15" s="2" t="inlineStr">
         <is>
           <t>50.000,00</t>
         </is>
@@ -1080,7 +1080,7 @@
       <c r="A16" s="3" t="n">
         <v>160001025</v>
       </c>
-      <c r="B16" s="3" t="inlineStr">
+      <c r="B16" s="2" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1090,22 +1090,22 @@
           <t>CASTANHA DO MINI-GIROFIX 12X9M</t>
         </is>
       </c>
-      <c r="D16" s="3" t="inlineStr">
+      <c r="D16" s="2" t="inlineStr">
         <is>
           <t>R3E</t>
         </is>
       </c>
-      <c r="E16" s="3" t="inlineStr">
+      <c r="E16" s="2" t="inlineStr">
         <is>
           <t>S9</t>
         </is>
       </c>
-      <c r="F16" s="3" t="inlineStr">
+      <c r="F16" s="2" t="inlineStr">
         <is>
           <t>D0</t>
         </is>
       </c>
-      <c r="G16" s="3" t="inlineStr">
+      <c r="G16" s="2" t="inlineStr">
         <is>
           <t>50.000,00</t>
         </is>
@@ -1121,7 +1121,7 @@
       <c r="A17" s="3" t="n">
         <v>160001022</v>
       </c>
-      <c r="B17" s="3" t="inlineStr">
+      <c r="B17" s="2" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1131,10 +1131,10 @@
           <t xml:space="preserve">PORCA CILINDRICA 12X9MM       </t>
         </is>
       </c>
-      <c r="D17" s="3" t="inlineStr"/>
-      <c r="E17" s="3" t="inlineStr"/>
-      <c r="F17" s="3" t="inlineStr"/>
-      <c r="G17" s="3" t="inlineStr">
+      <c r="D17" s="2" t="inlineStr"/>
+      <c r="E17" s="2" t="inlineStr"/>
+      <c r="F17" s="2" t="inlineStr"/>
+      <c r="G17" s="2" t="inlineStr">
         <is>
           <t>6.000,00</t>
         </is>
@@ -1150,7 +1150,7 @@
       <c r="A18" s="3" t="n">
         <v>160001018</v>
       </c>
-      <c r="B18" s="3" t="inlineStr">
+      <c r="B18" s="2" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1160,10 +1160,10 @@
           <t>CANTONEIRA PLASTICA 20x20x42 C</t>
         </is>
       </c>
-      <c r="D18" s="3" t="inlineStr"/>
-      <c r="E18" s="3" t="inlineStr"/>
-      <c r="F18" s="3" t="inlineStr"/>
-      <c r="G18" s="3" t="inlineStr">
+      <c r="D18" s="2" t="inlineStr"/>
+      <c r="E18" s="2" t="inlineStr"/>
+      <c r="F18" s="2" t="inlineStr"/>
+      <c r="G18" s="2" t="inlineStr">
         <is>
           <t>33.000,00</t>
         </is>
@@ -1179,7 +1179,7 @@
       <c r="A19" s="3" t="n">
         <v>160001023</v>
       </c>
-      <c r="B19" s="3" t="inlineStr">
+      <c r="B19" s="2" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1189,10 +1189,10 @@
           <t xml:space="preserve">CAVILHA 6X30MM                </t>
         </is>
       </c>
-      <c r="D19" s="3" t="inlineStr"/>
-      <c r="E19" s="3" t="inlineStr"/>
-      <c r="F19" s="3" t="inlineStr"/>
-      <c r="G19" s="3" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr"/>
+      <c r="E19" s="2" t="inlineStr"/>
+      <c r="F19" s="2" t="inlineStr"/>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>50.000,00</t>
         </is>
@@ -1208,7 +1208,7 @@
       <c r="A20" s="3" t="n">
         <v>170001005</v>
       </c>
-      <c r="B20" s="3" t="inlineStr">
+      <c r="B20" s="2" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1218,10 +1218,10 @@
           <t>FILME POLIETILENO (PE) 590X280</t>
         </is>
       </c>
-      <c r="D20" s="3" t="inlineStr"/>
-      <c r="E20" s="3" t="inlineStr"/>
-      <c r="F20" s="3" t="inlineStr"/>
-      <c r="G20" s="3" t="inlineStr">
+      <c r="D20" s="2" t="inlineStr"/>
+      <c r="E20" s="2" t="inlineStr"/>
+      <c r="F20" s="2" t="inlineStr"/>
+      <c r="G20" s="2" t="inlineStr">
         <is>
           <t>20,00</t>
         </is>
@@ -1237,7 +1237,7 @@
       <c r="A21" s="3" t="n">
         <v>160002012</v>
       </c>
-      <c r="B21" s="3" t="inlineStr">
+      <c r="B21" s="2" t="inlineStr">
         <is>
           <t>3039</t>
         </is>
@@ -1247,10 +1247,10 @@
           <t>GIZ DE CORRECAO 15x8 OFF WHITE</t>
         </is>
       </c>
-      <c r="D21" s="3" t="inlineStr"/>
-      <c r="E21" s="3" t="inlineStr"/>
-      <c r="F21" s="3" t="inlineStr"/>
-      <c r="G21" s="3" t="inlineStr">
+      <c r="D21" s="2" t="inlineStr"/>
+      <c r="E21" s="2" t="inlineStr"/>
+      <c r="F21" s="2" t="inlineStr"/>
+      <c r="G21" s="2" t="inlineStr">
         <is>
           <t>2.000,00</t>
         </is>
@@ -1266,7 +1266,7 @@
       <c r="A22" s="3" t="n">
         <v>160002012</v>
       </c>
-      <c r="B22" s="3" t="inlineStr">
+      <c r="B22" s="2" t="inlineStr">
         <is>
           <t>3070</t>
         </is>
@@ -1276,10 +1276,10 @@
           <t xml:space="preserve">GIZ DE CORRECAO 15x8 NATURE   </t>
         </is>
       </c>
-      <c r="D22" s="3" t="inlineStr"/>
-      <c r="E22" s="3" t="inlineStr"/>
-      <c r="F22" s="3" t="inlineStr"/>
-      <c r="G22" s="3" t="inlineStr">
+      <c r="D22" s="2" t="inlineStr"/>
+      <c r="E22" s="2" t="inlineStr"/>
+      <c r="F22" s="2" t="inlineStr"/>
+      <c r="G22" s="2" t="inlineStr">
         <is>
           <t>2.000,00</t>
         </is>
@@ -1295,7 +1295,7 @@
       <c r="A23" s="3" t="n">
         <v>160002007</v>
       </c>
-      <c r="B23" s="3" t="inlineStr">
+      <c r="B23" s="2" t="inlineStr">
         <is>
           <t>3000</t>
         </is>
@@ -1305,10 +1305,10 @@
           <t>EMBALAGEM PLASTICA VIRGEM 10X1</t>
         </is>
       </c>
-      <c r="D23" s="3" t="inlineStr"/>
-      <c r="E23" s="3" t="inlineStr"/>
-      <c r="F23" s="3" t="inlineStr"/>
-      <c r="G23" s="3" t="inlineStr">
+      <c r="D23" s="2" t="inlineStr"/>
+      <c r="E23" s="2" t="inlineStr"/>
+      <c r="F23" s="2" t="inlineStr"/>
+      <c r="G23" s="2" t="inlineStr">
         <is>
           <t>3.000,00</t>
         </is>
@@ -1324,7 +1324,7 @@
       <c r="A24" s="3" t="n">
         <v>160002002</v>
       </c>
-      <c r="B24" s="3" t="inlineStr">
+      <c r="B24" s="2" t="inlineStr">
         <is>
           <t>3070</t>
         </is>
@@ -1334,10 +1334,10 @@
           <t xml:space="preserve">TAMPA ADESIVA 18MM NATURE     </t>
         </is>
       </c>
-      <c r="D24" s="3" t="inlineStr"/>
-      <c r="E24" s="3" t="inlineStr"/>
-      <c r="F24" s="3" t="inlineStr"/>
-      <c r="G24" s="3" t="inlineStr">
+      <c r="D24" s="2" t="inlineStr"/>
+      <c r="E24" s="2" t="inlineStr"/>
+      <c r="F24" s="2" t="inlineStr"/>
+      <c r="G24" s="2" t="inlineStr">
         <is>
           <t>20.000,00</t>
         </is>
@@ -1353,7 +1353,7 @@
       <c r="A25" s="3" t="n">
         <v>160002002</v>
       </c>
-      <c r="B25" s="3" t="inlineStr">
+      <c r="B25" s="2" t="inlineStr">
         <is>
           <t>3039</t>
         </is>
@@ -1363,10 +1363,10 @@
           <t xml:space="preserve">TAMPA ADESIVA 18MM OFF WHITE  </t>
         </is>
       </c>
-      <c r="D25" s="3" t="inlineStr"/>
-      <c r="E25" s="3" t="inlineStr"/>
-      <c r="F25" s="3" t="inlineStr"/>
-      <c r="G25" s="3" t="inlineStr">
+      <c r="D25" s="2" t="inlineStr"/>
+      <c r="E25" s="2" t="inlineStr"/>
+      <c r="F25" s="2" t="inlineStr"/>
+      <c r="G25" s="2" t="inlineStr">
         <is>
           <t>40.000,00</t>
         </is>
@@ -1382,7 +1382,7 @@
       <c r="A26" s="3" t="n">
         <v>160002002</v>
       </c>
-      <c r="B26" s="3" t="inlineStr">
+      <c r="B26" s="2" t="inlineStr">
         <is>
           <t>3057</t>
         </is>
@@ -1392,10 +1392,10 @@
           <t xml:space="preserve">TAMPA ADESIVA 18MM FREIJO     </t>
         </is>
       </c>
-      <c r="D26" s="3" t="inlineStr"/>
-      <c r="E26" s="3" t="inlineStr"/>
-      <c r="F26" s="3" t="inlineStr"/>
-      <c r="G26" s="3" t="inlineStr">
+      <c r="D26" s="2" t="inlineStr"/>
+      <c r="E26" s="2" t="inlineStr"/>
+      <c r="F26" s="2" t="inlineStr"/>
+      <c r="G26" s="2" t="inlineStr">
         <is>
           <t>20.000,00</t>
         </is>
@@ -1411,7 +1411,7 @@
       <c r="A27" s="3" t="n">
         <v>310004001</v>
       </c>
-      <c r="B27" s="3" t="inlineStr">
+      <c r="B27" s="2" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1421,10 +1421,10 @@
           <t xml:space="preserve">FITA ADESIVA 48X100MM INCOLOR </t>
         </is>
       </c>
-      <c r="D27" s="3" t="inlineStr"/>
-      <c r="E27" s="3" t="inlineStr"/>
-      <c r="F27" s="3" t="inlineStr"/>
-      <c r="G27" s="3" t="inlineStr">
+      <c r="D27" s="2" t="inlineStr"/>
+      <c r="E27" s="2" t="inlineStr"/>
+      <c r="F27" s="2" t="inlineStr"/>
+      <c r="G27" s="2" t="inlineStr">
         <is>
           <t>45,00</t>
         </is>

--- a/tabela_imprimir.xlsx
+++ b/tabela_imprimir.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,11 +489,6 @@
       </c>
       <c r="H1" s="2" t="inlineStr">
         <is>
-          <t>QTD Entregue</t>
-        </is>
-      </c>
-      <c r="I1" s="2" t="inlineStr">
-        <is>
           <t>Requisição</t>
         </is>
       </c>
@@ -532,12 +527,7 @@
           <t>8.000,00</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="H2" s="2" t="inlineStr">
         <is>
           <t>176.863</t>
         </is>
@@ -577,12 +567,7 @@
           <t>200.000,00</t>
         </is>
       </c>
-      <c r="H3" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="I3" s="3" t="inlineStr"/>
+      <c r="H3" s="2" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
@@ -618,12 +603,7 @@
           <t>40.000,00</t>
         </is>
       </c>
-      <c r="H4" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="I4" s="3" t="inlineStr"/>
+      <c r="H4" s="2" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
@@ -659,12 +639,7 @@
           <t>260.000,00</t>
         </is>
       </c>
-      <c r="H5" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="I5" s="3" t="inlineStr"/>
+      <c r="H5" s="2" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
@@ -700,12 +675,7 @@
           <t>260.000,00</t>
         </is>
       </c>
-      <c r="H6" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="I6" s="3" t="inlineStr"/>
+      <c r="H6" s="2" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
@@ -741,12 +711,7 @@
           <t>12.000,00</t>
         </is>
       </c>
-      <c r="H7" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="I7" s="3" t="inlineStr"/>
+      <c r="H7" s="2" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
@@ -782,12 +747,7 @@
           <t>10.000,00</t>
         </is>
       </c>
-      <c r="H8" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="I8" s="3" t="inlineStr"/>
+      <c r="H8" s="2" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
@@ -823,12 +783,7 @@
           <t>10.000,00</t>
         </is>
       </c>
-      <c r="H9" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="I9" s="3" t="inlineStr"/>
+      <c r="H9" s="2" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
@@ -864,16 +819,11 @@
           <t>10.000,00</t>
         </is>
       </c>
-      <c r="H10" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="I10" s="3" t="inlineStr"/>
+      <c r="H10" s="2" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>160001011</v>
+        <v>160001024</v>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
@@ -882,7 +832,7 @@
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>SUPORTE ANGULAR CENTRAL MARRON</t>
+          <t>PINO GIROFIX COM ROSCA SOBERBA</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -897,20 +847,15 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>D2</t>
+          <t>D0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>10.000,00</t>
-        </is>
-      </c>
-      <c r="H11" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="I11" s="3" t="inlineStr"/>
+          <t>50.000,00</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
@@ -946,16 +891,11 @@
           <t>50.000,00</t>
         </is>
       </c>
-      <c r="H12" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="I12" s="3" t="inlineStr"/>
+      <c r="H12" s="2" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>160001024</v>
+        <v>160001011</v>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
@@ -964,7 +904,7 @@
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>PINO GIROFIX COM ROSCA SOBERBA</t>
+          <t>SUPORTE ANGULAR CENTRAL MARRON</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -979,65 +919,55 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>D0</t>
+          <t>D2</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>50.000,00</t>
-        </is>
-      </c>
-      <c r="H13" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="I13" s="3" t="inlineStr"/>
+          <t>10.000,00</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>160002003</v>
+        <v>160001023</v>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>3014</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>SUPORTE PRATELEIRA NYLON 8X10M</t>
+          <t xml:space="preserve">CAVILHA 6X30MM                </t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>R3E</t>
+          <t>R3D</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>S9</t>
+          <t>S8</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>E2</t>
+          <t>D0</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>6.000,00</t>
-        </is>
-      </c>
-      <c r="H14" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="I14" s="3" t="inlineStr"/>
+          <t>50.000,00</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>160001025</v>
+        <v>160001018</v>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
@@ -1046,39 +976,34 @@
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>CASTANHA DO MINI-GIROFIX 12X9M</t>
+          <t>CANTONEIRA PLASTICA 20x20x42 C</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>R3E</t>
+          <t>R3D</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>S9</t>
+          <t>S8</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>E0</t>
+          <t>D0</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>50.000,00</t>
-        </is>
-      </c>
-      <c r="H15" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="I15" s="3" t="inlineStr"/>
+          <t>33.000,00</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>160001025</v>
+        <v>160001018</v>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
@@ -1087,39 +1012,34 @@
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>CASTANHA DO MINI-GIROFIX 12X9M</t>
+          <t>CANTONEIRA PLASTICA 20x20x42 C</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>R3E</t>
+          <t>R3D</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>S9</t>
+          <t>S8</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>D0</t>
+          <t>E3</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>50.000,00</t>
-        </is>
-      </c>
-      <c r="H16" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="I16" s="3" t="inlineStr"/>
+          <t>33.000,00</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>160001022</v>
+        <v>160001018</v>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
@@ -1128,27 +1048,34 @@
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">PORCA CILINDRICA 12X9MM       </t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr"/>
-      <c r="E17" s="2" t="inlineStr"/>
-      <c r="F17" s="2" t="inlineStr"/>
+          <t>CANTONEIRA PLASTICA 20x20x42 C</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>R3D</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>S8</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>E0</t>
+        </is>
+      </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>6.000,00</t>
-        </is>
-      </c>
-      <c r="H17" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="I17" s="3" t="inlineStr"/>
+          <t>33.000,00</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>160001018</v>
+        <v>160001023</v>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
@@ -1157,27 +1084,34 @@
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>CANTONEIRA PLASTICA 20x20x42 C</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr"/>
-      <c r="E18" s="2" t="inlineStr"/>
-      <c r="F18" s="2" t="inlineStr"/>
+          <t xml:space="preserve">CAVILHA 6X30MM                </t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>R3D</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>S8</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>E0</t>
+        </is>
+      </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>33.000,00</t>
-        </is>
-      </c>
-      <c r="H18" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="I18" s="3" t="inlineStr"/>
+          <t>50.000,00</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>160001023</v>
+        <v>160001025</v>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
@@ -1186,123 +1120,151 @@
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">CAVILHA 6X30MM                </t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr"/>
-      <c r="E19" s="2" t="inlineStr"/>
-      <c r="F19" s="2" t="inlineStr"/>
+          <t>CASTANHA DO MINI-GIROFIX 12X9M</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>R3E</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>S9</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>E0</t>
+        </is>
+      </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
           <t>50.000,00</t>
         </is>
       </c>
-      <c r="H19" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="I19" s="3" t="inlineStr"/>
+      <c r="H19" s="2" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>170001005</v>
+        <v>160002003</v>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3014</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
-          <t>FILME POLIETILENO (PE) 590X280</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr"/>
-      <c r="E20" s="2" t="inlineStr"/>
-      <c r="F20" s="2" t="inlineStr"/>
+          <t>SUPORTE PRATELEIRA NYLON 8X10M</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>R3E</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>S9</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>E2</t>
+        </is>
+      </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>20,00</t>
-        </is>
-      </c>
-      <c r="H20" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="I20" s="3" t="inlineStr"/>
+          <t>6.000,00</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>160002012</v>
+        <v>160001022</v>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>3039</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr">
         <is>
-          <t>GIZ DE CORRECAO 15x8 OFF WHITE</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr"/>
-      <c r="E21" s="2" t="inlineStr"/>
-      <c r="F21" s="2" t="inlineStr"/>
+          <t xml:space="preserve">PORCA CILINDRICA 12X9MM       </t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>R3D</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>S9</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>D1</t>
+        </is>
+      </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>2.000,00</t>
-        </is>
-      </c>
-      <c r="H21" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="I21" s="3" t="inlineStr"/>
+          <t>6.000,00</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>160002012</v>
+        <v>160001025</v>
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>3070</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">GIZ DE CORRECAO 15x8 NATURE   </t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr"/>
-      <c r="E22" s="2" t="inlineStr"/>
-      <c r="F22" s="2" t="inlineStr"/>
+          <t>CASTANHA DO MINI-GIROFIX 12X9M</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>R3E</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>S9</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>D0</t>
+        </is>
+      </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>2.000,00</t>
-        </is>
-      </c>
-      <c r="H22" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="I22" s="3" t="inlineStr"/>
+          <t>50.000,00</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
-        <v>160002007</v>
+        <v>170001005</v>
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t>EMBALAGEM PLASTICA VIRGEM 10X1</t>
+          <t>FILME POLIETILENO (PE) 590X280</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr"/>
@@ -1310,28 +1272,23 @@
       <c r="F23" s="2" t="inlineStr"/>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>3.000,00</t>
-        </is>
-      </c>
-      <c r="H23" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="I23" s="3" t="inlineStr"/>
+          <t>20,00</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
-        <v>160002002</v>
+        <v>160002012</v>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>3070</t>
+          <t>3039</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">TAMPA ADESIVA 18MM NATURE     </t>
+          <t>GIZ DE CORRECAO 15x8 OFF WHITE</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr"/>
@@ -1339,28 +1296,23 @@
       <c r="F24" s="2" t="inlineStr"/>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>20.000,00</t>
-        </is>
-      </c>
-      <c r="H24" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="I24" s="3" t="inlineStr"/>
+          <t>2.000,00</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="3" t="n">
-        <v>160002002</v>
+        <v>160002012</v>
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>3039</t>
+          <t>3070</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">TAMPA ADESIVA 18MM OFF WHITE  </t>
+          <t xml:space="preserve">GIZ DE CORRECAO 15x8 NATURE   </t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr"/>
@@ -1368,28 +1320,23 @@
       <c r="F25" s="2" t="inlineStr"/>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>40.000,00</t>
-        </is>
-      </c>
-      <c r="H25" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="I25" s="3" t="inlineStr"/>
+          <t>2.000,00</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="3" t="n">
-        <v>160002002</v>
+        <v>160002007</v>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>3057</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">TAMPA ADESIVA 18MM FREIJO     </t>
+          <t>EMBALAGEM PLASTICA VIRGEM 10X1</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr"/>
@@ -1397,28 +1344,23 @@
       <c r="F26" s="2" t="inlineStr"/>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>20.000,00</t>
-        </is>
-      </c>
-      <c r="H26" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="I26" s="3" t="inlineStr"/>
+          <t>3.000,00</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="3" t="n">
-        <v>310004001</v>
+        <v>160002002</v>
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3070</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">FITA ADESIVA 48X100MM INCOLOR </t>
+          <t xml:space="preserve">TAMPA ADESIVA 18MM NATURE     </t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr"/>
@@ -1426,15 +1368,82 @@
       <c r="F27" s="2" t="inlineStr"/>
       <c r="G27" s="2" t="inlineStr">
         <is>
+          <t>20.000,00</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="3" t="n">
+        <v>160002002</v>
+      </c>
+      <c r="B28" s="2" t="inlineStr">
+        <is>
+          <t>3039</t>
+        </is>
+      </c>
+      <c r="C28" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TAMPA ADESIVA 18MM OFF WHITE  </t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr"/>
+      <c r="E28" s="2" t="inlineStr"/>
+      <c r="F28" s="2" t="inlineStr"/>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>40.000,00</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="n">
+        <v>160002002</v>
+      </c>
+      <c r="B29" s="2" t="inlineStr">
+        <is>
+          <t>3057</t>
+        </is>
+      </c>
+      <c r="C29" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TAMPA ADESIVA 18MM FREIJO     </t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr"/>
+      <c r="E29" s="2" t="inlineStr"/>
+      <c r="F29" s="2" t="inlineStr"/>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>20.000,00</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="3" t="n">
+        <v>310004001</v>
+      </c>
+      <c r="B30" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C30" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FITA ADESIVA 48X100MM INCOLOR </t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr"/>
+      <c r="E30" s="2" t="inlineStr"/>
+      <c r="F30" s="2" t="inlineStr"/>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
           <t>45,00</t>
         </is>
       </c>
-      <c r="H27" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="I27" s="3" t="inlineStr"/>
+      <c r="H30" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/tabela_imprimir.xlsx
+++ b/tabela_imprimir.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -47,13 +47,10 @@
       <sz val="30"/>
     </font>
     <font>
-      <sz val="60"/>
+      <sz val="150"/>
     </font>
     <font>
-      <sz val="100"/>
-    </font>
-    <font>
-      <sz val="150"/>
+      <sz val="60"/>
     </font>
     <font>
       <sz val="110"/>
@@ -142,7 +139,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -165,16 +162,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -570,7 +564,7 @@
       </c>
       <c r="B2" s="10" t="inlineStr">
         <is>
-          <t>Parafuso 3,5X12 CAB FLANGEADA</t>
+          <t>CANTONEIRA PLASTICA 20x20x42</t>
         </is>
       </c>
     </row>
@@ -582,7 +576,7 @@
       </c>
       <c r="B3" s="11" t="inlineStr">
         <is>
-          <t>11130585</t>
+          <t>150</t>
         </is>
       </c>
     </row>
@@ -592,9 +586,9 @@
           <t>CODIGO</t>
         </is>
       </c>
-      <c r="B4" s="12" t="inlineStr">
-        <is>
-          <t>6016</t>
+      <c r="B4" s="11" t="inlineStr">
+        <is>
+          <t>1018</t>
         </is>
       </c>
     </row>
@@ -604,7 +598,7 @@
           <t>VOL</t>
         </is>
       </c>
-      <c r="B5" s="13" t="inlineStr">
+      <c r="B5" s="12" t="inlineStr">
         <is>
           <t>10</t>
         </is>

--- a/tabela_imprimir.xlsx
+++ b/tabela_imprimir.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -495,16 +495,16 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>160002006</v>
+        <v>160006015</v>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">BUCHA 8MM (PAREDE) NEUTRO     </t>
+          <t>PARAFUSO 6,0X75 CABECA CHATA P</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
@@ -519,17 +519,17 @@
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>D0</t>
+          <t>E0</t>
         </is>
       </c>
       <c r="G2" s="2" t="inlineStr">
         <is>
-          <t>8.000,00</t>
+          <t>4.000,00</t>
         </is>
       </c>
       <c r="H2" s="2" t="inlineStr">
         <is>
-          <t>176.863</t>
+          <t>176.961</t>
         </is>
       </c>
     </row>
@@ -571,7 +571,7 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>160006018</v>
+        <v>160006003</v>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
@@ -580,7 +580,7 @@
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t>PARAFUSO 4,5X22 CABECA CHATA -</t>
+          <t>PARAFUSO 3,5X14 CABECA FLANGEA</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -595,19 +595,19 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>D1</t>
+          <t>D2</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>40.000,00</t>
+          <t>15.000,00</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>160006016</v>
+        <v>160006018</v>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
@@ -616,7 +616,7 @@
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>PARAFUSO 3,5X12 CABECA FLANGEA</t>
+          <t>PARAFUSO 4,5X22 CABECA CHATA -</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -626,24 +626,24 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>S4</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>E1</t>
+          <t>D1</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>260.000,00</t>
+          <t>20.000,00</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>160006016</v>
+        <v>160006053</v>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
@@ -652,7 +652,7 @@
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>PARAFUSO 3,5X12 CABECA FLANGEA</t>
+          <t>PARAFUSO ESTRUTURAL 7X40 CABEC</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -662,7 +662,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>S4</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -672,14 +672,14 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>260.000,00</t>
+          <t>4.000,00</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>160006010</v>
+        <v>160006016</v>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
@@ -688,7 +688,7 @@
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>PARAFUSO 4,5X50 CABECA CHATA P</t>
+          <t>PARAFUSO 3,5X12 CABECA FLANGEA</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -698,24 +698,24 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>S5</t>
+          <t>S4</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>D0</t>
+          <t>E1</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>12.000,00</t>
+          <t>200.000,00</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>160001034</v>
+        <v>160006016</v>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
@@ -724,7 +724,7 @@
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>CHAPA JUNCAO 18X40 COM 2 FUROS</t>
+          <t>PARAFUSO 3,5X12 CABECA FLANGEA</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -734,7 +734,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>S7</t>
+          <t>S4</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -744,14 +744,14 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>10.000,00</t>
+          <t>200.000,00</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>160001034</v>
+        <v>160006006</v>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>CHAPA JUNCAO 18X40 COM 2 FUROS</t>
+          <t>PARAFUSO 3,5X40 CABECA CHATA P</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -770,33 +770,33 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>S7</t>
+          <t>S5</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>D0</t>
+          <t>E0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>10.000,00</t>
+          <t>30.000,00</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>160001032</v>
+        <v>160002004</v>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3014</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>CANTONEIRA PLASTICA CINZA 20X2</t>
+          <t xml:space="preserve">SAPATA OVAL 12X50 PRETO       </t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -806,24 +806,24 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>S7</t>
+          <t>S6</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>E1</t>
+          <t>D0</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>10.000,00</t>
+          <t>15.000,00</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>160001024</v>
+        <v>160001034</v>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
@@ -832,7 +832,7 @@
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>PINO GIROFIX COM ROSCA SOBERBA</t>
+          <t>CHAPA JUNCAO 18X40 COM 2 FUROS</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -842,24 +842,24 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>S8</t>
+          <t>S7</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>D0</t>
+          <t>E0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>50.000,00</t>
+          <t>16.000,00</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>160001024</v>
+        <v>160001034</v>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
@@ -868,7 +868,7 @@
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>PINO GIROFIX COM ROSCA SOBERBA</t>
+          <t>CHAPA JUNCAO 18X40 COM 2 FUROS</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -878,33 +878,33 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>S8</t>
+          <t>S7</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>E0</t>
+          <t>D0</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>50.000,00</t>
+          <t>16.000,00</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>160001011</v>
+        <v>160002014</v>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3014</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>SUPORTE ANGULAR CENTRAL MARRON</t>
+          <t>DISTANCIADOR DE PAINEL 70 X 32</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -919,12 +919,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>D2</t>
+          <t>D3</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>10.000,00</t>
+          <t>1.000,00</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr"/>
@@ -967,7 +967,7 @@
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>160001018</v>
+        <v>160001023</v>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
@@ -976,7 +976,7 @@
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>CANTONEIRA PLASTICA 20x20x42 C</t>
+          <t xml:space="preserve">CAVILHA 6X30MM                </t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -991,19 +991,19 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>D0</t>
+          <t>E0</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>33.000,00</t>
+          <t>50.000,00</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>160001018</v>
+        <v>160001024</v>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
@@ -1012,12 +1012,12 @@
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>CANTONEIRA PLASTICA 20x20x42 C</t>
+          <t>PINO GIROFIX COM ROSCA SOBERBA</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>R3D</t>
+          <t>R3E</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
@@ -1027,19 +1027,19 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>E3</t>
+          <t>D0</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>33.000,00</t>
+          <t>50.000,00</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>160001018</v>
+        <v>160001024</v>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
@@ -1048,12 +1048,12 @@
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>CANTONEIRA PLASTICA 20x20x42 C</t>
+          <t>PINO GIROFIX COM ROSCA SOBERBA</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>R3D</t>
+          <t>R3E</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1068,14 +1068,14 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>33.000,00</t>
+          <t>50.000,00</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>160001023</v>
+        <v>160001022</v>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
@@ -1084,7 +1084,7 @@
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">CAVILHA 6X30MM                </t>
+          <t xml:space="preserve">PORCA CILINDRICA 12X9MM       </t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1094,33 +1094,33 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>S8</t>
+          <t>S9</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>E0</t>
+          <t>D1</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>50.000,00</t>
+          <t>6.000,00</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>160001025</v>
+        <v>160002003</v>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3014</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>CASTANHA DO MINI-GIROFIX 12X9M</t>
+          <t>SUPORTE PRATELEIRA NYLON 8X10M</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1135,33 +1135,33 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>E0</t>
+          <t>E2</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>50.000,00</t>
+          <t>2.500,00</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>160002003</v>
+        <v>160001018</v>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>3014</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
-          <t>SUPORTE PRATELEIRA NYLON 8X10M</t>
+          <t>CANTONEIRA PLASTICA 20x20x42 C</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>R3E</t>
+          <t>R3D</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
@@ -1171,19 +1171,19 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>E2</t>
+          <t>E0</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>6.000,00</t>
+          <t>30.000,00</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>160001022</v>
+        <v>160001025</v>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
@@ -1192,12 +1192,12 @@
       </c>
       <c r="C21" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">PORCA CILINDRICA 12X9MM       </t>
+          <t>CASTANHA DO MINI-GIROFIX 12X9M</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>R3D</t>
+          <t>R3E</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
@@ -1207,12 +1207,12 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>D1</t>
+          <t>D0</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>6.000,00</t>
+          <t>50.000,00</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>D0</t>
+          <t>E0</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -1255,7 +1255,7 @@
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
-        <v>170001005</v>
+        <v>160001018</v>
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
@@ -1264,55 +1264,79 @@
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t>FILME POLIETILENO (PE) 590X280</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr"/>
-      <c r="E23" s="2" t="inlineStr"/>
-      <c r="F23" s="2" t="inlineStr"/>
+          <t>CANTONEIRA PLASTICA 20x20x42 C</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>R3D</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>S9</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>E3</t>
+        </is>
+      </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>20,00</t>
+          <t>30.000,00</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
-        <v>160002012</v>
+        <v>160001018</v>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>3039</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr">
         <is>
-          <t>GIZ DE CORRECAO 15x8 OFF WHITE</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr"/>
-      <c r="E24" s="2" t="inlineStr"/>
-      <c r="F24" s="2" t="inlineStr"/>
+          <t>CANTONEIRA PLASTICA 20x20x42 C</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>R3D</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>S9</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>D0</t>
+        </is>
+      </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>2.000,00</t>
+          <t>30.000,00</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="3" t="n">
-        <v>160002012</v>
+        <v>160002005</v>
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>3070</t>
+          <t>3039</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">GIZ DE CORRECAO 15x8 NATURE   </t>
+          <t>GUIA CABO / PASSA FIO 46MM +/-</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr"/>
@@ -1320,23 +1344,23 @@
       <c r="F25" s="2" t="inlineStr"/>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>2.000,00</t>
+          <t>1.000,00</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="3" t="n">
-        <v>160002007</v>
+        <v>160002005</v>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>3014</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr">
         <is>
-          <t>EMBALAGEM PLASTICA VIRGEM 10X1</t>
+          <t>GUIA CABO / PASSA FIO 46MM +/-</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr"/>
@@ -1344,23 +1368,23 @@
       <c r="F26" s="2" t="inlineStr"/>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>3.000,00</t>
+          <t>2.000,00</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="3" t="n">
-        <v>160002002</v>
+        <v>170001005</v>
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>3070</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">TAMPA ADESIVA 18MM NATURE     </t>
+          <t>FILME POLIETILENO (PE) 590X280</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr"/>
@@ -1368,14 +1392,14 @@
       <c r="F27" s="2" t="inlineStr"/>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>20.000,00</t>
+          <t>20,00</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="3" t="n">
-        <v>160002002</v>
+        <v>160002012</v>
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
@@ -1384,7 +1408,7 @@
       </c>
       <c r="C28" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">TAMPA ADESIVA 18MM OFF WHITE  </t>
+          <t>GIZ DE CORRECAO 15x8 OFF WHITE</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr"/>
@@ -1392,23 +1416,23 @@
       <c r="F28" s="2" t="inlineStr"/>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>40.000,00</t>
+          <t>3.000,00</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="3" t="n">
-        <v>160002002</v>
+        <v>160002012</v>
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>3057</t>
+          <t>3070</t>
         </is>
       </c>
       <c r="C29" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">TAMPA ADESIVA 18MM FREIJO     </t>
+          <t xml:space="preserve">GIZ DE CORRECAO 15x8 NATURE   </t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr"/>
@@ -1416,23 +1440,23 @@
       <c r="F29" s="2" t="inlineStr"/>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>20.000,00</t>
+          <t>3.000,00</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="3" t="n">
-        <v>310004001</v>
+        <v>160002012</v>
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3011</t>
         </is>
       </c>
       <c r="C30" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">FITA ADESIVA 48X100MM INCOLOR </t>
+          <t>GIZ DE CORRECAO 15x8 CAPUCCINO</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr"/>
@@ -1440,10 +1464,58 @@
       <c r="F30" s="2" t="inlineStr"/>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>45,00</t>
+          <t>2.000,00</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="n">
+        <v>160002007</v>
+      </c>
+      <c r="B31" s="2" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="C31" s="3" t="inlineStr">
+        <is>
+          <t>EMBALAGEM PLASTICA VIRGEM 10X1</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr"/>
+      <c r="E31" s="2" t="inlineStr"/>
+      <c r="F31" s="2" t="inlineStr"/>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>3.000,00</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="3" t="n">
+        <v>160002002</v>
+      </c>
+      <c r="B32" s="2" t="inlineStr">
+        <is>
+          <t>3080</t>
+        </is>
+      </c>
+      <c r="C32" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TAMPA ADESIVA 18MM TAUARI     </t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr"/>
+      <c r="E32" s="2" t="inlineStr"/>
+      <c r="F32" s="2" t="inlineStr"/>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>20.000,00</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/tabela_imprimir.xlsx
+++ b/tabela_imprimir.xlsx
@@ -9,7 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tabela" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tabela'!$A$1:$B$5</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tabela'!$A$1:$B$4</definedName>
   </definedNames>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
@@ -53,7 +53,7 @@
       <sz val="60"/>
     </font>
     <font>
-      <sz val="110"/>
+      <sz val="190"/>
     </font>
   </fonts>
   <fills count="2">
@@ -64,7 +64,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -101,30 +101,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -139,24 +115,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -168,7 +140,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -245,6 +217,50 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <twoCellAnchor editAs="oneCell">
+    <from>
+      <col>0</col>
+      <colOff>32426</colOff>
+      <row>0</row>
+      <rowOff>28373</rowOff>
+    </from>
+    <to>
+      <col>0</col>
+      <colOff>900545</colOff>
+      <row>0</row>
+      <rowOff>381001</rowOff>
+    </to>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="2" name="Picture 74"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="32426" y="28373"/>
+          <a:ext cx="868119" cy="352628"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </twoCellAnchor>
+</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -536,10 +552,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -549,63 +565,52 @@
   </cols>
   <sheetData>
     <row r="1" ht="32.25" customHeight="1" thickBot="1">
-      <c r="A1" s="8" t="n"/>
-      <c r="B1" s="9" t="inlineStr">
+      <c r="A1" s="6" t="n"/>
+      <c r="B1" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">IDENTIFICAÇÃO DE MATERIAIS </t>
         </is>
       </c>
     </row>
-    <row r="2" ht="150" customHeight="1" thickBot="1">
-      <c r="A2" s="7" t="inlineStr">
+    <row r="2" ht="236.25" customHeight="1" thickBot="1">
+      <c r="A2" s="5" t="inlineStr">
         <is>
           <t>PRODUTO</t>
         </is>
       </c>
-      <c r="B2" s="10" t="inlineStr">
+      <c r="B2" s="8" t="inlineStr">
         <is>
-          <t>CANTONEIRA PLASTICA 20x20x42</t>
+          <t>PARAFUSO ESTRUTURAL 7X40 CABECA CHATA</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="213.75" customHeight="1" thickBot="1">
-      <c r="A3" s="4" t="inlineStr">
+    <row r="3" ht="236.25" customHeight="1" thickBot="1">
+      <c r="A3" s="3" t="inlineStr">
         <is>
           <t>QTDE</t>
         </is>
       </c>
-      <c r="B3" s="11" t="inlineStr">
+      <c r="B3" s="9" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>88000</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="206.25" customHeight="1" thickBot="1">
-      <c r="A4" s="4" t="inlineStr">
+    <row r="4" ht="236.25" customHeight="1" thickBot="1">
+      <c r="A4" s="3" t="inlineStr">
         <is>
           <t>CODIGO</t>
         </is>
       </c>
-      <c r="B4" s="11" t="inlineStr">
+      <c r="B4" s="10" t="inlineStr">
         <is>
-          <t>1018</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" ht="149.25" customHeight="1" thickBot="1">
-      <c r="A5" s="5" t="inlineStr">
-        <is>
-          <t>VOL</t>
-        </is>
-      </c>
-      <c r="B5" s="12" t="inlineStr">
-        <is>
-          <t>10</t>
+          <t>6053</t>
         </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>
--- a/tabela_imprimir.xlsx
+++ b/tabela_imprimir.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -495,282 +495,282 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>160006015</v>
+        <v>150001004</v>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3080</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>PARAFUSO 6,0X75 CABECA CHATA P</t>
+          <t xml:space="preserve">FITA BORDA PAPEL 18 MM - 210G </t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>R3E</t>
+          <t>R4D</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>S1</t>
         </is>
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>E0</t>
+          <t>E3</t>
         </is>
       </c>
       <c r="G2" s="2" t="inlineStr">
         <is>
-          <t>4.000,00</t>
+          <t>3.200,00</t>
         </is>
       </c>
       <c r="H2" s="2" t="inlineStr">
         <is>
-          <t>176.961</t>
+          <t>177.145</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>160006011</v>
+        <v>150001004</v>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3070</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>PREGO 8X8 COM CABECA LISO - 18</t>
+          <t xml:space="preserve">FITA BORDA PAPEL 18 MM - 210G </t>
         </is>
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t>R3E</t>
+          <t>R3D</t>
         </is>
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
-          <t>S3</t>
+          <t>S1</t>
         </is>
       </c>
       <c r="F3" s="2" t="inlineStr">
         <is>
-          <t>D0</t>
+          <t>E1</t>
         </is>
       </c>
       <c r="G3" s="2" t="inlineStr">
         <is>
-          <t>200.000,00</t>
+          <t>2.500,00</t>
         </is>
       </c>
       <c r="H3" s="2" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>160006003</v>
+        <v>150001004</v>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3070</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t>PARAFUSO 3,5X14 CABECA FLANGEA</t>
+          <t xml:space="preserve">FITA BORDA PAPEL 18 MM - 210G </t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>R3E</t>
+          <t>R3D</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>S3</t>
+          <t>S1</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>D2</t>
+          <t>E0</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>15.000,00</t>
+          <t>2.500,00</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>160006018</v>
+        <v>150001004</v>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3070</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>PARAFUSO 4,5X22 CABECA CHATA -</t>
+          <t xml:space="preserve">FITA BORDA PAPEL 18 MM - 210G </t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>R3E</t>
+          <t>R3D</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>S3</t>
+          <t>S1</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>D1</t>
+          <t>D0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>20.000,00</t>
+          <t>2.500,00</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>160006053</v>
+        <v>150001004</v>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3070</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>PARAFUSO ESTRUTURAL 7X40 CABEC</t>
+          <t xml:space="preserve">FITA BORDA PAPEL 18 MM - 210G </t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>R3E</t>
+          <t>R3D</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>S3</t>
+          <t>S1</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>E0</t>
+          <t>E3</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>4.000,00</t>
+          <t>2.500,00</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>160006016</v>
+        <v>150001004</v>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3080</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>PARAFUSO 3,5X12 CABECA FLANGEA</t>
+          <t xml:space="preserve">FITA BORDA PAPEL 18 MM - 210G </t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>R3E</t>
+          <t>R3D</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>S4</t>
+          <t>S1</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>E1</t>
+          <t>E3</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>200.000,00</t>
+          <t>3.200,00</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>160006016</v>
+        <v>150001004</v>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3080</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>PARAFUSO 3,5X12 CABECA FLANGEA</t>
+          <t xml:space="preserve">FITA BORDA PAPEL 18 MM - 210G </t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>R3E</t>
+          <t>R3D</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>S4</t>
+          <t>S1</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>E0</t>
+          <t>D0</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>200.000,00</t>
+          <t>3.200,00</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>160006006</v>
+        <v>150001004</v>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3080</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>PARAFUSO 3,5X40 CABECA CHATA P</t>
+          <t xml:space="preserve">FITA BORDA PAPEL 18 MM - 210G </t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>R3E</t>
+          <t>R3D</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>S5</t>
+          <t>S1</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -780,167 +780,167 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>30.000,00</t>
+          <t>3.200,00</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>160002004</v>
+        <v>150001004</v>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>3014</t>
+          <t>3080</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">SAPATA OVAL 12X50 PRETO       </t>
+          <t xml:space="preserve">FITA BORDA PAPEL 18 MM - 210G </t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>R3E</t>
+          <t>R3D</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>S6</t>
+          <t>S1</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>D0</t>
+          <t>E1</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>15.000,00</t>
+          <t>3.200,00</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>160001034</v>
+        <v>150001004</v>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3082</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>CHAPA JUNCAO 18X40 COM 2 FUROS</t>
+          <t xml:space="preserve">FITA BORDA PAPEL 18 MM - 210G </t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>R3E</t>
+          <t>R3D</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>S7</t>
+          <t>S1</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>E0</t>
+          <t>E3</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>16.000,00</t>
+          <t>2.500,00</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>160001034</v>
+        <v>150001004</v>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3070</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>CHAPA JUNCAO 18X40 COM 2 FUROS</t>
+          <t xml:space="preserve">FITA BORDA PAPEL 18 MM - 210G </t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>R3E</t>
+          <t>R4D</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>S7</t>
+          <t>S1</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>D0</t>
+          <t>E3</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>16.000,00</t>
+          <t>2.500,00</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>160002014</v>
+        <v>150001004</v>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>3014</t>
+          <t>3082</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>DISTANCIADOR DE PAINEL 70 X 32</t>
+          <t xml:space="preserve">FITA BORDA PAPEL 18 MM - 210G </t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>R3E</t>
+          <t>R3D</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>S8</t>
+          <t>S1</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>D3</t>
+          <t>E0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1.000,00</t>
+          <t>2.500,00</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>160001023</v>
+        <v>150001004</v>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3082</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">CAVILHA 6X30MM                </t>
+          <t xml:space="preserve">FITA BORDA PAPEL 18 MM - 210G </t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -950,33 +950,33 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>S8</t>
+          <t>S1</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>D0</t>
+          <t>E1</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>50.000,00</t>
+          <t>2.500,00</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>160001023</v>
+        <v>150001004</v>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3082</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">CAVILHA 6X30MM                </t>
+          <t xml:space="preserve">FITA BORDA PAPEL 18 MM - 210G </t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -986,105 +986,105 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>S8</t>
+          <t>S1</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>E0</t>
+          <t>D0</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>50.000,00</t>
+          <t>2.500,00</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>160001024</v>
+        <v>150001004</v>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3039</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>PINO GIROFIX COM ROSCA SOBERBA</t>
+          <t xml:space="preserve">FITA BORDA PAPEL 18 MM - 210G </t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>R3E</t>
+          <t>R3D</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>S8</t>
+          <t>S1</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>D0</t>
+          <t>E3</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>50.000,00</t>
+          <t>18.000,00</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>160001024</v>
+        <v>150001004</v>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3039</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>PINO GIROFIX COM ROSCA SOBERBA</t>
+          <t xml:space="preserve">FITA BORDA PAPEL 18 MM - 210G </t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>R3E</t>
+          <t>R3D</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>S8</t>
+          <t>S1</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>E0</t>
+          <t>D0</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>50.000,00</t>
+          <t>18.000,00</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>160001022</v>
+        <v>150001004</v>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3039</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">PORCA CILINDRICA 12X9MM       </t>
+          <t xml:space="preserve">FITA BORDA PAPEL 18 MM - 210G </t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1094,69 +1094,69 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>S9</t>
+          <t>S1</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>D1</t>
+          <t>E0</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>6.000,00</t>
+          <t>18.000,00</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>160002003</v>
+        <v>150001004</v>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>3014</t>
+          <t>3039</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>SUPORTE PRATELEIRA NYLON 8X10M</t>
+          <t xml:space="preserve">FITA BORDA PAPEL 18 MM - 210G </t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>R3E</t>
+          <t>R3D</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>S9</t>
+          <t>S1</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>E2</t>
+          <t>E1</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>2.500,00</t>
+          <t>18.000,00</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>160001018</v>
+        <v>150001006</v>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3070</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
-          <t>CANTONEIRA PLASTICA 20x20x42 C</t>
+          <t xml:space="preserve">FITA BORDA PAPEL 40 MM - 240G </t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
@@ -1166,105 +1166,105 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>S9</t>
+          <t>S1</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>E0</t>
+          <t>D2</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>30.000,00</t>
+          <t>2.000,00</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>160001025</v>
+        <v>150001004</v>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3039</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr">
         <is>
-          <t>CASTANHA DO MINI-GIROFIX 12X9M</t>
+          <t xml:space="preserve">FITA BORDA PAPEL 18 MM - 210G </t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>R3E</t>
+          <t>R4D</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>S9</t>
+          <t>S1</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>D0</t>
+          <t>E3</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>50.000,00</t>
+          <t>18.000,00</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>160001025</v>
+        <v>150001004</v>
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3082</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr">
         <is>
-          <t>CASTANHA DO MINI-GIROFIX 12X9M</t>
+          <t xml:space="preserve">FITA BORDA PAPEL 18 MM - 210G </t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>R3E</t>
+          <t>R4D</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>S9</t>
+          <t>S1</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>E0</t>
+          <t>E3</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>50.000,00</t>
+          <t>2.500,00</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
-        <v>160001018</v>
+        <v>150001004</v>
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3082</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t>CANTONEIRA PLASTICA 20x20x42 C</t>
+          <t xml:space="preserve">FITA BORDA PAPEL 18 MM - 210G </t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
@@ -1274,33 +1274,33 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>S9</t>
+          <t>S2</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>E3</t>
+          <t>E0</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>30.000,00</t>
+          <t>2.500,00</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
-        <v>160001018</v>
+        <v>150001004</v>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3070</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr">
         <is>
-          <t>CANTONEIRA PLASTICA 20x20x42 C</t>
+          <t xml:space="preserve">FITA BORDA PAPEL 18 MM - 210G </t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
@@ -1310,212 +1310,3044 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>S9</t>
+          <t>S2</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>D0</t>
+          <t>E3</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>30.000,00</t>
+          <t>2.500,00</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="3" t="n">
-        <v>160002005</v>
+        <v>150001006</v>
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>3039</t>
+          <t>3070</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr">
         <is>
-          <t>GUIA CABO / PASSA FIO 46MM +/-</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr"/>
-      <c r="E25" s="2" t="inlineStr"/>
-      <c r="F25" s="2" t="inlineStr"/>
+          <t xml:space="preserve">FITA BORDA PAPEL 40 MM - 240G </t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>R3D</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>D3</t>
+        </is>
+      </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>1.000,00</t>
+          <t>2.000,00</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="3" t="n">
-        <v>160002005</v>
+        <v>150001004</v>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>3014</t>
+          <t>3080</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr">
         <is>
-          <t>GUIA CABO / PASSA FIO 46MM +/-</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr"/>
-      <c r="E26" s="2" t="inlineStr"/>
-      <c r="F26" s="2" t="inlineStr"/>
+          <t xml:space="preserve">FITA BORDA PAPEL 18 MM - 210G </t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>R3D</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>E0</t>
+        </is>
+      </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>2.000,00</t>
+          <t>3.200,00</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="3" t="n">
-        <v>170001005</v>
+        <v>150001004</v>
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3080</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr">
         <is>
-          <t>FILME POLIETILENO (PE) 590X280</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr"/>
-      <c r="E27" s="2" t="inlineStr"/>
-      <c r="F27" s="2" t="inlineStr"/>
+          <t xml:space="preserve">FITA BORDA PAPEL 18 MM - 210G </t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>R3D</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>D0</t>
+        </is>
+      </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>20,00</t>
+          <t>3.200,00</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="3" t="n">
-        <v>160002012</v>
+        <v>150001004</v>
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>3039</t>
+          <t>3080</t>
         </is>
       </c>
       <c r="C28" s="3" t="inlineStr">
         <is>
-          <t>GIZ DE CORRECAO 15x8 OFF WHITE</t>
-        </is>
-      </c>
-      <c r="D28" s="2" t="inlineStr"/>
-      <c r="E28" s="2" t="inlineStr"/>
-      <c r="F28" s="2" t="inlineStr"/>
+          <t xml:space="preserve">FITA BORDA PAPEL 18 MM - 210G </t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>R3D</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>E3</t>
+        </is>
+      </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>3.000,00</t>
+          <t>3.200,00</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="3" t="n">
-        <v>160002012</v>
+        <v>150001004</v>
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>3070</t>
+          <t>3082</t>
         </is>
       </c>
       <c r="C29" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">GIZ DE CORRECAO 15x8 NATURE   </t>
-        </is>
-      </c>
-      <c r="D29" s="2" t="inlineStr"/>
-      <c r="E29" s="2" t="inlineStr"/>
-      <c r="F29" s="2" t="inlineStr"/>
+          <t xml:space="preserve">FITA BORDA PAPEL 18 MM - 210G </t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>R3D</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>E3</t>
+        </is>
+      </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>3.000,00</t>
+          <t>2.500,00</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="3" t="n">
-        <v>160002012</v>
+        <v>150001004</v>
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>3011</t>
+          <t>3082</t>
         </is>
       </c>
       <c r="C30" s="3" t="inlineStr">
         <is>
-          <t>GIZ DE CORRECAO 15x8 CAPUCCINO</t>
-        </is>
-      </c>
-      <c r="D30" s="2" t="inlineStr"/>
-      <c r="E30" s="2" t="inlineStr"/>
-      <c r="F30" s="2" t="inlineStr"/>
+          <t xml:space="preserve">FITA BORDA PAPEL 18 MM - 210G </t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>R3D</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>D0</t>
+        </is>
+      </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>2.000,00</t>
+          <t>2.500,00</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="3" t="n">
-        <v>160002007</v>
+        <v>150001006</v>
       </c>
       <c r="B31" s="2" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>3070</t>
         </is>
       </c>
       <c r="C31" s="3" t="inlineStr">
         <is>
-          <t>EMBALAGEM PLASTICA VIRGEM 10X1</t>
-        </is>
-      </c>
-      <c r="D31" s="2" t="inlineStr"/>
-      <c r="E31" s="2" t="inlineStr"/>
-      <c r="F31" s="2" t="inlineStr"/>
+          <t xml:space="preserve">FITA BORDA PAPEL 40 MM - 240G </t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>R3D</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>E2</t>
+        </is>
+      </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>3.000,00</t>
+          <t>2.000,00</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="3" t="n">
-        <v>160002002</v>
+        <v>150001004</v>
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
+          <t>3070</t>
+        </is>
+      </c>
+      <c r="C32" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FITA BORDA PAPEL 18 MM - 210G </t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>R3D</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>D0</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>2.500,00</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="3" t="n">
+        <v>150001003</v>
+      </c>
+      <c r="B33" s="2" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="C33" s="3" t="inlineStr">
+        <is>
+          <t>FITA BORDA PAPEL 40 MM PARDO -</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>R3D</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>D2</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>2.500,00</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="3" t="n">
+        <v>150001004</v>
+      </c>
+      <c r="B34" s="2" t="inlineStr">
+        <is>
+          <t>3039</t>
+        </is>
+      </c>
+      <c r="C34" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FITA BORDA PAPEL 18 MM - 210G </t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>R3D</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>D0</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>18.000,00</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="3" t="n">
+        <v>150001004</v>
+      </c>
+      <c r="B35" s="2" t="inlineStr">
+        <is>
+          <t>3039</t>
+        </is>
+      </c>
+      <c r="C35" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FITA BORDA PAPEL 18 MM - 210G </t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>R3D</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>E3</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>18.000,00</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="3" t="n">
+        <v>150001004</v>
+      </c>
+      <c r="B36" s="2" t="inlineStr">
+        <is>
+          <t>3070</t>
+        </is>
+      </c>
+      <c r="C36" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FITA BORDA PAPEL 18 MM - 210G </t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="inlineStr">
+        <is>
+          <t>R3D</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="F36" s="2" t="inlineStr">
+        <is>
+          <t>E0</t>
+        </is>
+      </c>
+      <c r="G36" s="2" t="inlineStr">
+        <is>
+          <t>2.500,00</t>
+        </is>
+      </c>
+      <c r="H36" s="2" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="3" t="n">
+        <v>150001004</v>
+      </c>
+      <c r="B37" s="2" t="inlineStr">
+        <is>
+          <t>3039</t>
+        </is>
+      </c>
+      <c r="C37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FITA BORDA PAPEL 18 MM - 210G </t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="inlineStr">
+        <is>
+          <t>R3D</t>
+        </is>
+      </c>
+      <c r="E37" s="2" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="F37" s="2" t="inlineStr">
+        <is>
+          <t>E0</t>
+        </is>
+      </c>
+      <c r="G37" s="2" t="inlineStr">
+        <is>
+          <t>18.000,00</t>
+        </is>
+      </c>
+      <c r="H37" s="2" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="3" t="n">
+        <v>150001006</v>
+      </c>
+      <c r="B38" s="2" t="inlineStr">
+        <is>
+          <t>3070</t>
+        </is>
+      </c>
+      <c r="C38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FITA BORDA PAPEL 40 MM - 240G </t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="inlineStr">
+        <is>
+          <t>R3D</t>
+        </is>
+      </c>
+      <c r="E38" s="2" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="F38" s="2" t="inlineStr">
+        <is>
+          <t>E2</t>
+        </is>
+      </c>
+      <c r="G38" s="2" t="inlineStr">
+        <is>
+          <t>2.000,00</t>
+        </is>
+      </c>
+      <c r="H38" s="2" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="3" t="n">
+        <v>150001004</v>
+      </c>
+      <c r="B39" s="2" t="inlineStr">
+        <is>
+          <t>3039</t>
+        </is>
+      </c>
+      <c r="C39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FITA BORDA PAPEL 18 MM - 210G </t>
+        </is>
+      </c>
+      <c r="D39" s="2" t="inlineStr">
+        <is>
+          <t>R3D</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="F39" s="2" t="inlineStr">
+        <is>
+          <t>E0</t>
+        </is>
+      </c>
+      <c r="G39" s="2" t="inlineStr">
+        <is>
+          <t>18.000,00</t>
+        </is>
+      </c>
+      <c r="H39" s="2" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="3" t="n">
+        <v>150001004</v>
+      </c>
+      <c r="B40" s="2" t="inlineStr">
+        <is>
+          <t>3039</t>
+        </is>
+      </c>
+      <c r="C40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FITA BORDA PAPEL 18 MM - 210G </t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="inlineStr">
+        <is>
+          <t>R3D</t>
+        </is>
+      </c>
+      <c r="E40" s="2" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="F40" s="2" t="inlineStr">
+        <is>
+          <t>D0</t>
+        </is>
+      </c>
+      <c r="G40" s="2" t="inlineStr">
+        <is>
+          <t>18.000,00</t>
+        </is>
+      </c>
+      <c r="H40" s="2" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="3" t="n">
+        <v>150001004</v>
+      </c>
+      <c r="B41" s="2" t="inlineStr">
+        <is>
+          <t>3082</t>
+        </is>
+      </c>
+      <c r="C41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FITA BORDA PAPEL 18 MM - 210G </t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="inlineStr">
+        <is>
+          <t>R3D</t>
+        </is>
+      </c>
+      <c r="E41" s="2" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="F41" s="2" t="inlineStr">
+        <is>
+          <t>D0</t>
+        </is>
+      </c>
+      <c r="G41" s="2" t="inlineStr">
+        <is>
+          <t>2.500,00</t>
+        </is>
+      </c>
+      <c r="H41" s="2" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="3" t="n">
+        <v>150001004</v>
+      </c>
+      <c r="B42" s="2" t="inlineStr">
+        <is>
+          <t>3082</t>
+        </is>
+      </c>
+      <c r="C42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FITA BORDA PAPEL 18 MM - 210G </t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="inlineStr">
+        <is>
+          <t>R3D</t>
+        </is>
+      </c>
+      <c r="E42" s="2" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="F42" s="2" t="inlineStr">
+        <is>
+          <t>E0</t>
+        </is>
+      </c>
+      <c r="G42" s="2" t="inlineStr">
+        <is>
+          <t>2.500,00</t>
+        </is>
+      </c>
+      <c r="H42" s="2" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="3" t="n">
+        <v>150001006</v>
+      </c>
+      <c r="B43" s="2" t="inlineStr">
+        <is>
+          <t>3070</t>
+        </is>
+      </c>
+      <c r="C43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FITA BORDA PAPEL 40 MM - 240G </t>
+        </is>
+      </c>
+      <c r="D43" s="2" t="inlineStr">
+        <is>
+          <t>R3D</t>
+        </is>
+      </c>
+      <c r="E43" s="2" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="F43" s="2" t="inlineStr">
+        <is>
+          <t>D2</t>
+        </is>
+      </c>
+      <c r="G43" s="2" t="inlineStr">
+        <is>
+          <t>2.000,00</t>
+        </is>
+      </c>
+      <c r="H43" s="2" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="3" t="n">
+        <v>150001004</v>
+      </c>
+      <c r="B44" s="2" t="inlineStr">
+        <is>
           <t>3080</t>
         </is>
       </c>
-      <c r="C32" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">TAMPA ADESIVA 18MM TAUARI     </t>
-        </is>
-      </c>
-      <c r="D32" s="2" t="inlineStr"/>
-      <c r="E32" s="2" t="inlineStr"/>
-      <c r="F32" s="2" t="inlineStr"/>
-      <c r="G32" s="2" t="inlineStr">
-        <is>
-          <t>20.000,00</t>
-        </is>
-      </c>
-      <c r="H32" s="2" t="inlineStr"/>
+      <c r="C44" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FITA BORDA PAPEL 18 MM - 210G </t>
+        </is>
+      </c>
+      <c r="D44" s="2" t="inlineStr">
+        <is>
+          <t>R3D</t>
+        </is>
+      </c>
+      <c r="E44" s="2" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="F44" s="2" t="inlineStr">
+        <is>
+          <t>D0</t>
+        </is>
+      </c>
+      <c r="G44" s="2" t="inlineStr">
+        <is>
+          <t>3.200,00</t>
+        </is>
+      </c>
+      <c r="H44" s="2" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="3" t="n">
+        <v>150001004</v>
+      </c>
+      <c r="B45" s="2" t="inlineStr">
+        <is>
+          <t>3080</t>
+        </is>
+      </c>
+      <c r="C45" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FITA BORDA PAPEL 18 MM - 210G </t>
+        </is>
+      </c>
+      <c r="D45" s="2" t="inlineStr">
+        <is>
+          <t>R3D</t>
+        </is>
+      </c>
+      <c r="E45" s="2" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="F45" s="2" t="inlineStr">
+        <is>
+          <t>E0</t>
+        </is>
+      </c>
+      <c r="G45" s="2" t="inlineStr">
+        <is>
+          <t>3.200,00</t>
+        </is>
+      </c>
+      <c r="H45" s="2" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="3" t="n">
+        <v>150001004</v>
+      </c>
+      <c r="B46" s="2" t="inlineStr">
+        <is>
+          <t>3070</t>
+        </is>
+      </c>
+      <c r="C46" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FITA BORDA PAPEL 18 MM - 210G </t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="inlineStr">
+        <is>
+          <t>R3D</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="F46" s="2" t="inlineStr">
+        <is>
+          <t>E0</t>
+        </is>
+      </c>
+      <c r="G46" s="2" t="inlineStr">
+        <is>
+          <t>2.500,00</t>
+        </is>
+      </c>
+      <c r="H46" s="2" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="3" t="n">
+        <v>150001004</v>
+      </c>
+      <c r="B47" s="2" t="inlineStr">
+        <is>
+          <t>3070</t>
+        </is>
+      </c>
+      <c r="C47" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FITA BORDA PAPEL 18 MM - 210G </t>
+        </is>
+      </c>
+      <c r="D47" s="2" t="inlineStr">
+        <is>
+          <t>R3D</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="F47" s="2" t="inlineStr">
+        <is>
+          <t>D0</t>
+        </is>
+      </c>
+      <c r="G47" s="2" t="inlineStr">
+        <is>
+          <t>2.500,00</t>
+        </is>
+      </c>
+      <c r="H47" s="2" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="3" t="n">
+        <v>150001004</v>
+      </c>
+      <c r="B48" s="2" t="inlineStr">
+        <is>
+          <t>3080</t>
+        </is>
+      </c>
+      <c r="C48" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FITA BORDA PAPEL 18 MM - 210G </t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="inlineStr">
+        <is>
+          <t>R3D</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="inlineStr">
+        <is>
+          <t>S4</t>
+        </is>
+      </c>
+      <c r="F48" s="2" t="inlineStr">
+        <is>
+          <t>E0</t>
+        </is>
+      </c>
+      <c r="G48" s="2" t="inlineStr">
+        <is>
+          <t>3.200,00</t>
+        </is>
+      </c>
+      <c r="H48" s="2" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="3" t="n">
+        <v>150001004</v>
+      </c>
+      <c r="B49" s="2" t="inlineStr">
+        <is>
+          <t>3039</t>
+        </is>
+      </c>
+      <c r="C49" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FITA BORDA PAPEL 18 MM - 210G </t>
+        </is>
+      </c>
+      <c r="D49" s="2" t="inlineStr">
+        <is>
+          <t>R3D</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="inlineStr">
+        <is>
+          <t>S4</t>
+        </is>
+      </c>
+      <c r="F49" s="2" t="inlineStr">
+        <is>
+          <t>D0</t>
+        </is>
+      </c>
+      <c r="G49" s="2" t="inlineStr">
+        <is>
+          <t>18.000,00</t>
+        </is>
+      </c>
+      <c r="H49" s="2" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="3" t="n">
+        <v>150001004</v>
+      </c>
+      <c r="B50" s="2" t="inlineStr">
+        <is>
+          <t>3039</t>
+        </is>
+      </c>
+      <c r="C50" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FITA BORDA PAPEL 18 MM - 210G </t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="inlineStr">
+        <is>
+          <t>R3D</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="inlineStr">
+        <is>
+          <t>S4</t>
+        </is>
+      </c>
+      <c r="F50" s="2" t="inlineStr">
+        <is>
+          <t>E0</t>
+        </is>
+      </c>
+      <c r="G50" s="2" t="inlineStr">
+        <is>
+          <t>18.000,00</t>
+        </is>
+      </c>
+      <c r="H50" s="2" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="3" t="n">
+        <v>150001004</v>
+      </c>
+      <c r="B51" s="2" t="inlineStr">
+        <is>
+          <t>3080</t>
+        </is>
+      </c>
+      <c r="C51" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FITA BORDA PAPEL 18 MM - 210G </t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="inlineStr">
+        <is>
+          <t>R3D</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="inlineStr">
+        <is>
+          <t>S4</t>
+        </is>
+      </c>
+      <c r="F51" s="2" t="inlineStr">
+        <is>
+          <t>D0</t>
+        </is>
+      </c>
+      <c r="G51" s="2" t="inlineStr">
+        <is>
+          <t>3.200,00</t>
+        </is>
+      </c>
+      <c r="H51" s="2" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="3" t="n">
+        <v>150001006</v>
+      </c>
+      <c r="B52" s="2" t="inlineStr">
+        <is>
+          <t>3070</t>
+        </is>
+      </c>
+      <c r="C52" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FITA BORDA PAPEL 40 MM - 240G </t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="inlineStr">
+        <is>
+          <t>R3D</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="inlineStr">
+        <is>
+          <t>S4</t>
+        </is>
+      </c>
+      <c r="F52" s="2" t="inlineStr">
+        <is>
+          <t>E2</t>
+        </is>
+      </c>
+      <c r="G52" s="2" t="inlineStr">
+        <is>
+          <t>2.000,00</t>
+        </is>
+      </c>
+      <c r="H52" s="2" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="3" t="n">
+        <v>150001006</v>
+      </c>
+      <c r="B53" s="2" t="inlineStr">
+        <is>
+          <t>3070</t>
+        </is>
+      </c>
+      <c r="C53" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FITA BORDA PAPEL 40 MM - 240G </t>
+        </is>
+      </c>
+      <c r="D53" s="2" t="inlineStr">
+        <is>
+          <t>R3D</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="inlineStr">
+        <is>
+          <t>S4</t>
+        </is>
+      </c>
+      <c r="F53" s="2" t="inlineStr">
+        <is>
+          <t>D2</t>
+        </is>
+      </c>
+      <c r="G53" s="2" t="inlineStr">
+        <is>
+          <t>2.000,00</t>
+        </is>
+      </c>
+      <c r="H53" s="2" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="3" t="n">
+        <v>150001004</v>
+      </c>
+      <c r="B54" s="2" t="inlineStr">
+        <is>
+          <t>3082</t>
+        </is>
+      </c>
+      <c r="C54" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FITA BORDA PAPEL 18 MM - 210G </t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="inlineStr">
+        <is>
+          <t>R3D</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="inlineStr">
+        <is>
+          <t>S4</t>
+        </is>
+      </c>
+      <c r="F54" s="2" t="inlineStr">
+        <is>
+          <t>E0</t>
+        </is>
+      </c>
+      <c r="G54" s="2" t="inlineStr">
+        <is>
+          <t>2.500,00</t>
+        </is>
+      </c>
+      <c r="H54" s="2" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="3" t="n">
+        <v>150001004</v>
+      </c>
+      <c r="B55" s="2" t="inlineStr">
+        <is>
+          <t>3082</t>
+        </is>
+      </c>
+      <c r="C55" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FITA BORDA PAPEL 18 MM - 210G </t>
+        </is>
+      </c>
+      <c r="D55" s="2" t="inlineStr">
+        <is>
+          <t>R3D</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="inlineStr">
+        <is>
+          <t>S4</t>
+        </is>
+      </c>
+      <c r="F55" s="2" t="inlineStr">
+        <is>
+          <t>D0</t>
+        </is>
+      </c>
+      <c r="G55" s="2" t="inlineStr">
+        <is>
+          <t>2.500,00</t>
+        </is>
+      </c>
+      <c r="H55" s="2" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="3" t="n">
+        <v>150001004</v>
+      </c>
+      <c r="B56" s="2" t="inlineStr">
+        <is>
+          <t>3070</t>
+        </is>
+      </c>
+      <c r="C56" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FITA BORDA PAPEL 18 MM - 210G </t>
+        </is>
+      </c>
+      <c r="D56" s="2" t="inlineStr">
+        <is>
+          <t>R3D</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="inlineStr">
+        <is>
+          <t>S4</t>
+        </is>
+      </c>
+      <c r="F56" s="2" t="inlineStr">
+        <is>
+          <t>D0</t>
+        </is>
+      </c>
+      <c r="G56" s="2" t="inlineStr">
+        <is>
+          <t>2.500,00</t>
+        </is>
+      </c>
+      <c r="H56" s="2" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="3" t="n">
+        <v>150001004</v>
+      </c>
+      <c r="B57" s="2" t="inlineStr">
+        <is>
+          <t>3070</t>
+        </is>
+      </c>
+      <c r="C57" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FITA BORDA PAPEL 18 MM - 210G </t>
+        </is>
+      </c>
+      <c r="D57" s="2" t="inlineStr">
+        <is>
+          <t>R3D</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="inlineStr">
+        <is>
+          <t>S4</t>
+        </is>
+      </c>
+      <c r="F57" s="2" t="inlineStr">
+        <is>
+          <t>E0</t>
+        </is>
+      </c>
+      <c r="G57" s="2" t="inlineStr">
+        <is>
+          <t>2.500,00</t>
+        </is>
+      </c>
+      <c r="H57" s="2" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="3" t="n">
+        <v>150001004</v>
+      </c>
+      <c r="B58" s="2" t="inlineStr">
+        <is>
+          <t>3039</t>
+        </is>
+      </c>
+      <c r="C58" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FITA BORDA PAPEL 18 MM - 210G </t>
+        </is>
+      </c>
+      <c r="D58" s="2" t="inlineStr">
+        <is>
+          <t>R3D</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="inlineStr">
+        <is>
+          <t>S5</t>
+        </is>
+      </c>
+      <c r="F58" s="2" t="inlineStr">
+        <is>
+          <t>D0</t>
+        </is>
+      </c>
+      <c r="G58" s="2" t="inlineStr">
+        <is>
+          <t>18.000,00</t>
+        </is>
+      </c>
+      <c r="H58" s="2" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="3" t="n">
+        <v>150001004</v>
+      </c>
+      <c r="B59" s="2" t="inlineStr">
+        <is>
+          <t>3039</t>
+        </is>
+      </c>
+      <c r="C59" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FITA BORDA PAPEL 18 MM - 210G </t>
+        </is>
+      </c>
+      <c r="D59" s="2" t="inlineStr">
+        <is>
+          <t>R3D</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="inlineStr">
+        <is>
+          <t>S5</t>
+        </is>
+      </c>
+      <c r="F59" s="2" t="inlineStr">
+        <is>
+          <t>E0</t>
+        </is>
+      </c>
+      <c r="G59" s="2" t="inlineStr">
+        <is>
+          <t>18.000,00</t>
+        </is>
+      </c>
+      <c r="H59" s="2" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="3" t="n">
+        <v>150001004</v>
+      </c>
+      <c r="B60" s="2" t="inlineStr">
+        <is>
+          <t>3039</t>
+        </is>
+      </c>
+      <c r="C60" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FITA BORDA PAPEL 18 MM - 210G </t>
+        </is>
+      </c>
+      <c r="D60" s="2" t="inlineStr">
+        <is>
+          <t>R3D</t>
+        </is>
+      </c>
+      <c r="E60" s="2" t="inlineStr">
+        <is>
+          <t>S5</t>
+        </is>
+      </c>
+      <c r="F60" s="2" t="inlineStr">
+        <is>
+          <t>D3</t>
+        </is>
+      </c>
+      <c r="G60" s="2" t="inlineStr">
+        <is>
+          <t>18.000,00</t>
+        </is>
+      </c>
+      <c r="H60" s="2" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="3" t="n">
+        <v>150001004</v>
+      </c>
+      <c r="B61" s="2" t="inlineStr">
+        <is>
+          <t>3082</t>
+        </is>
+      </c>
+      <c r="C61" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FITA BORDA PAPEL 18 MM - 210G </t>
+        </is>
+      </c>
+      <c r="D61" s="2" t="inlineStr">
+        <is>
+          <t>R3D</t>
+        </is>
+      </c>
+      <c r="E61" s="2" t="inlineStr">
+        <is>
+          <t>S5</t>
+        </is>
+      </c>
+      <c r="F61" s="2" t="inlineStr">
+        <is>
+          <t>D0</t>
+        </is>
+      </c>
+      <c r="G61" s="2" t="inlineStr">
+        <is>
+          <t>2.500,00</t>
+        </is>
+      </c>
+      <c r="H61" s="2" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="3" t="n">
+        <v>150001004</v>
+      </c>
+      <c r="B62" s="2" t="inlineStr">
+        <is>
+          <t>3082</t>
+        </is>
+      </c>
+      <c r="C62" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FITA BORDA PAPEL 18 MM - 210G </t>
+        </is>
+      </c>
+      <c r="D62" s="2" t="inlineStr">
+        <is>
+          <t>R3D</t>
+        </is>
+      </c>
+      <c r="E62" s="2" t="inlineStr">
+        <is>
+          <t>S5</t>
+        </is>
+      </c>
+      <c r="F62" s="2" t="inlineStr">
+        <is>
+          <t>E0</t>
+        </is>
+      </c>
+      <c r="G62" s="2" t="inlineStr">
+        <is>
+          <t>2.500,00</t>
+        </is>
+      </c>
+      <c r="H62" s="2" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="3" t="n">
+        <v>150001004</v>
+      </c>
+      <c r="B63" s="2" t="inlineStr">
+        <is>
+          <t>3082</t>
+        </is>
+      </c>
+      <c r="C63" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FITA BORDA PAPEL 18 MM - 210G </t>
+        </is>
+      </c>
+      <c r="D63" s="2" t="inlineStr">
+        <is>
+          <t>R3D</t>
+        </is>
+      </c>
+      <c r="E63" s="2" t="inlineStr">
+        <is>
+          <t>S5</t>
+        </is>
+      </c>
+      <c r="F63" s="2" t="inlineStr">
+        <is>
+          <t>E1</t>
+        </is>
+      </c>
+      <c r="G63" s="2" t="inlineStr">
+        <is>
+          <t>2.500,00</t>
+        </is>
+      </c>
+      <c r="H63" s="2" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="3" t="n">
+        <v>150001004</v>
+      </c>
+      <c r="B64" s="2" t="inlineStr">
+        <is>
+          <t>3080</t>
+        </is>
+      </c>
+      <c r="C64" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FITA BORDA PAPEL 18 MM - 210G </t>
+        </is>
+      </c>
+      <c r="D64" s="2" t="inlineStr">
+        <is>
+          <t>R3D</t>
+        </is>
+      </c>
+      <c r="E64" s="2" t="inlineStr">
+        <is>
+          <t>S5</t>
+        </is>
+      </c>
+      <c r="F64" s="2" t="inlineStr">
+        <is>
+          <t>E1</t>
+        </is>
+      </c>
+      <c r="G64" s="2" t="inlineStr">
+        <is>
+          <t>3.200,00</t>
+        </is>
+      </c>
+      <c r="H64" s="2" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="3" t="n">
+        <v>150001004</v>
+      </c>
+      <c r="B65" s="2" t="inlineStr">
+        <is>
+          <t>3080</t>
+        </is>
+      </c>
+      <c r="C65" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FITA BORDA PAPEL 18 MM - 210G </t>
+        </is>
+      </c>
+      <c r="D65" s="2" t="inlineStr">
+        <is>
+          <t>R3D</t>
+        </is>
+      </c>
+      <c r="E65" s="2" t="inlineStr">
+        <is>
+          <t>S5</t>
+        </is>
+      </c>
+      <c r="F65" s="2" t="inlineStr">
+        <is>
+          <t>D3</t>
+        </is>
+      </c>
+      <c r="G65" s="2" t="inlineStr">
+        <is>
+          <t>3.200,00</t>
+        </is>
+      </c>
+      <c r="H65" s="2" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="3" t="n">
+        <v>150001004</v>
+      </c>
+      <c r="B66" s="2" t="inlineStr">
+        <is>
+          <t>3082</t>
+        </is>
+      </c>
+      <c r="C66" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FITA BORDA PAPEL 18 MM - 210G </t>
+        </is>
+      </c>
+      <c r="D66" s="2" t="inlineStr">
+        <is>
+          <t>R3D</t>
+        </is>
+      </c>
+      <c r="E66" s="2" t="inlineStr">
+        <is>
+          <t>S5</t>
+        </is>
+      </c>
+      <c r="F66" s="2" t="inlineStr">
+        <is>
+          <t>D3</t>
+        </is>
+      </c>
+      <c r="G66" s="2" t="inlineStr">
+        <is>
+          <t>2.500,00</t>
+        </is>
+      </c>
+      <c r="H66" s="2" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="3" t="n">
+        <v>150001004</v>
+      </c>
+      <c r="B67" s="2" t="inlineStr">
+        <is>
+          <t>3080</t>
+        </is>
+      </c>
+      <c r="C67" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FITA BORDA PAPEL 18 MM - 210G </t>
+        </is>
+      </c>
+      <c r="D67" s="2" t="inlineStr">
+        <is>
+          <t>R3D</t>
+        </is>
+      </c>
+      <c r="E67" s="2" t="inlineStr">
+        <is>
+          <t>S5</t>
+        </is>
+      </c>
+      <c r="F67" s="2" t="inlineStr">
+        <is>
+          <t>E0</t>
+        </is>
+      </c>
+      <c r="G67" s="2" t="inlineStr">
+        <is>
+          <t>3.200,00</t>
+        </is>
+      </c>
+      <c r="H67" s="2" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="3" t="n">
+        <v>150001004</v>
+      </c>
+      <c r="B68" s="2" t="inlineStr">
+        <is>
+          <t>3070</t>
+        </is>
+      </c>
+      <c r="C68" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FITA BORDA PAPEL 18 MM - 210G </t>
+        </is>
+      </c>
+      <c r="D68" s="2" t="inlineStr">
+        <is>
+          <t>R3D</t>
+        </is>
+      </c>
+      <c r="E68" s="2" t="inlineStr">
+        <is>
+          <t>S5</t>
+        </is>
+      </c>
+      <c r="F68" s="2" t="inlineStr">
+        <is>
+          <t>D0</t>
+        </is>
+      </c>
+      <c r="G68" s="2" t="inlineStr">
+        <is>
+          <t>2.500,00</t>
+        </is>
+      </c>
+      <c r="H68" s="2" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="3" t="n">
+        <v>150001004</v>
+      </c>
+      <c r="B69" s="2" t="inlineStr">
+        <is>
+          <t>3070</t>
+        </is>
+      </c>
+      <c r="C69" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FITA BORDA PAPEL 18 MM - 210G </t>
+        </is>
+      </c>
+      <c r="D69" s="2" t="inlineStr">
+        <is>
+          <t>R3D</t>
+        </is>
+      </c>
+      <c r="E69" s="2" t="inlineStr">
+        <is>
+          <t>S5</t>
+        </is>
+      </c>
+      <c r="F69" s="2" t="inlineStr">
+        <is>
+          <t>E0</t>
+        </is>
+      </c>
+      <c r="G69" s="2" t="inlineStr">
+        <is>
+          <t>2.500,00</t>
+        </is>
+      </c>
+      <c r="H69" s="2" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="3" t="n">
+        <v>150001004</v>
+      </c>
+      <c r="B70" s="2" t="inlineStr">
+        <is>
+          <t>3080</t>
+        </is>
+      </c>
+      <c r="C70" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FITA BORDA PAPEL 18 MM - 210G </t>
+        </is>
+      </c>
+      <c r="D70" s="2" t="inlineStr">
+        <is>
+          <t>R3D</t>
+        </is>
+      </c>
+      <c r="E70" s="2" t="inlineStr">
+        <is>
+          <t>S5</t>
+        </is>
+      </c>
+      <c r="F70" s="2" t="inlineStr">
+        <is>
+          <t>D0</t>
+        </is>
+      </c>
+      <c r="G70" s="2" t="inlineStr">
+        <is>
+          <t>3.200,00</t>
+        </is>
+      </c>
+      <c r="H70" s="2" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="3" t="n">
+        <v>150001004</v>
+      </c>
+      <c r="B71" s="2" t="inlineStr">
+        <is>
+          <t>3070</t>
+        </is>
+      </c>
+      <c r="C71" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FITA BORDA PAPEL 18 MM - 210G </t>
+        </is>
+      </c>
+      <c r="D71" s="2" t="inlineStr">
+        <is>
+          <t>R3D</t>
+        </is>
+      </c>
+      <c r="E71" s="2" t="inlineStr">
+        <is>
+          <t>S5</t>
+        </is>
+      </c>
+      <c r="F71" s="2" t="inlineStr">
+        <is>
+          <t>D3</t>
+        </is>
+      </c>
+      <c r="G71" s="2" t="inlineStr">
+        <is>
+          <t>2.500,00</t>
+        </is>
+      </c>
+      <c r="H71" s="2" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="3" t="n">
+        <v>150001004</v>
+      </c>
+      <c r="B72" s="2" t="inlineStr">
+        <is>
+          <t>3070</t>
+        </is>
+      </c>
+      <c r="C72" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FITA BORDA PAPEL 18 MM - 210G </t>
+        </is>
+      </c>
+      <c r="D72" s="2" t="inlineStr">
+        <is>
+          <t>R3D</t>
+        </is>
+      </c>
+      <c r="E72" s="2" t="inlineStr">
+        <is>
+          <t>S5</t>
+        </is>
+      </c>
+      <c r="F72" s="2" t="inlineStr">
+        <is>
+          <t>E1</t>
+        </is>
+      </c>
+      <c r="G72" s="2" t="inlineStr">
+        <is>
+          <t>2.500,00</t>
+        </is>
+      </c>
+      <c r="H72" s="2" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="3" t="n">
+        <v>150001004</v>
+      </c>
+      <c r="B73" s="2" t="inlineStr">
+        <is>
+          <t>3039</t>
+        </is>
+      </c>
+      <c r="C73" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FITA BORDA PAPEL 18 MM - 210G </t>
+        </is>
+      </c>
+      <c r="D73" s="2" t="inlineStr">
+        <is>
+          <t>R3D</t>
+        </is>
+      </c>
+      <c r="E73" s="2" t="inlineStr">
+        <is>
+          <t>S5</t>
+        </is>
+      </c>
+      <c r="F73" s="2" t="inlineStr">
+        <is>
+          <t>E1</t>
+        </is>
+      </c>
+      <c r="G73" s="2" t="inlineStr">
+        <is>
+          <t>18.000,00</t>
+        </is>
+      </c>
+      <c r="H73" s="2" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="3" t="n">
+        <v>150001004</v>
+      </c>
+      <c r="B74" s="2" t="inlineStr">
+        <is>
+          <t>3070</t>
+        </is>
+      </c>
+      <c r="C74" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FITA BORDA PAPEL 18 MM - 210G </t>
+        </is>
+      </c>
+      <c r="D74" s="2" t="inlineStr">
+        <is>
+          <t>R3D</t>
+        </is>
+      </c>
+      <c r="E74" s="2" t="inlineStr">
+        <is>
+          <t>S6</t>
+        </is>
+      </c>
+      <c r="F74" s="2" t="inlineStr">
+        <is>
+          <t>D0</t>
+        </is>
+      </c>
+      <c r="G74" s="2" t="inlineStr">
+        <is>
+          <t>2.500,00</t>
+        </is>
+      </c>
+      <c r="H74" s="2" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="3" t="n">
+        <v>150001004</v>
+      </c>
+      <c r="B75" s="2" t="inlineStr">
+        <is>
+          <t>3070</t>
+        </is>
+      </c>
+      <c r="C75" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FITA BORDA PAPEL 18 MM - 210G </t>
+        </is>
+      </c>
+      <c r="D75" s="2" t="inlineStr">
+        <is>
+          <t>R3D</t>
+        </is>
+      </c>
+      <c r="E75" s="2" t="inlineStr">
+        <is>
+          <t>S6</t>
+        </is>
+      </c>
+      <c r="F75" s="2" t="inlineStr">
+        <is>
+          <t>E0</t>
+        </is>
+      </c>
+      <c r="G75" s="2" t="inlineStr">
+        <is>
+          <t>2.500,00</t>
+        </is>
+      </c>
+      <c r="H75" s="2" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="3" t="n">
+        <v>150001004</v>
+      </c>
+      <c r="B76" s="2" t="inlineStr">
+        <is>
+          <t>3070</t>
+        </is>
+      </c>
+      <c r="C76" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FITA BORDA PAPEL 18 MM - 210G </t>
+        </is>
+      </c>
+      <c r="D76" s="2" t="inlineStr">
+        <is>
+          <t>R3D</t>
+        </is>
+      </c>
+      <c r="E76" s="2" t="inlineStr">
+        <is>
+          <t>S6</t>
+        </is>
+      </c>
+      <c r="F76" s="2" t="inlineStr">
+        <is>
+          <t>E3</t>
+        </is>
+      </c>
+      <c r="G76" s="2" t="inlineStr">
+        <is>
+          <t>2.500,00</t>
+        </is>
+      </c>
+      <c r="H76" s="2" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="3" t="n">
+        <v>150001006</v>
+      </c>
+      <c r="B77" s="2" t="inlineStr">
+        <is>
+          <t>3070</t>
+        </is>
+      </c>
+      <c r="C77" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FITA BORDA PAPEL 40 MM - 240G </t>
+        </is>
+      </c>
+      <c r="D77" s="2" t="inlineStr">
+        <is>
+          <t>R3D</t>
+        </is>
+      </c>
+      <c r="E77" s="2" t="inlineStr">
+        <is>
+          <t>S6</t>
+        </is>
+      </c>
+      <c r="F77" s="2" t="inlineStr">
+        <is>
+          <t>E2</t>
+        </is>
+      </c>
+      <c r="G77" s="2" t="inlineStr">
+        <is>
+          <t>2.000,00</t>
+        </is>
+      </c>
+      <c r="H77" s="2" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="3" t="n">
+        <v>150001006</v>
+      </c>
+      <c r="B78" s="2" t="inlineStr">
+        <is>
+          <t>3070</t>
+        </is>
+      </c>
+      <c r="C78" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FITA BORDA PAPEL 40 MM - 240G </t>
+        </is>
+      </c>
+      <c r="D78" s="2" t="inlineStr">
+        <is>
+          <t>R3D</t>
+        </is>
+      </c>
+      <c r="E78" s="2" t="inlineStr">
+        <is>
+          <t>S6</t>
+        </is>
+      </c>
+      <c r="F78" s="2" t="inlineStr">
+        <is>
+          <t>D2</t>
+        </is>
+      </c>
+      <c r="G78" s="2" t="inlineStr">
+        <is>
+          <t>2.000,00</t>
+        </is>
+      </c>
+      <c r="H78" s="2" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="3" t="n">
+        <v>150001004</v>
+      </c>
+      <c r="B79" s="2" t="inlineStr">
+        <is>
+          <t>3039</t>
+        </is>
+      </c>
+      <c r="C79" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FITA BORDA PAPEL 18 MM - 210G </t>
+        </is>
+      </c>
+      <c r="D79" s="2" t="inlineStr">
+        <is>
+          <t>R3D</t>
+        </is>
+      </c>
+      <c r="E79" s="2" t="inlineStr">
+        <is>
+          <t>S6</t>
+        </is>
+      </c>
+      <c r="F79" s="2" t="inlineStr">
+        <is>
+          <t>E3</t>
+        </is>
+      </c>
+      <c r="G79" s="2" t="inlineStr">
+        <is>
+          <t>18.000,00</t>
+        </is>
+      </c>
+      <c r="H79" s="2" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="3" t="n">
+        <v>150001004</v>
+      </c>
+      <c r="B80" s="2" t="inlineStr">
+        <is>
+          <t>3039</t>
+        </is>
+      </c>
+      <c r="C80" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FITA BORDA PAPEL 18 MM - 210G </t>
+        </is>
+      </c>
+      <c r="D80" s="2" t="inlineStr">
+        <is>
+          <t>R3D</t>
+        </is>
+      </c>
+      <c r="E80" s="2" t="inlineStr">
+        <is>
+          <t>S6</t>
+        </is>
+      </c>
+      <c r="F80" s="2" t="inlineStr">
+        <is>
+          <t>E0</t>
+        </is>
+      </c>
+      <c r="G80" s="2" t="inlineStr">
+        <is>
+          <t>18.000,00</t>
+        </is>
+      </c>
+      <c r="H80" s="2" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="3" t="n">
+        <v>150001004</v>
+      </c>
+      <c r="B81" s="2" t="inlineStr">
+        <is>
+          <t>3039</t>
+        </is>
+      </c>
+      <c r="C81" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FITA BORDA PAPEL 18 MM - 210G </t>
+        </is>
+      </c>
+      <c r="D81" s="2" t="inlineStr">
+        <is>
+          <t>R3D</t>
+        </is>
+      </c>
+      <c r="E81" s="2" t="inlineStr">
+        <is>
+          <t>S6</t>
+        </is>
+      </c>
+      <c r="F81" s="2" t="inlineStr">
+        <is>
+          <t>D0</t>
+        </is>
+      </c>
+      <c r="G81" s="2" t="inlineStr">
+        <is>
+          <t>18.000,00</t>
+        </is>
+      </c>
+      <c r="H81" s="2" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="3" t="n">
+        <v>150001004</v>
+      </c>
+      <c r="B82" s="2" t="inlineStr">
+        <is>
+          <t>3082</t>
+        </is>
+      </c>
+      <c r="C82" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FITA BORDA PAPEL 18 MM - 210G </t>
+        </is>
+      </c>
+      <c r="D82" s="2" t="inlineStr">
+        <is>
+          <t>R3D</t>
+        </is>
+      </c>
+      <c r="E82" s="2" t="inlineStr">
+        <is>
+          <t>S6</t>
+        </is>
+      </c>
+      <c r="F82" s="2" t="inlineStr">
+        <is>
+          <t>D0</t>
+        </is>
+      </c>
+      <c r="G82" s="2" t="inlineStr">
+        <is>
+          <t>2.500,00</t>
+        </is>
+      </c>
+      <c r="H82" s="2" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="3" t="n">
+        <v>150001004</v>
+      </c>
+      <c r="B83" s="2" t="inlineStr">
+        <is>
+          <t>3082</t>
+        </is>
+      </c>
+      <c r="C83" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FITA BORDA PAPEL 18 MM - 210G </t>
+        </is>
+      </c>
+      <c r="D83" s="2" t="inlineStr">
+        <is>
+          <t>R3D</t>
+        </is>
+      </c>
+      <c r="E83" s="2" t="inlineStr">
+        <is>
+          <t>S6</t>
+        </is>
+      </c>
+      <c r="F83" s="2" t="inlineStr">
+        <is>
+          <t>E0</t>
+        </is>
+      </c>
+      <c r="G83" s="2" t="inlineStr">
+        <is>
+          <t>2.500,00</t>
+        </is>
+      </c>
+      <c r="H83" s="2" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="3" t="n">
+        <v>150001004</v>
+      </c>
+      <c r="B84" s="2" t="inlineStr">
+        <is>
+          <t>3082</t>
+        </is>
+      </c>
+      <c r="C84" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FITA BORDA PAPEL 18 MM - 210G </t>
+        </is>
+      </c>
+      <c r="D84" s="2" t="inlineStr">
+        <is>
+          <t>R3D</t>
+        </is>
+      </c>
+      <c r="E84" s="2" t="inlineStr">
+        <is>
+          <t>S6</t>
+        </is>
+      </c>
+      <c r="F84" s="2" t="inlineStr">
+        <is>
+          <t>E3</t>
+        </is>
+      </c>
+      <c r="G84" s="2" t="inlineStr">
+        <is>
+          <t>2.500,00</t>
+        </is>
+      </c>
+      <c r="H84" s="2" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="3" t="n">
+        <v>150001004</v>
+      </c>
+      <c r="B85" s="2" t="inlineStr">
+        <is>
+          <t>3080</t>
+        </is>
+      </c>
+      <c r="C85" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FITA BORDA PAPEL 18 MM - 210G </t>
+        </is>
+      </c>
+      <c r="D85" s="2" t="inlineStr">
+        <is>
+          <t>R3D</t>
+        </is>
+      </c>
+      <c r="E85" s="2" t="inlineStr">
+        <is>
+          <t>S6</t>
+        </is>
+      </c>
+      <c r="F85" s="2" t="inlineStr">
+        <is>
+          <t>E3</t>
+        </is>
+      </c>
+      <c r="G85" s="2" t="inlineStr">
+        <is>
+          <t>3.200,00</t>
+        </is>
+      </c>
+      <c r="H85" s="2" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="3" t="n">
+        <v>150001004</v>
+      </c>
+      <c r="B86" s="2" t="inlineStr">
+        <is>
+          <t>3080</t>
+        </is>
+      </c>
+      <c r="C86" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FITA BORDA PAPEL 18 MM - 210G </t>
+        </is>
+      </c>
+      <c r="D86" s="2" t="inlineStr">
+        <is>
+          <t>R3D</t>
+        </is>
+      </c>
+      <c r="E86" s="2" t="inlineStr">
+        <is>
+          <t>S6</t>
+        </is>
+      </c>
+      <c r="F86" s="2" t="inlineStr">
+        <is>
+          <t>E0</t>
+        </is>
+      </c>
+      <c r="G86" s="2" t="inlineStr">
+        <is>
+          <t>3.200,00</t>
+        </is>
+      </c>
+      <c r="H86" s="2" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="3" t="n">
+        <v>150001004</v>
+      </c>
+      <c r="B87" s="2" t="inlineStr">
+        <is>
+          <t>3080</t>
+        </is>
+      </c>
+      <c r="C87" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FITA BORDA PAPEL 18 MM - 210G </t>
+        </is>
+      </c>
+      <c r="D87" s="2" t="inlineStr">
+        <is>
+          <t>R3D</t>
+        </is>
+      </c>
+      <c r="E87" s="2" t="inlineStr">
+        <is>
+          <t>S6</t>
+        </is>
+      </c>
+      <c r="F87" s="2" t="inlineStr">
+        <is>
+          <t>D0</t>
+        </is>
+      </c>
+      <c r="G87" s="2" t="inlineStr">
+        <is>
+          <t>3.200,00</t>
+        </is>
+      </c>
+      <c r="H87" s="2" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="3" t="n">
+        <v>150001004</v>
+      </c>
+      <c r="B88" s="2" t="inlineStr">
+        <is>
+          <t>3082</t>
+        </is>
+      </c>
+      <c r="C88" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FITA BORDA PAPEL 18 MM - 210G </t>
+        </is>
+      </c>
+      <c r="D88" s="2" t="inlineStr">
+        <is>
+          <t>R3D</t>
+        </is>
+      </c>
+      <c r="E88" s="2" t="inlineStr">
+        <is>
+          <t>S7</t>
+        </is>
+      </c>
+      <c r="F88" s="2" t="inlineStr">
+        <is>
+          <t>E3</t>
+        </is>
+      </c>
+      <c r="G88" s="2" t="inlineStr">
+        <is>
+          <t>2.500,00</t>
+        </is>
+      </c>
+      <c r="H88" s="2" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="3" t="n">
+        <v>150001004</v>
+      </c>
+      <c r="B89" s="2" t="inlineStr">
+        <is>
+          <t>3082</t>
+        </is>
+      </c>
+      <c r="C89" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FITA BORDA PAPEL 18 MM - 210G </t>
+        </is>
+      </c>
+      <c r="D89" s="2" t="inlineStr">
+        <is>
+          <t>R3D</t>
+        </is>
+      </c>
+      <c r="E89" s="2" t="inlineStr">
+        <is>
+          <t>S7</t>
+        </is>
+      </c>
+      <c r="F89" s="2" t="inlineStr">
+        <is>
+          <t>D3</t>
+        </is>
+      </c>
+      <c r="G89" s="2" t="inlineStr">
+        <is>
+          <t>2.500,00</t>
+        </is>
+      </c>
+      <c r="H89" s="2" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="3" t="n">
+        <v>150001004</v>
+      </c>
+      <c r="B90" s="2" t="inlineStr">
+        <is>
+          <t>3080</t>
+        </is>
+      </c>
+      <c r="C90" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FITA BORDA PAPEL 18 MM - 210G </t>
+        </is>
+      </c>
+      <c r="D90" s="2" t="inlineStr">
+        <is>
+          <t>R3D</t>
+        </is>
+      </c>
+      <c r="E90" s="2" t="inlineStr">
+        <is>
+          <t>S7</t>
+        </is>
+      </c>
+      <c r="F90" s="2" t="inlineStr">
+        <is>
+          <t>E3</t>
+        </is>
+      </c>
+      <c r="G90" s="2" t="inlineStr">
+        <is>
+          <t>3.200,00</t>
+        </is>
+      </c>
+      <c r="H90" s="2" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="3" t="n">
+        <v>150001006</v>
+      </c>
+      <c r="B91" s="2" t="inlineStr">
+        <is>
+          <t>3070</t>
+        </is>
+      </c>
+      <c r="C91" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FITA BORDA PAPEL 40 MM - 240G </t>
+        </is>
+      </c>
+      <c r="D91" s="2" t="inlineStr">
+        <is>
+          <t>R3D</t>
+        </is>
+      </c>
+      <c r="E91" s="2" t="inlineStr">
+        <is>
+          <t>S7</t>
+        </is>
+      </c>
+      <c r="F91" s="2" t="inlineStr">
+        <is>
+          <t>E2</t>
+        </is>
+      </c>
+      <c r="G91" s="2" t="inlineStr">
+        <is>
+          <t>2.000,00</t>
+        </is>
+      </c>
+      <c r="H91" s="2" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="3" t="n">
+        <v>150001004</v>
+      </c>
+      <c r="B92" s="2" t="inlineStr">
+        <is>
+          <t>3070</t>
+        </is>
+      </c>
+      <c r="C92" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FITA BORDA PAPEL 18 MM - 210G </t>
+        </is>
+      </c>
+      <c r="D92" s="2" t="inlineStr">
+        <is>
+          <t>R3D</t>
+        </is>
+      </c>
+      <c r="E92" s="2" t="inlineStr">
+        <is>
+          <t>S7</t>
+        </is>
+      </c>
+      <c r="F92" s="2" t="inlineStr">
+        <is>
+          <t>D3</t>
+        </is>
+      </c>
+      <c r="G92" s="2" t="inlineStr">
+        <is>
+          <t>2.500,00</t>
+        </is>
+      </c>
+      <c r="H92" s="2" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="3" t="n">
+        <v>150001004</v>
+      </c>
+      <c r="B93" s="2" t="inlineStr">
+        <is>
+          <t>3080</t>
+        </is>
+      </c>
+      <c r="C93" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FITA BORDA PAPEL 18 MM - 210G </t>
+        </is>
+      </c>
+      <c r="D93" s="2" t="inlineStr">
+        <is>
+          <t>R3D</t>
+        </is>
+      </c>
+      <c r="E93" s="2" t="inlineStr">
+        <is>
+          <t>S7</t>
+        </is>
+      </c>
+      <c r="F93" s="2" t="inlineStr">
+        <is>
+          <t>D3</t>
+        </is>
+      </c>
+      <c r="G93" s="2" t="inlineStr">
+        <is>
+          <t>3.200,00</t>
+        </is>
+      </c>
+      <c r="H93" s="2" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="3" t="n">
+        <v>150001004</v>
+      </c>
+      <c r="B94" s="2" t="inlineStr">
+        <is>
+          <t>3039</t>
+        </is>
+      </c>
+      <c r="C94" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FITA BORDA PAPEL 18 MM - 210G </t>
+        </is>
+      </c>
+      <c r="D94" s="2" t="inlineStr">
+        <is>
+          <t>R3D</t>
+        </is>
+      </c>
+      <c r="E94" s="2" t="inlineStr">
+        <is>
+          <t>S7</t>
+        </is>
+      </c>
+      <c r="F94" s="2" t="inlineStr">
+        <is>
+          <t>D3</t>
+        </is>
+      </c>
+      <c r="G94" s="2" t="inlineStr">
+        <is>
+          <t>18.000,00</t>
+        </is>
+      </c>
+      <c r="H94" s="2" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="3" t="n">
+        <v>150001004</v>
+      </c>
+      <c r="B95" s="2" t="inlineStr">
+        <is>
+          <t>3070</t>
+        </is>
+      </c>
+      <c r="C95" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FITA BORDA PAPEL 18 MM - 210G </t>
+        </is>
+      </c>
+      <c r="D95" s="2" t="inlineStr">
+        <is>
+          <t>R3D</t>
+        </is>
+      </c>
+      <c r="E95" s="2" t="inlineStr">
+        <is>
+          <t>S7</t>
+        </is>
+      </c>
+      <c r="F95" s="2" t="inlineStr">
+        <is>
+          <t>E3</t>
+        </is>
+      </c>
+      <c r="G95" s="2" t="inlineStr">
+        <is>
+          <t>2.500,00</t>
+        </is>
+      </c>
+      <c r="H95" s="2" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="3" t="n">
+        <v>150001004</v>
+      </c>
+      <c r="B96" s="2" t="inlineStr">
+        <is>
+          <t>3039</t>
+        </is>
+      </c>
+      <c r="C96" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FITA BORDA PAPEL 18 MM - 210G </t>
+        </is>
+      </c>
+      <c r="D96" s="2" t="inlineStr">
+        <is>
+          <t>R3D</t>
+        </is>
+      </c>
+      <c r="E96" s="2" t="inlineStr">
+        <is>
+          <t>S7</t>
+        </is>
+      </c>
+      <c r="F96" s="2" t="inlineStr">
+        <is>
+          <t>E3</t>
+        </is>
+      </c>
+      <c r="G96" s="2" t="inlineStr">
+        <is>
+          <t>18.000,00</t>
+        </is>
+      </c>
+      <c r="H96" s="2" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="3" t="n">
+        <v>150001004</v>
+      </c>
+      <c r="B97" s="2" t="inlineStr">
+        <is>
+          <t>3080</t>
+        </is>
+      </c>
+      <c r="C97" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FITA BORDA PAPEL 18 MM - 210G </t>
+        </is>
+      </c>
+      <c r="D97" s="2" t="inlineStr">
+        <is>
+          <t>R3D</t>
+        </is>
+      </c>
+      <c r="E97" s="2" t="inlineStr">
+        <is>
+          <t>S8</t>
+        </is>
+      </c>
+      <c r="F97" s="2" t="inlineStr">
+        <is>
+          <t>E3</t>
+        </is>
+      </c>
+      <c r="G97" s="2" t="inlineStr">
+        <is>
+          <t>3.200,00</t>
+        </is>
+      </c>
+      <c r="H97" s="2" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="3" t="n">
+        <v>150001004</v>
+      </c>
+      <c r="B98" s="2" t="inlineStr">
+        <is>
+          <t>3070</t>
+        </is>
+      </c>
+      <c r="C98" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FITA BORDA PAPEL 18 MM - 210G </t>
+        </is>
+      </c>
+      <c r="D98" s="2" t="inlineStr">
+        <is>
+          <t>R3D</t>
+        </is>
+      </c>
+      <c r="E98" s="2" t="inlineStr">
+        <is>
+          <t>S8</t>
+        </is>
+      </c>
+      <c r="F98" s="2" t="inlineStr">
+        <is>
+          <t>D3</t>
+        </is>
+      </c>
+      <c r="G98" s="2" t="inlineStr">
+        <is>
+          <t>2.500,00</t>
+        </is>
+      </c>
+      <c r="H98" s="2" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="3" t="n">
+        <v>150001004</v>
+      </c>
+      <c r="B99" s="2" t="inlineStr">
+        <is>
+          <t>3070</t>
+        </is>
+      </c>
+      <c r="C99" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FITA BORDA PAPEL 18 MM - 210G </t>
+        </is>
+      </c>
+      <c r="D99" s="2" t="inlineStr">
+        <is>
+          <t>R3D</t>
+        </is>
+      </c>
+      <c r="E99" s="2" t="inlineStr">
+        <is>
+          <t>S8</t>
+        </is>
+      </c>
+      <c r="F99" s="2" t="inlineStr">
+        <is>
+          <t>E3</t>
+        </is>
+      </c>
+      <c r="G99" s="2" t="inlineStr">
+        <is>
+          <t>2.500,00</t>
+        </is>
+      </c>
+      <c r="H99" s="2" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="3" t="n">
+        <v>150001004</v>
+      </c>
+      <c r="B100" s="2" t="inlineStr">
+        <is>
+          <t>3039</t>
+        </is>
+      </c>
+      <c r="C100" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FITA BORDA PAPEL 18 MM - 210G </t>
+        </is>
+      </c>
+      <c r="D100" s="2" t="inlineStr">
+        <is>
+          <t>R3D</t>
+        </is>
+      </c>
+      <c r="E100" s="2" t="inlineStr">
+        <is>
+          <t>S8</t>
+        </is>
+      </c>
+      <c r="F100" s="2" t="inlineStr">
+        <is>
+          <t>E3</t>
+        </is>
+      </c>
+      <c r="G100" s="2" t="inlineStr">
+        <is>
+          <t>18.000,00</t>
+        </is>
+      </c>
+      <c r="H100" s="2" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="3" t="n">
+        <v>150001004</v>
+      </c>
+      <c r="B101" s="2" t="inlineStr">
+        <is>
+          <t>3039</t>
+        </is>
+      </c>
+      <c r="C101" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FITA BORDA PAPEL 18 MM - 210G </t>
+        </is>
+      </c>
+      <c r="D101" s="2" t="inlineStr">
+        <is>
+          <t>R3D</t>
+        </is>
+      </c>
+      <c r="E101" s="2" t="inlineStr">
+        <is>
+          <t>S8</t>
+        </is>
+      </c>
+      <c r="F101" s="2" t="inlineStr">
+        <is>
+          <t>D3</t>
+        </is>
+      </c>
+      <c r="G101" s="2" t="inlineStr">
+        <is>
+          <t>18.000,00</t>
+        </is>
+      </c>
+      <c r="H101" s="2" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="3" t="n">
+        <v>150001004</v>
+      </c>
+      <c r="B102" s="2" t="inlineStr">
+        <is>
+          <t>3082</t>
+        </is>
+      </c>
+      <c r="C102" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FITA BORDA PAPEL 18 MM - 210G </t>
+        </is>
+      </c>
+      <c r="D102" s="2" t="inlineStr">
+        <is>
+          <t>R3D</t>
+        </is>
+      </c>
+      <c r="E102" s="2" t="inlineStr">
+        <is>
+          <t>S8</t>
+        </is>
+      </c>
+      <c r="F102" s="2" t="inlineStr">
+        <is>
+          <t>E3</t>
+        </is>
+      </c>
+      <c r="G102" s="2" t="inlineStr">
+        <is>
+          <t>2.500,00</t>
+        </is>
+      </c>
+      <c r="H102" s="2" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="3" t="n">
+        <v>150001004</v>
+      </c>
+      <c r="B103" s="2" t="inlineStr">
+        <is>
+          <t>3082</t>
+        </is>
+      </c>
+      <c r="C103" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FITA BORDA PAPEL 18 MM - 210G </t>
+        </is>
+      </c>
+      <c r="D103" s="2" t="inlineStr">
+        <is>
+          <t>R3D</t>
+        </is>
+      </c>
+      <c r="E103" s="2" t="inlineStr">
+        <is>
+          <t>S8</t>
+        </is>
+      </c>
+      <c r="F103" s="2" t="inlineStr">
+        <is>
+          <t>D3</t>
+        </is>
+      </c>
+      <c r="G103" s="2" t="inlineStr">
+        <is>
+          <t>2.500,00</t>
+        </is>
+      </c>
+      <c r="H103" s="2" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="3" t="n">
+        <v>150001004</v>
+      </c>
+      <c r="B104" s="2" t="inlineStr">
+        <is>
+          <t>3080</t>
+        </is>
+      </c>
+      <c r="C104" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FITA BORDA PAPEL 18 MM - 210G </t>
+        </is>
+      </c>
+      <c r="D104" s="2" t="inlineStr">
+        <is>
+          <t>R3D</t>
+        </is>
+      </c>
+      <c r="E104" s="2" t="inlineStr">
+        <is>
+          <t>S8</t>
+        </is>
+      </c>
+      <c r="F104" s="2" t="inlineStr">
+        <is>
+          <t>D3</t>
+        </is>
+      </c>
+      <c r="G104" s="2" t="inlineStr">
+        <is>
+          <t>3.200,00</t>
+        </is>
+      </c>
+      <c r="H104" s="2" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="3" t="n">
+        <v>150001004</v>
+      </c>
+      <c r="B105" s="2" t="inlineStr">
+        <is>
+          <t>3070</t>
+        </is>
+      </c>
+      <c r="C105" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FITA BORDA PAPEL 18 MM - 210G </t>
+        </is>
+      </c>
+      <c r="D105" s="2" t="inlineStr">
+        <is>
+          <t>R3D</t>
+        </is>
+      </c>
+      <c r="E105" s="2" t="inlineStr">
+        <is>
+          <t>S9</t>
+        </is>
+      </c>
+      <c r="F105" s="2" t="inlineStr">
+        <is>
+          <t>E2</t>
+        </is>
+      </c>
+      <c r="G105" s="2" t="inlineStr">
+        <is>
+          <t>2.500,00</t>
+        </is>
+      </c>
+      <c r="H105" s="2" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="3" t="n">
+        <v>150001004</v>
+      </c>
+      <c r="B106" s="2" t="inlineStr">
+        <is>
+          <t>3082</t>
+        </is>
+      </c>
+      <c r="C106" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FITA BORDA PAPEL 18 MM - 210G </t>
+        </is>
+      </c>
+      <c r="D106" s="2" t="inlineStr">
+        <is>
+          <t>R3D</t>
+        </is>
+      </c>
+      <c r="E106" s="2" t="inlineStr">
+        <is>
+          <t>S9</t>
+        </is>
+      </c>
+      <c r="F106" s="2" t="inlineStr">
+        <is>
+          <t>E2</t>
+        </is>
+      </c>
+      <c r="G106" s="2" t="inlineStr">
+        <is>
+          <t>2.500,00</t>
+        </is>
+      </c>
+      <c r="H106" s="2" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="3" t="n">
+        <v>150001004</v>
+      </c>
+      <c r="B107" s="2" t="inlineStr">
+        <is>
+          <t>3080</t>
+        </is>
+      </c>
+      <c r="C107" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FITA BORDA PAPEL 18 MM - 210G </t>
+        </is>
+      </c>
+      <c r="D107" s="2" t="inlineStr">
+        <is>
+          <t>R3D</t>
+        </is>
+      </c>
+      <c r="E107" s="2" t="inlineStr">
+        <is>
+          <t>S9</t>
+        </is>
+      </c>
+      <c r="F107" s="2" t="inlineStr">
+        <is>
+          <t>E2</t>
+        </is>
+      </c>
+      <c r="G107" s="2" t="inlineStr">
+        <is>
+          <t>3.200,00</t>
+        </is>
+      </c>
+      <c r="H107" s="2" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="3" t="n">
+        <v>150001004</v>
+      </c>
+      <c r="B108" s="2" t="inlineStr">
+        <is>
+          <t>3039</t>
+        </is>
+      </c>
+      <c r="C108" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FITA BORDA PAPEL 18 MM - 210G </t>
+        </is>
+      </c>
+      <c r="D108" s="2" t="inlineStr">
+        <is>
+          <t>R3D</t>
+        </is>
+      </c>
+      <c r="E108" s="2" t="inlineStr">
+        <is>
+          <t>S9</t>
+        </is>
+      </c>
+      <c r="F108" s="2" t="inlineStr">
+        <is>
+          <t>E2</t>
+        </is>
+      </c>
+      <c r="G108" s="2" t="inlineStr">
+        <is>
+          <t>18.000,00</t>
+        </is>
+      </c>
+      <c r="H108" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/tabela_imprimir.xlsx
+++ b/tabela_imprimir.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -495,16 +495,16 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>160002006</v>
+        <v>160006021</v>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">BUCHA 8MM (PAREDE) NEUTRO     </t>
+          <t>PARAFUSO 4,5X35 CABECA FLANGEA</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
@@ -519,7 +519,7 @@
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>D0</t>
+          <t>D1</t>
         </is>
       </c>
       <c r="G2" s="2" t="inlineStr">
@@ -529,13 +529,13 @@
       </c>
       <c r="H2" s="2" t="inlineStr">
         <is>
-          <t>177.195</t>
+          <t>177.237</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>160006021</v>
+        <v>160006011</v>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
@@ -544,7 +544,7 @@
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>PARAFUSO 4,5X35 CABECA FLANGEA</t>
+          <t>PREGO 8X8 COM CABECA LISO - 18</t>
         </is>
       </c>
       <c r="D3" s="2" t="inlineStr">
@@ -554,24 +554,24 @@
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="F3" s="2" t="inlineStr">
         <is>
-          <t>D1</t>
+          <t>D0</t>
         </is>
       </c>
       <c r="G3" s="2" t="inlineStr">
         <is>
-          <t>3.600,00</t>
+          <t>200.000,00</t>
         </is>
       </c>
       <c r="H3" s="2" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>160006015</v>
+        <v>160006016</v>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
@@ -580,7 +580,7 @@
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t>PARAFUSO 6,0X75 CABECA CHATA P</t>
+          <t>PARAFUSO 3,5X12 CABECA FLANGEA</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -590,7 +590,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>S4</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -600,14 +600,14 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>5.000,00</t>
+          <t>100.000,00</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>160006034</v>
+        <v>160006016</v>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
@@ -616,7 +616,7 @@
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>PARAFUSO 3,5X25 CABECA FLANGEA</t>
+          <t>PARAFUSO 3,5X12 CABECA FLANGEA</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -626,7 +626,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>S3</t>
+          <t>S4</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -636,23 +636,23 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>20.000,00</t>
+          <t>100.000,00</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>160006053</v>
+        <v>160002004</v>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3014</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>PARAFUSO ESTRUTURAL 7X40 CABEC</t>
+          <t xml:space="preserve">SAPATA OVAL 12X50 PRETO       </t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -662,33 +662,33 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>S3</t>
+          <t>S6</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>E0</t>
+          <t>D0</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>12.000,00</t>
+          <t>15.000,00</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>160006004</v>
+        <v>160002016</v>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3014</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>PARAFUSO 3,5X22 CABECA FLANGEA</t>
+          <t xml:space="preserve">SUPORTE FIM DE CURSO 10X15 MM </t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -698,12 +698,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>S3</t>
+          <t>S7</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>D3</t>
+          <t>E1</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -715,7 +715,7 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>160006016</v>
+        <v>160001023</v>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
@@ -724,34 +724,34 @@
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>PARAFUSO 3,5X12 CABECA FLANGEA</t>
+          <t xml:space="preserve">CAVILHA 6X30MM                </t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>R3E</t>
+          <t>R3D</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>S4</t>
+          <t>S8</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>E1</t>
+          <t>D0</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>160.000,00</t>
+          <t>50.000,00</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>160006016</v>
+        <v>160001023</v>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
@@ -760,17 +760,17 @@
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>PARAFUSO 3,5X12 CABECA FLANGEA</t>
+          <t xml:space="preserve">CAVILHA 6X30MM                </t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>R3E</t>
+          <t>R3D</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>S4</t>
+          <t>S8</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -780,14 +780,14 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>160.000,00</t>
+          <t>50.000,00</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>160006008</v>
+        <v>160001003</v>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
@@ -796,7 +796,7 @@
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>PARAFUSO 4,5X25 CABECA CHATA P</t>
+          <t xml:space="preserve">CAVILHAS 8X20MM PINUS         </t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -806,24 +806,24 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>S4</t>
+          <t>S8</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>D0</t>
+          <t>D1</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>40.000,00</t>
+          <t>20.000,00</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>160001001</v>
+        <v>160001011</v>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
@@ -832,7 +832,7 @@
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">COLA PARA MONTAGEM - 08GRS    </t>
+          <t>SUPORTE ANGULAR CENTRAL MARRON</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -842,24 +842,24 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>S5</t>
+          <t>S8</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>E1</t>
+          <t>D2</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1.000,00</t>
+          <t>30.000,00</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>160006010</v>
+        <v>160001024</v>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
@@ -868,7 +868,7 @@
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>PARAFUSO 4,5X50 CABECA CHATA P</t>
+          <t>PINO GIROFIX COM ROSCA SOBERBA</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -878,7 +878,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>S5</t>
+          <t>S8</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -888,14 +888,14 @@
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>8.000,00</t>
+          <t>40.000,00</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>160006006</v>
+        <v>160001024</v>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
@@ -904,7 +904,7 @@
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>PARAFUSO 3,5X40 CABECA CHATA P</t>
+          <t>PINO GIROFIX COM ROSCA SOBERBA</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -914,7 +914,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>S5</t>
+          <t>S8</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -924,14 +924,14 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>20.000,00</t>
+          <t>40.000,00</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>160001009</v>
+        <v>160001005</v>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
@@ -940,7 +940,7 @@
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>ARRUELA 3/16 15MM ZINCADO FURO</t>
+          <t xml:space="preserve">CAVILHA 8X55MM PINUS          </t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -950,24 +950,24 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>S6</t>
+          <t>S8</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>D1</t>
+          <t>E1</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>13.000,00</t>
+          <t>40,00</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>160001050</v>
+        <v>160001025</v>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
@@ -976,7 +976,7 @@
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>FITA DUPLA FACE VHB 4312 25X19</t>
+          <t>CASTANHA DO MINI-GIROFIX 12X9M</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -986,24 +986,24 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>S6</t>
+          <t>S9</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>E1</t>
+          <t>E0</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>10.000,00</t>
+          <t>40.000,00</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>160001034</v>
+        <v>160001018</v>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
@@ -1012,43 +1012,43 @@
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>CHAPA JUNCAO 18X40 COM 2 FUROS</t>
+          <t>CANTONEIRA PLASTICA 20x20x42 C</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>R3E</t>
+          <t>R3D</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>S7</t>
+          <t>S9</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>E0</t>
+          <t>E3</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>20.000,00</t>
+          <t>12.000,00</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>160001034</v>
+        <v>160002003</v>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3014</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>CHAPA JUNCAO 18X40 COM 2 FUROS</t>
+          <t>SUPORTE PRATELEIRA NYLON 8X10M</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1058,24 +1058,24 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>S7</t>
+          <t>S9</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>D0</t>
+          <t>E2</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>20.000,00</t>
+          <t>10.000,00</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>160001023</v>
+        <v>160001018</v>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
@@ -1084,7 +1084,7 @@
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">CAVILHA 6X30MM                </t>
+          <t>CANTONEIRA PLASTICA 20x20x42 C</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1094,24 +1094,24 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>S8</t>
+          <t>S9</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>E0</t>
+          <t>D0</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>50.000,00</t>
+          <t>12.000,00</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>160001023</v>
+        <v>160001018</v>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
@@ -1120,7 +1120,7 @@
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">CAVILHA 6X30MM                </t>
+          <t>CANTONEIRA PLASTICA 20x20x42 C</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1130,24 +1130,24 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>S8</t>
+          <t>S9</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>D0</t>
+          <t>E0</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>50.000,00</t>
+          <t>12.000,00</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>160001024</v>
+        <v>160001025</v>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
@@ -1156,7 +1156,7 @@
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
-          <t>PINO GIROFIX COM ROSCA SOBERBA</t>
+          <t>CASTANHA DO MINI-GIROFIX 12X9M</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
@@ -1166,7 +1166,7 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>S8</t>
+          <t>S9</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
@@ -1176,382 +1176,130 @@
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>50.000,00</t>
+          <t>40.000,00</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>160001024</v>
+        <v>160002005</v>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3039</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr">
         <is>
-          <t>PINO GIROFIX COM ROSCA SOBERBA</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>R3E</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>S8</t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>E0</t>
-        </is>
-      </c>
+          <t>GUIA CABO / PASSA FIO 46MM +/-</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr"/>
+      <c r="E21" s="2" t="inlineStr"/>
+      <c r="F21" s="2" t="inlineStr"/>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>50.000,00</t>
+          <t>2.000,00</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>160006020</v>
+        <v>160002005</v>
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3014</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr">
         <is>
-          <t>PINO UNIAO M4 12MM CHATA PHS Z</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>R3E</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>S8</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>E2</t>
-        </is>
-      </c>
+          <t>GUIA CABO / PASSA FIO 46MM +/-</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr"/>
+      <c r="E22" s="2" t="inlineStr"/>
+      <c r="F22" s="2" t="inlineStr"/>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>10.000,00</t>
+          <t>1.000,00</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
-        <v>160001018</v>
+        <v>160002012</v>
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3039</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t>CANTONEIRA PLASTICA 20x20x42 C</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>R3D</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>S9</t>
-        </is>
-      </c>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>E0</t>
-        </is>
-      </c>
+          <t>GIZ DE CORRECAO 15x8 OFF WHITE</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr"/>
+      <c r="E23" s="2" t="inlineStr"/>
+      <c r="F23" s="2" t="inlineStr"/>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>21.000,00</t>
+          <t>3.000,00</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
-        <v>160001025</v>
+        <v>160002012</v>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3070</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr">
         <is>
-          <t>CASTANHA DO MINI-GIROFIX 12X9M</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>R3E</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>S9</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>D0</t>
-        </is>
-      </c>
+          <t xml:space="preserve">GIZ DE CORRECAO 15x8 NATURE   </t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr"/>
+      <c r="E24" s="2" t="inlineStr"/>
+      <c r="F24" s="2" t="inlineStr"/>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>50.000,00</t>
+          <t>3.000,00</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="3" t="n">
-        <v>160001025</v>
+        <v>160002022</v>
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3039</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr">
         <is>
-          <t>CASTANHA DO MINI-GIROFIX 12X9M</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>R3E</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>S9</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>E0</t>
-        </is>
-      </c>
+          <t xml:space="preserve">TAMPA ADESIVA 12MM OFF WHITE  </t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr"/>
+      <c r="E25" s="2" t="inlineStr"/>
+      <c r="F25" s="2" t="inlineStr"/>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>50.000,00</t>
+          <t>10.000,00</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="3" t="n">
-        <v>160001018</v>
-      </c>
-      <c r="B26" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C26" s="3" t="inlineStr">
-        <is>
-          <t>CANTONEIRA PLASTICA 20x20x42 C</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>R3D</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>S9</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>E3</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>21.000,00</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="3" t="n">
-        <v>160001018</v>
-      </c>
-      <c r="B27" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C27" s="3" t="inlineStr">
-        <is>
-          <t>CANTONEIRA PLASTICA 20x20x42 C</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>R3D</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>S9</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>D0</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>21.000,00</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="3" t="n">
-        <v>170001005</v>
-      </c>
-      <c r="B28" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C28" s="3" t="inlineStr">
-        <is>
-          <t>FILME POLIETILENO (PE) 590X280</t>
-        </is>
-      </c>
-      <c r="D28" s="2" t="inlineStr"/>
-      <c r="E28" s="2" t="inlineStr"/>
-      <c r="F28" s="2" t="inlineStr"/>
-      <c r="G28" s="2" t="inlineStr">
-        <is>
-          <t>20,00</t>
-        </is>
-      </c>
-      <c r="H28" s="2" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="3" t="n">
-        <v>160002015</v>
-      </c>
-      <c r="B29" s="2" t="inlineStr">
-        <is>
-          <t>3000</t>
-        </is>
-      </c>
-      <c r="C29" s="3" t="inlineStr">
-        <is>
-          <t>BATENTE SILICONE 8MM RESINA P.</t>
-        </is>
-      </c>
-      <c r="D29" s="2" t="inlineStr"/>
-      <c r="E29" s="2" t="inlineStr"/>
-      <c r="F29" s="2" t="inlineStr"/>
-      <c r="G29" s="2" t="inlineStr">
-        <is>
-          <t>20.000,00</t>
-        </is>
-      </c>
-      <c r="H29" s="2" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="3" t="n">
-        <v>160002022</v>
-      </c>
-      <c r="B30" s="2" t="inlineStr">
-        <is>
-          <t>3086</t>
-        </is>
-      </c>
-      <c r="C30" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">TAMPA ADESIVA 12MM GRIS       </t>
-        </is>
-      </c>
-      <c r="D30" s="2" t="inlineStr"/>
-      <c r="E30" s="2" t="inlineStr"/>
-      <c r="F30" s="2" t="inlineStr"/>
-      <c r="G30" s="2" t="inlineStr">
-        <is>
-          <t>20.000,00</t>
-        </is>
-      </c>
-      <c r="H30" s="2" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="3" t="n">
-        <v>160002022</v>
-      </c>
-      <c r="B31" s="2" t="inlineStr">
-        <is>
-          <t>3039</t>
-        </is>
-      </c>
-      <c r="C31" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">TAMPA ADESIVA 12MM OFF WHITE  </t>
-        </is>
-      </c>
-      <c r="D31" s="2" t="inlineStr"/>
-      <c r="E31" s="2" t="inlineStr"/>
-      <c r="F31" s="2" t="inlineStr"/>
-      <c r="G31" s="2" t="inlineStr">
-        <is>
-          <t>10.000,00</t>
-        </is>
-      </c>
-      <c r="H31" s="2" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="3" t="n">
-        <v>160002002</v>
-      </c>
-      <c r="B32" s="2" t="inlineStr">
-        <is>
-          <t>3039</t>
-        </is>
-      </c>
-      <c r="C32" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">TAMPA ADESIVA 18MM OFF WHITE  </t>
-        </is>
-      </c>
-      <c r="D32" s="2" t="inlineStr"/>
-      <c r="E32" s="2" t="inlineStr"/>
-      <c r="F32" s="2" t="inlineStr"/>
-      <c r="G32" s="2" t="inlineStr">
-        <is>
-          <t>20.000,00</t>
-        </is>
-      </c>
-      <c r="H32" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/tabela_imprimir.xlsx
+++ b/tabela_imprimir.xlsx
@@ -53,7 +53,7 @@
       <sz val="60"/>
     </font>
     <font>
-      <sz val="190"/>
+      <sz val="90"/>
     </font>
   </fonts>
   <fills count="2">
@@ -580,7 +580,7 @@
       </c>
       <c r="B2" s="8" t="inlineStr">
         <is>
-          <t>PARAFUSO ESTRUTURAL 7X40 CABECA CHATA</t>
+          <t>SAPATA OVAL 12X50 - TITANIO FOSCO</t>
         </is>
       </c>
     </row>
@@ -592,7 +592,7 @@
       </c>
       <c r="B3" s="9" t="inlineStr">
         <is>
-          <t>88000</t>
+          <t>75000</t>
         </is>
       </c>
     </row>
@@ -604,7 +604,7 @@
       </c>
       <c r="B4" s="10" t="inlineStr">
         <is>
-          <t>6053</t>
+          <t>160002004</t>
         </is>
       </c>
     </row>

--- a/tabela_imprimir.xlsx
+++ b/tabela_imprimir.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -495,16 +495,16 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>160006021</v>
+        <v>160002006</v>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>PARAFUSO 4,5X35 CABECA FLANGEA</t>
+          <t xml:space="preserve">BUCHA 8MM (PAREDE) NEUTRO     </t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
@@ -519,23 +519,23 @@
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>D1</t>
+          <t>D0</t>
         </is>
       </c>
       <c r="G2" s="2" t="inlineStr">
         <is>
-          <t>12.000,00</t>
+          <t>8.000,00</t>
         </is>
       </c>
       <c r="H2" s="2" t="inlineStr">
         <is>
-          <t>177.237</t>
+          <t>177.386</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>160006011</v>
+        <v>160006015</v>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
@@ -544,7 +544,7 @@
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>PREGO 8X8 COM CABECA LISO - 18</t>
+          <t>PARAFUSO 6,0X75 CABECA CHATA P</t>
         </is>
       </c>
       <c r="D3" s="2" t="inlineStr">
@@ -554,24 +554,24 @@
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
-          <t>S3</t>
+          <t>S2</t>
         </is>
       </c>
       <c r="F3" s="2" t="inlineStr">
         <is>
-          <t>D0</t>
+          <t>E0</t>
         </is>
       </c>
       <c r="G3" s="2" t="inlineStr">
         <is>
-          <t>200.000,00</t>
+          <t>7.000,00</t>
         </is>
       </c>
       <c r="H3" s="2" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>160006016</v>
+        <v>160006018</v>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
@@ -580,7 +580,7 @@
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t>PARAFUSO 3,5X12 CABECA FLANGEA</t>
+          <t>PARAFUSO 4,5X22 CABECA CHATA -</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -590,24 +590,24 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>S4</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>E0</t>
+          <t>D1</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>100.000,00</t>
+          <t>20.000,00</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>160006016</v>
+        <v>160006011</v>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
@@ -616,7 +616,7 @@
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>PARAFUSO 3,5X12 CABECA FLANGEA</t>
+          <t>PREGO 8X8 COM CABECA LISO - 18</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -626,33 +626,33 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>S4</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>E1</t>
+          <t>D0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>100.000,00</t>
+          <t>200.000,00</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>160002004</v>
+        <v>160006008</v>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>3014</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">SAPATA OVAL 12X50 PRETO       </t>
+          <t>PARAFUSO 4,5X25 CABECA CHATA P</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -662,7 +662,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>S6</t>
+          <t>S4</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -672,23 +672,23 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>15.000,00</t>
+          <t>80.000,00</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>160002016</v>
+        <v>160006016</v>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>3014</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">SUPORTE FIM DE CURSO 10X15 MM </t>
+          <t>PARAFUSO 3,5X12 CABECA FLANGEA</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -698,24 +698,24 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>S7</t>
+          <t>S4</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>E1</t>
+          <t>E0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>5.000,00</t>
+          <t>260.000,00</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>160001023</v>
+        <v>160006006</v>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
@@ -724,34 +724,34 @@
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">CAVILHA 6X30MM                </t>
+          <t>PARAFUSO 3,5X40 CABECA CHATA P</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>R3D</t>
+          <t>R3E</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>S8</t>
+          <t>S5</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>D0</t>
+          <t>E0</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>50.000,00</t>
+          <t>30.000,00</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>160001023</v>
+        <v>160006022</v>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
@@ -760,34 +760,34 @@
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">CAVILHA 6X30MM                </t>
+          <t>PARAFUSO M4 12MM CHATA PHS BIC</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>R3D</t>
+          <t>R3E</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>S8</t>
+          <t>S5</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>E0</t>
+          <t>D1</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>50.000,00</t>
+          <t>5.000,00</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>160001003</v>
+        <v>160001001</v>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
@@ -796,7 +796,7 @@
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">CAVILHAS 8X20MM PINUS         </t>
+          <t xml:space="preserve">COLA PARA MONTAGEM - 08GRS    </t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -806,24 +806,24 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>S8</t>
+          <t>S5</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>D1</t>
+          <t>E1</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>20.000,00</t>
+          <t>1.000,00</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>160001011</v>
+        <v>160006010</v>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
@@ -832,7 +832,7 @@
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>SUPORTE ANGULAR CENTRAL MARRON</t>
+          <t>PARAFUSO 4,5X50 CABECA CHATA P</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -842,24 +842,24 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>S8</t>
+          <t>S5</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>D2</t>
+          <t>D0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>30.000,00</t>
+          <t>8.000,00</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>160001024</v>
+        <v>160006042</v>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
@@ -868,7 +868,7 @@
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>PINO GIROFIX COM ROSCA SOBERBA</t>
+          <t>PARAFUSO 3,5X30 CABECA FLANGEA</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -878,24 +878,24 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>S8</t>
+          <t>S5</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>D0</t>
+          <t>E3</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>40.000,00</t>
+          <t>2.000,00</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>160001024</v>
+        <v>160001032</v>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
@@ -904,7 +904,7 @@
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>PINO GIROFIX COM ROSCA SOBERBA</t>
+          <t>CANTONEIRA PLASTICA CINZA 20X2</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -914,24 +914,24 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>S8</t>
+          <t>S7</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>E0</t>
+          <t>E1</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>40.000,00</t>
+          <t>4.000,00</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>160001005</v>
+        <v>160001034</v>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
@@ -940,7 +940,7 @@
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">CAVILHA 8X55MM PINUS          </t>
+          <t>CHAPA JUNCAO 18X40 COM 2 FUROS</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -950,24 +950,24 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>S8</t>
+          <t>S7</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>E1</t>
+          <t>E0</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>40,00</t>
+          <t>26.000,00</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>160001025</v>
+        <v>160001023</v>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
@@ -976,17 +976,17 @@
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>CASTANHA DO MINI-GIROFIX 12X9M</t>
+          <t xml:space="preserve">CAVILHA 6X30MM                </t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>R3E</t>
+          <t>R3D</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>S9</t>
+          <t>S8</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -996,59 +996,59 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>40.000,00</t>
+          <t>100.000,00</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>160001018</v>
+        <v>160002014</v>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3070</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>CANTONEIRA PLASTICA 20x20x42 C</t>
+          <t>DISTANCIADOR DE PAINEL 70 X 32</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>R3D</t>
+          <t>R3E</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>S9</t>
+          <t>S8</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>E3</t>
+          <t>D3</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>12.000,00</t>
+          <t>1.000,00</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>160002003</v>
+        <v>160001024</v>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>3014</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>SUPORTE PRATELEIRA NYLON 8X10M</t>
+          <t>PINO GIROFIX COM ROSCA SOBERBA</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1058,24 +1058,24 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>S9</t>
+          <t>S8</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>E2</t>
+          <t>D0</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>10.000,00</t>
+          <t>50.000,00</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>160001018</v>
+        <v>160001011</v>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
@@ -1084,34 +1084,34 @@
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>CANTONEIRA PLASTICA 20x20x42 C</t>
+          <t>SUPORTE ANGULAR CENTRAL MARRON</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>R3D</t>
+          <t>R3E</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>S9</t>
+          <t>S8</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>D0</t>
+          <t>D2</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>12.000,00</t>
+          <t>40.000,00</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>160001018</v>
+        <v>160001025</v>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
@@ -1120,12 +1120,12 @@
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>CANTONEIRA PLASTICA 20x20x42 C</t>
+          <t>CASTANHA DO MINI-GIROFIX 12X9M</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>R3D</t>
+          <t>R3E</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1140,14 +1140,14 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>12.000,00</t>
+          <t>50.000,00</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>160001025</v>
+        <v>160001018</v>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
@@ -1156,12 +1156,12 @@
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
-          <t>CASTANHA DO MINI-GIROFIX 12X9M</t>
+          <t>CANTONEIRA PLASTICA 20x20x42 C</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>R3E</t>
+          <t>R3D</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
@@ -1171,52 +1171,64 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>D0</t>
+          <t>E3</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>40.000,00</t>
+          <t>21.000,00</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>160002005</v>
+        <v>160002003</v>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>3039</t>
+          <t>3014</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr">
         <is>
-          <t>GUIA CABO / PASSA FIO 46MM +/-</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr"/>
-      <c r="E21" s="2" t="inlineStr"/>
-      <c r="F21" s="2" t="inlineStr"/>
+          <t>SUPORTE PRATELEIRA NYLON 8X10M</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>R3E</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>S9</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>E2</t>
+        </is>
+      </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>2.000,00</t>
+          <t>6.000,00</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>160002005</v>
+        <v>160002022</v>
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>3014</t>
+          <t>3039</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr">
         <is>
-          <t>GUIA CABO / PASSA FIO 46MM +/-</t>
+          <t xml:space="preserve">TAMPA ADESIVA 12MM OFF WHITE  </t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr"/>
@@ -1224,7 +1236,7 @@
       <c r="F22" s="2" t="inlineStr"/>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>1.000,00</t>
+          <t>20.000,00</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr"/>
@@ -1255,16 +1267,16 @@
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
-        <v>160002012</v>
+        <v>170001005</v>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>3070</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">GIZ DE CORRECAO 15x8 NATURE   </t>
+          <t>FILME POLIETILENO (PE) 590X280</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr"/>
@@ -1272,34 +1284,10 @@
       <c r="F24" s="2" t="inlineStr"/>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>3.000,00</t>
+          <t>40,00</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="3" t="n">
-        <v>160002022</v>
-      </c>
-      <c r="B25" s="2" t="inlineStr">
-        <is>
-          <t>3039</t>
-        </is>
-      </c>
-      <c r="C25" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">TAMPA ADESIVA 12MM OFF WHITE  </t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr"/>
-      <c r="E25" s="2" t="inlineStr"/>
-      <c r="F25" s="2" t="inlineStr"/>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>10.000,00</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/tabela_imprimir.xlsx
+++ b/tabela_imprimir.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -495,16 +495,16 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>160002006</v>
+        <v>160006021</v>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">BUCHA 8MM (PAREDE) NEUTRO     </t>
+          <t>PARAFUSO 4,5X35 CABECA FLANGEA</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
@@ -519,23 +519,23 @@
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>D0</t>
+          <t>D1</t>
         </is>
       </c>
       <c r="G2" s="2" t="inlineStr">
         <is>
-          <t>8.000,00</t>
+          <t>7.000,00</t>
         </is>
       </c>
       <c r="H2" s="2" t="inlineStr">
         <is>
-          <t>177.386</t>
+          <t>177.525</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>160006015</v>
+        <v>160006008</v>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
@@ -544,7 +544,7 @@
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>PARAFUSO 6,0X75 CABECA CHATA P</t>
+          <t>PARAFUSO 4,5X25 CABECA CHATA P</t>
         </is>
       </c>
       <c r="D3" s="2" t="inlineStr">
@@ -554,24 +554,24 @@
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>S4</t>
         </is>
       </c>
       <c r="F3" s="2" t="inlineStr">
         <is>
-          <t>E0</t>
+          <t>D0</t>
         </is>
       </c>
       <c r="G3" s="2" t="inlineStr">
         <is>
-          <t>7.000,00</t>
+          <t>60.000,00</t>
         </is>
       </c>
       <c r="H3" s="2" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>160006018</v>
+        <v>160001001</v>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
@@ -580,7 +580,7 @@
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t>PARAFUSO 4,5X22 CABECA CHATA -</t>
+          <t xml:space="preserve">COLA PARA MONTAGEM - 08GRS    </t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -590,24 +590,24 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>S3</t>
+          <t>S5</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>D1</t>
+          <t>E1</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>20.000,00</t>
+          <t>1.000,00</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>160006011</v>
+        <v>160001024</v>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
@@ -616,7 +616,7 @@
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>PREGO 8X8 COM CABECA LISO - 18</t>
+          <t>PINO GIROFIX COM ROSCA SOBERBA</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -626,24 +626,24 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>S3</t>
+          <t>S8</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>D0</t>
+          <t>E0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>200.000,00</t>
+          <t>20.000,00</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>160006008</v>
+        <v>160001018</v>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
@@ -652,34 +652,34 @@
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>PARAFUSO 4,5X25 CABECA CHATA P</t>
+          <t>CANTONEIRA PLASTICA 20x20x42 C</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>R3E</t>
+          <t>R3D</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>S4</t>
+          <t>S9</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>D0</t>
+          <t>E0</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>80.000,00</t>
+          <t>18.000,00</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>160006016</v>
+        <v>160001012</v>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
@@ -688,7 +688,7 @@
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>PARAFUSO 3,5X12 CABECA FLANGEA</t>
+          <t xml:space="preserve">DISPOSITIVO TRAPEZIO CINZA    </t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -698,33 +698,33 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>S4</t>
+          <t>S9</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>E0</t>
+          <t>E1</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>260.000,00</t>
+          <t>15.000,00</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>160006006</v>
+        <v>160002003</v>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3014</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>PARAFUSO 3,5X40 CABECA CHATA P</t>
+          <t>SUPORTE PRATELEIRA NYLON 8X10M</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -734,24 +734,24 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>S5</t>
+          <t>S9</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>E0</t>
+          <t>E2</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>30.000,00</t>
+          <t>4.000,00</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>160006022</v>
+        <v>160001025</v>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>PARAFUSO M4 12MM CHATA PHS BIC</t>
+          <t>CASTANHA DO MINI-GIROFIX 12X9M</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -770,524 +770,92 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>S5</t>
+          <t>S9</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>D1</t>
+          <t>E0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5.000,00</t>
+          <t>20.000,00</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>160001001</v>
+        <v>160002005</v>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3039</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">COLA PARA MONTAGEM - 08GRS    </t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>R3E</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>S5</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>E1</t>
-        </is>
-      </c>
+          <t>GUIA CABO / PASSA FIO 46MM +/-</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr"/>
+      <c r="E10" s="2" t="inlineStr"/>
+      <c r="F10" s="2" t="inlineStr"/>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>1.000,00</t>
+          <t>2.000,00</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>160006010</v>
+        <v>160002002</v>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3039</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>PARAFUSO 4,5X50 CABECA CHATA P</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>R3E</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>S5</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>D0</t>
-        </is>
-      </c>
+          <t xml:space="preserve">TAMPA ADESIVA 18MM OFF WHITE  </t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr"/>
+      <c r="E11" s="2" t="inlineStr"/>
+      <c r="F11" s="2" t="inlineStr"/>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>8.000,00</t>
+          <t>10.000,00</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>160006042</v>
+        <v>160002012</v>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3039</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>PARAFUSO 3,5X30 CABECA FLANGEA</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>R3E</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>S5</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>E3</t>
-        </is>
-      </c>
+          <t>GIZ DE CORRECAO 15x8 OFF WHITE</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr"/>
+      <c r="E12" s="2" t="inlineStr"/>
+      <c r="F12" s="2" t="inlineStr"/>
       <c r="G12" s="2" t="inlineStr">
         <is>
           <t>2.000,00</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="3" t="n">
-        <v>160001032</v>
-      </c>
-      <c r="B13" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C13" s="3" t="inlineStr">
-        <is>
-          <t>CANTONEIRA PLASTICA CINZA 20X2</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>R3E</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>S7</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>E1</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>4.000,00</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="3" t="n">
-        <v>160001034</v>
-      </c>
-      <c r="B14" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C14" s="3" t="inlineStr">
-        <is>
-          <t>CHAPA JUNCAO 18X40 COM 2 FUROS</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>R3E</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>S7</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>E0</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>26.000,00</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="3" t="n">
-        <v>160001023</v>
-      </c>
-      <c r="B15" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C15" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">CAVILHA 6X30MM                </t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>R3D</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>S8</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>E0</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>100.000,00</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="3" t="n">
-        <v>160002014</v>
-      </c>
-      <c r="B16" s="2" t="inlineStr">
-        <is>
-          <t>3070</t>
-        </is>
-      </c>
-      <c r="C16" s="3" t="inlineStr">
-        <is>
-          <t>DISTANCIADOR DE PAINEL 70 X 32</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>R3E</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>S8</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>D3</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>1.000,00</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="3" t="n">
-        <v>160001024</v>
-      </c>
-      <c r="B17" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C17" s="3" t="inlineStr">
-        <is>
-          <t>PINO GIROFIX COM ROSCA SOBERBA</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>R3E</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>S8</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>D0</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>50.000,00</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="3" t="n">
-        <v>160001011</v>
-      </c>
-      <c r="B18" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C18" s="3" t="inlineStr">
-        <is>
-          <t>SUPORTE ANGULAR CENTRAL MARRON</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>R3E</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>S8</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>D2</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>40.000,00</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="3" t="n">
-        <v>160001025</v>
-      </c>
-      <c r="B19" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C19" s="3" t="inlineStr">
-        <is>
-          <t>CASTANHA DO MINI-GIROFIX 12X9M</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>R3E</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>S9</t>
-        </is>
-      </c>
-      <c r="F19" s="2" t="inlineStr">
-        <is>
-          <t>E0</t>
-        </is>
-      </c>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>50.000,00</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="3" t="n">
-        <v>160001018</v>
-      </c>
-      <c r="B20" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C20" s="3" t="inlineStr">
-        <is>
-          <t>CANTONEIRA PLASTICA 20x20x42 C</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>R3D</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>S9</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>E3</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>21.000,00</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="3" t="n">
-        <v>160002003</v>
-      </c>
-      <c r="B21" s="2" t="inlineStr">
-        <is>
-          <t>3014</t>
-        </is>
-      </c>
-      <c r="C21" s="3" t="inlineStr">
-        <is>
-          <t>SUPORTE PRATELEIRA NYLON 8X10M</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>R3E</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>S9</t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>E2</t>
-        </is>
-      </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>6.000,00</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="3" t="n">
-        <v>160002022</v>
-      </c>
-      <c r="B22" s="2" t="inlineStr">
-        <is>
-          <t>3039</t>
-        </is>
-      </c>
-      <c r="C22" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">TAMPA ADESIVA 12MM OFF WHITE  </t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr"/>
-      <c r="E22" s="2" t="inlineStr"/>
-      <c r="F22" s="2" t="inlineStr"/>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>20.000,00</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="3" t="n">
-        <v>160002012</v>
-      </c>
-      <c r="B23" s="2" t="inlineStr">
-        <is>
-          <t>3039</t>
-        </is>
-      </c>
-      <c r="C23" s="3" t="inlineStr">
-        <is>
-          <t>GIZ DE CORRECAO 15x8 OFF WHITE</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr"/>
-      <c r="E23" s="2" t="inlineStr"/>
-      <c r="F23" s="2" t="inlineStr"/>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>3.000,00</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="3" t="n">
-        <v>170001005</v>
-      </c>
-      <c r="B24" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C24" s="3" t="inlineStr">
-        <is>
-          <t>FILME POLIETILENO (PE) 590X280</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr"/>
-      <c r="E24" s="2" t="inlineStr"/>
-      <c r="F24" s="2" t="inlineStr"/>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>40,00</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/tabela_imprimir.xlsx
+++ b/tabela_imprimir.xlsx
@@ -580,7 +580,7 @@
       </c>
       <c r="B2" s="8" t="inlineStr">
         <is>
-          <t>SAPATA OVAL 12X50 - TITANIO FOSCO</t>
+          <t>PARAFUSO M4 20MM CABECA CHATA</t>
         </is>
       </c>
     </row>
@@ -592,7 +592,7 @@
       </c>
       <c r="B3" s="9" t="inlineStr">
         <is>
-          <t>75000</t>
+          <t>12000</t>
         </is>
       </c>
     </row>
@@ -604,7 +604,7 @@
       </c>
       <c r="B4" s="10" t="inlineStr">
         <is>
-          <t>160002004</t>
+          <t>160006044</t>
         </is>
       </c>
     </row>

--- a/tabela_imprimir.xlsx
+++ b/tabela_imprimir.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -495,16 +495,16 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>160006021</v>
+        <v>160002006</v>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>PARAFUSO 4,5X35 CABECA FLANGEA</t>
+          <t xml:space="preserve">BUCHA 8MM (PAREDE) NEUTRO     </t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
@@ -519,23 +519,23 @@
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>D1</t>
+          <t>D0</t>
         </is>
       </c>
       <c r="G2" s="2" t="inlineStr">
         <is>
-          <t>7.000,00</t>
+          <t>8.000,00</t>
         </is>
       </c>
       <c r="H2" s="2" t="inlineStr">
         <is>
-          <t>177.525</t>
+          <t>177.725</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>160006008</v>
+        <v>160006011</v>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
@@ -544,7 +544,7 @@
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>PARAFUSO 4,5X25 CABECA CHATA P</t>
+          <t>PREGO 8X8 COM CABECA LISO - 18</t>
         </is>
       </c>
       <c r="D3" s="2" t="inlineStr">
@@ -554,7 +554,7 @@
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
-          <t>S4</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="F3" s="2" t="inlineStr">
@@ -564,14 +564,14 @@
       </c>
       <c r="G3" s="2" t="inlineStr">
         <is>
-          <t>60.000,00</t>
+          <t>100.000,00</t>
         </is>
       </c>
       <c r="H3" s="2" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>160001001</v>
+        <v>160006016</v>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
@@ -580,7 +580,7 @@
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">COLA PARA MONTAGEM - 08GRS    </t>
+          <t>PARAFUSO 3,5X12 CABECA FLANGEA</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -590,7 +590,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>S5</t>
+          <t>S4</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -600,14 +600,14 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>1.000,00</t>
+          <t>200.000,00</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>160001024</v>
+        <v>160006008</v>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
@@ -616,7 +616,7 @@
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>PINO GIROFIX COM ROSCA SOBERBA</t>
+          <t>PARAFUSO 4,5X25 CABECA CHATA P</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -626,24 +626,24 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>S8</t>
+          <t>S4</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>E0</t>
+          <t>D0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>20.000,00</t>
+          <t>60.000,00</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>160001018</v>
+        <v>160006006</v>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
@@ -652,17 +652,17 @@
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>CANTONEIRA PLASTICA 20x20x42 C</t>
+          <t>PARAFUSO 3,5X40 CABECA CHATA P</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>R3D</t>
+          <t>R3E</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>S9</t>
+          <t>S5</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -672,14 +672,14 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>18.000,00</t>
+          <t>30.000,00</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>160001012</v>
+        <v>160001001</v>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
@@ -688,7 +688,7 @@
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">DISPOSITIVO TRAPEZIO CINZA    </t>
+          <t xml:space="preserve">COLA PARA MONTAGEM - 08GRS    </t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -698,7 +698,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>S9</t>
+          <t>S5</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -708,14 +708,14 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>15.000,00</t>
+          <t>2.000,00</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>160002003</v>
+        <v>160002004</v>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
@@ -724,7 +724,7 @@
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>SUPORTE PRATELEIRA NYLON 8X10M</t>
+          <t xml:space="preserve">SAPATA OVAL 12X50 PRETO       </t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -734,24 +734,24 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>S9</t>
+          <t>S6</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>E2</t>
+          <t>D0</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>4.000,00</t>
+          <t>15.000,00</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>160001025</v>
+        <v>160001061</v>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>CASTANHA DO MINI-GIROFIX 12X9M</t>
+          <t>SUPORTE ANGULAR CENTRAL NATURE</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -770,92 +770,512 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>S9</t>
+          <t>S7</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>E0</t>
+          <t>E2</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>20.000,00</t>
+          <t>10.000,00</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>160002005</v>
+        <v>160001003</v>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>3039</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>GUIA CABO / PASSA FIO 46MM +/-</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr"/>
-      <c r="E10" s="2" t="inlineStr"/>
-      <c r="F10" s="2" t="inlineStr"/>
+          <t xml:space="preserve">CAVILHAS 8X20MM PINUS         </t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>R3E</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>S8</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>D1</t>
+        </is>
+      </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>2.000,00</t>
+          <t>20.000,00</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>160002002</v>
+        <v>160001011</v>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>3039</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">TAMPA ADESIVA 18MM OFF WHITE  </t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr"/>
-      <c r="E11" s="2" t="inlineStr"/>
-      <c r="F11" s="2" t="inlineStr"/>
+          <t>SUPORTE ANGULAR CENTRAL MARRON</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>R3E</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>S8</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>D2</t>
+        </is>
+      </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>10.000,00</t>
+          <t>20.000,00</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
+        <v>160001024</v>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C12" s="3" t="inlineStr">
+        <is>
+          <t>PINO GIROFIX COM ROSCA SOBERBA</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>R3E</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>S8</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>E0</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>40.000,00</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="n">
+        <v>160001023</v>
+      </c>
+      <c r="B13" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C13" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAVILHA 6X30MM                </t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>R3D</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>S8</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>D0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>50.000,00</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="n">
+        <v>160002014</v>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>3070</t>
+        </is>
+      </c>
+      <c r="C14" s="3" t="inlineStr">
+        <is>
+          <t>DISTANCIADOR DE PAINEL 70 X 32</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>R3E</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>S8</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>D3</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>2.000,00</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="n">
+        <v>160001018</v>
+      </c>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t>CANTONEIRA PLASTICA 20x20x42 C</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>R3D</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>S9</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>D0</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>12.000,00</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="n">
+        <v>160001004</v>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAVILHAS 8X30MM PINUS         </t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>R3E</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>S9</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>D1</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>20.000,00</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="n">
+        <v>160001025</v>
+      </c>
+      <c r="B17" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C17" s="3" t="inlineStr">
+        <is>
+          <t>CASTANHA DO MINI-GIROFIX 12X9M</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>R3E</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>S9</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>E0</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>40.000,00</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="n">
+        <v>160001012</v>
+      </c>
+      <c r="B18" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DISPOSITIVO TRAPEZIO CINZA    </t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>R3E</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>S9</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>E1</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>15.000,00</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="n">
+        <v>160002005</v>
+      </c>
+      <c r="B19" s="2" t="inlineStr">
+        <is>
+          <t>3014</t>
+        </is>
+      </c>
+      <c r="C19" s="3" t="inlineStr">
+        <is>
+          <t>GUIA CABO / PASSA FIO 46MM +/-</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr"/>
+      <c r="E19" s="2" t="inlineStr"/>
+      <c r="F19" s="2" t="inlineStr"/>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>2.000,00</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="n">
         <v>160002012</v>
       </c>
-      <c r="B12" s="2" t="inlineStr">
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>3070</t>
+        </is>
+      </c>
+      <c r="C20" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GIZ DE CORRECAO 15x8 NATURE   </t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr"/>
+      <c r="E20" s="2" t="inlineStr"/>
+      <c r="F20" s="2" t="inlineStr"/>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>3.000,00</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="n">
+        <v>170001005</v>
+      </c>
+      <c r="B21" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C21" s="3" t="inlineStr">
+        <is>
+          <t>FILME POLIETILENO (PE) 590X280</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr"/>
+      <c r="E21" s="2" t="inlineStr"/>
+      <c r="F21" s="2" t="inlineStr"/>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>40,00</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="n">
+        <v>160002007</v>
+      </c>
+      <c r="B22" s="2" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="C22" s="3" t="inlineStr">
+        <is>
+          <t>EMBALAGEM PLASTICA VIRGEM 10X1</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr"/>
+      <c r="E22" s="2" t="inlineStr"/>
+      <c r="F22" s="2" t="inlineStr"/>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>5.000,00</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="n">
+        <v>160002022</v>
+      </c>
+      <c r="B23" s="2" t="inlineStr">
         <is>
           <t>3039</t>
         </is>
       </c>
-      <c r="C12" s="3" t="inlineStr">
-        <is>
-          <t>GIZ DE CORRECAO 15x8 OFF WHITE</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr"/>
-      <c r="E12" s="2" t="inlineStr"/>
-      <c r="F12" s="2" t="inlineStr"/>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>2.000,00</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr"/>
+      <c r="C23" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TAMPA ADESIVA 12MM OFF WHITE  </t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr"/>
+      <c r="E23" s="2" t="inlineStr"/>
+      <c r="F23" s="2" t="inlineStr"/>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>20.000,00</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="n">
+        <v>160002002</v>
+      </c>
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>3057</t>
+        </is>
+      </c>
+      <c r="C24" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TAMPA ADESIVA 18MM FREIJO     </t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr"/>
+      <c r="E24" s="2" t="inlineStr"/>
+      <c r="F24" s="2" t="inlineStr"/>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>10.000,00</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="n">
+        <v>160002015</v>
+      </c>
+      <c r="B25" s="2" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="C25" s="3" t="inlineStr">
+        <is>
+          <t>BATENTE SILICONE 8MM RESINA P.</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr"/>
+      <c r="E25" s="2" t="inlineStr"/>
+      <c r="F25" s="2" t="inlineStr"/>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>20.000,00</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/tabela_imprimir.xlsx
+++ b/tabela_imprimir.xlsx
@@ -9,7 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tabela" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tabela'!$A$1:$B$4</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tabela'!$A$1:$B$5</definedName>
   </definedNames>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
@@ -18,7 +18,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -44,7 +44,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <b val="1"/>
-      <sz val="30"/>
+      <sz val="28"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <b val="1"/>
+      <sz val="24"/>
     </font>
     <font>
       <sz val="150"/>
@@ -115,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -128,19 +134,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -552,7 +561,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
@@ -565,46 +574,58 @@
   </cols>
   <sheetData>
     <row r="1" ht="32.25" customHeight="1" thickBot="1">
-      <c r="A1" s="6" t="n"/>
-      <c r="B1" s="7" t="inlineStr">
+      <c r="A1" s="7" t="n"/>
+      <c r="B1" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">IDENTIFICAÇÃO DE MATERIAIS </t>
         </is>
       </c>
     </row>
-    <row r="2" ht="236.25" customHeight="1" thickBot="1">
-      <c r="A2" s="5" t="inlineStr">
+    <row r="2" ht="120" customHeight="1" thickBot="1">
+      <c r="A2" s="6" t="inlineStr">
         <is>
           <t>PRODUTO</t>
         </is>
       </c>
-      <c r="B2" s="8" t="inlineStr">
-        <is>
-          <t>PARAFUSO M4 20MM CABECA CHATA</t>
+      <c r="B2" s="9" t="inlineStr">
+        <is>
+          <t>Fita Borda Papel</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="236.25" customHeight="1" thickBot="1">
-      <c r="A3" s="3" t="inlineStr">
+    <row r="3" ht="138.75" customHeight="1" thickBot="1">
+      <c r="A3" s="5" t="inlineStr">
+        <is>
+          <t>COR</t>
+        </is>
+      </c>
+      <c r="B3" s="9" t="inlineStr">
+        <is>
+          <t>TITANIO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="225" customHeight="1" thickBot="1">
+      <c r="A4" s="3" t="inlineStr">
         <is>
           <t>QTDE</t>
         </is>
       </c>
-      <c r="B3" s="9" t="inlineStr">
-        <is>
-          <t>12000</t>
+      <c r="B4" s="10" t="inlineStr">
+        <is>
+          <t>65320</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="236.25" customHeight="1" thickBot="1">
-      <c r="A4" s="3" t="inlineStr">
+    <row r="5" ht="236.25" customHeight="1" thickBot="1">
+      <c r="A5" s="3" t="inlineStr">
         <is>
           <t>CODIGO</t>
         </is>
       </c>
-      <c r="B4" s="10" t="inlineStr">
-        <is>
-          <t>160006044</t>
+      <c r="B5" s="11" t="inlineStr">
+        <is>
+          <t>150001004</t>
         </is>
       </c>
     </row>

--- a/tabela_imprimir.xlsx
+++ b/tabela_imprimir.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -54,6 +54,9 @@
     </font>
     <font>
       <sz val="150"/>
+    </font>
+    <font>
+      <sz val="50"/>
     </font>
     <font>
       <sz val="60"/>
@@ -121,7 +124,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -146,10 +149,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -589,7 +595,7 @@
       </c>
       <c r="B2" s="9" t="inlineStr">
         <is>
-          <t>Fita Borda Papel</t>
+          <t>Fita Borda Papel 18MM</t>
         </is>
       </c>
     </row>
@@ -599,9 +605,9 @@
           <t>COR</t>
         </is>
       </c>
-      <c r="B3" s="9" t="inlineStr">
-        <is>
-          <t>TITANIO</t>
+      <c r="B3" s="10" t="inlineStr">
+        <is>
+          <t>NATURE</t>
         </is>
       </c>
     </row>
@@ -611,9 +617,9 @@
           <t>QTDE</t>
         </is>
       </c>
-      <c r="B4" s="10" t="inlineStr">
-        <is>
-          <t>65320</t>
+      <c r="B4" s="11" t="inlineStr">
+        <is>
+          <t>33860</t>
         </is>
       </c>
     </row>
@@ -623,7 +629,7 @@
           <t>CODIGO</t>
         </is>
       </c>
-      <c r="B5" s="11" t="inlineStr">
+      <c r="B5" s="12" t="inlineStr">
         <is>
           <t>150001004</t>
         </is>

--- a/tabela_imprimir.xlsx
+++ b/tabela_imprimir.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -495,16 +495,16 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>160002006</v>
+        <v>160006021</v>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">BUCHA 8MM (PAREDE) NEUTRO     </t>
+          <t>PARAFUSO 4,5X35 CABECA FLANGEA</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
@@ -519,23 +519,23 @@
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>D0</t>
+          <t>D1</t>
         </is>
       </c>
       <c r="G2" s="2" t="inlineStr">
         <is>
-          <t>8.000,00</t>
+          <t>7.000,00</t>
         </is>
       </c>
       <c r="H2" s="2" t="inlineStr">
         <is>
-          <t>177.725</t>
+          <t>177.848</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>160006011</v>
+        <v>160006034</v>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
@@ -544,7 +544,7 @@
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>PREGO 8X8 COM CABECA LISO - 18</t>
+          <t>PARAFUSO 3,5X25 CABECA FLANGEA</t>
         </is>
       </c>
       <c r="D3" s="2" t="inlineStr">
@@ -559,19 +559,19 @@
       </c>
       <c r="F3" s="2" t="inlineStr">
         <is>
-          <t>D0</t>
+          <t>E1</t>
         </is>
       </c>
       <c r="G3" s="2" t="inlineStr">
         <is>
-          <t>100.000,00</t>
+          <t>15.000,00</t>
         </is>
       </c>
       <c r="H3" s="2" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>160006016</v>
+        <v>160006053</v>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
@@ -580,7 +580,7 @@
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t>PARAFUSO 3,5X12 CABECA FLANGEA</t>
+          <t>PARAFUSO ESTRUTURAL 7X40 CABEC</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -590,24 +590,24 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>S4</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>E1</t>
+          <t>E0</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>200.000,00</t>
+          <t>4.000,00</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>160006008</v>
+        <v>160006003</v>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
@@ -616,7 +616,7 @@
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>PARAFUSO 4,5X25 CABECA CHATA P</t>
+          <t>PARAFUSO 3,5X14 CABECA FLANGEA</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -626,24 +626,24 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>S4</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>D0</t>
+          <t>D2</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>60.000,00</t>
+          <t>14.000,00</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>160006006</v>
+        <v>160006018</v>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
@@ -652,7 +652,7 @@
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>PARAFUSO 3,5X40 CABECA CHATA P</t>
+          <t>PARAFUSO 4,5X22 CABECA CHATA -</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -662,24 +662,24 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>S5</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>E0</t>
+          <t>D1</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>30.000,00</t>
+          <t>8.000,00</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>160001001</v>
+        <v>160006016</v>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
@@ -688,7 +688,7 @@
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">COLA PARA MONTAGEM - 08GRS    </t>
+          <t>PARAFUSO 3,5X12 CABECA FLANGEA</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -698,7 +698,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>S5</t>
+          <t>S4</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -708,23 +708,23 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2.000,00</t>
+          <t>200.000,00</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>160002004</v>
+        <v>160006010</v>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>3014</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">SAPATA OVAL 12X50 PRETO       </t>
+          <t>PARAFUSO 4,5X50 CABECA CHATA P</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -734,7 +734,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>S6</t>
+          <t>S5</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -744,14 +744,14 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>15.000,00</t>
+          <t>20.000,00</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>160001061</v>
+        <v>160001009</v>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>SUPORTE ANGULAR CENTRAL NATURE</t>
+          <t>ARRUELA 3/16 15MM ZINCADO FURO</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -770,24 +770,24 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>S7</t>
+          <t>S6</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>E2</t>
+          <t>D1</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>10.000,00</t>
+          <t>13.000,00</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>160001003</v>
+        <v>160001002</v>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
@@ -796,7 +796,7 @@
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">CAVILHAS 8X20MM PINUS         </t>
+          <t xml:space="preserve">PRENDEDOR DE FUNDOS 13X13 COM </t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -806,24 +806,24 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>S8</t>
+          <t>S6</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>D1</t>
+          <t>E0</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>20.000,00</t>
+          <t>50.000,00</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>160001011</v>
+        <v>160001034</v>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
@@ -832,7 +832,7 @@
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>SUPORTE ANGULAR CENTRAL MARRON</t>
+          <t>CHAPA JUNCAO 18X40 COM 2 FUROS</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -842,24 +842,24 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>S8</t>
+          <t>S7</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>D2</t>
+          <t>E0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>20.000,00</t>
+          <t>6.000,00</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>160001024</v>
+        <v>160001032</v>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
@@ -868,7 +868,7 @@
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>PINO GIROFIX COM ROSCA SOBERBA</t>
+          <t>CANTONEIRA PLASTICA CINZA 20X2</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -878,17 +878,17 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>S8</t>
+          <t>S7</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>E0</t>
+          <t>E1</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>40.000,00</t>
+          <t>4.000,00</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr"/>
@@ -919,7 +919,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>D0</t>
+          <t>E0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -931,16 +931,16 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>160002014</v>
+        <v>160001024</v>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>3070</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>DISTANCIADOR DE PAINEL 70 X 32</t>
+          <t>PINO GIROFIX COM ROSCA SOBERBA</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -955,33 +955,33 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>D3</t>
+          <t>E0</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>2.000,00</t>
+          <t>30.000,00</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>160001018</v>
+        <v>160002003</v>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3014</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>CANTONEIRA PLASTICA 20x20x42 C</t>
+          <t>SUPORTE PRATELEIRA NYLON 8X10M</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>R3D</t>
+          <t>R3E</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -991,19 +991,19 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>D0</t>
+          <t>E2</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>12.000,00</t>
+          <t>5.000,00</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>160001004</v>
+        <v>160001025</v>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
@@ -1012,7 +1012,7 @@
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">CAVILHAS 8X30MM PINUS         </t>
+          <t>CASTANHA DO MINI-GIROFIX 12X9M</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1027,19 +1027,19 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>D1</t>
+          <t>E0</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>20.000,00</t>
+          <t>30.000,00</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>160001025</v>
+        <v>160001018</v>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
@@ -1048,12 +1048,12 @@
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>CASTANHA DO MINI-GIROFIX 12X9M</t>
+          <t>CANTONEIRA PLASTICA 20x20x42 C</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>R3E</t>
+          <t>R3D</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1063,64 +1063,52 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>E0</t>
+          <t>E3</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>40.000,00</t>
+          <t>15.000,00</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>160001012</v>
+        <v>160002005</v>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3039</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">DISPOSITIVO TRAPEZIO CINZA    </t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>R3E</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>S9</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>E1</t>
-        </is>
-      </c>
+          <t>GUIA CABO / PASSA FIO 46MM +/-</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr"/>
+      <c r="E18" s="2" t="inlineStr"/>
+      <c r="F18" s="2" t="inlineStr"/>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>15.000,00</t>
+          <t>2.000,00</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>160002005</v>
+        <v>160002012</v>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>3014</t>
+          <t>3070</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>GUIA CABO / PASSA FIO 46MM +/-</t>
+          <t xml:space="preserve">GIZ DE CORRECAO 15x8 NATURE   </t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr"/>
@@ -1128,23 +1116,23 @@
       <c r="F19" s="2" t="inlineStr"/>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>2.000,00</t>
+          <t>4.000,00</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>160002012</v>
+        <v>160002002</v>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>3070</t>
+          <t>3039</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">GIZ DE CORRECAO 15x8 NATURE   </t>
+          <t xml:space="preserve">TAMPA ADESIVA 18MM OFF WHITE  </t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr"/>
@@ -1152,23 +1140,23 @@
       <c r="F20" s="2" t="inlineStr"/>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>3.000,00</t>
+          <t>20.000,00</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>170001005</v>
+        <v>160002022</v>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3085</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr">
         <is>
-          <t>FILME POLIETILENO (PE) 590X280</t>
+          <t xml:space="preserve">TAMPA ADESIVA 12MM JEQUITIBA  </t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr"/>
@@ -1176,23 +1164,23 @@
       <c r="F21" s="2" t="inlineStr"/>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>40,00</t>
+          <t>5.000,00</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>160002007</v>
+        <v>170001005</v>
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr">
         <is>
-          <t>EMBALAGEM PLASTICA VIRGEM 10X1</t>
+          <t>FILME POLIETILENO (PE) 590X280</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr"/>
@@ -1200,82 +1188,10 @@
       <c r="F22" s="2" t="inlineStr"/>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>5.000,00</t>
+          <t>40,00</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="3" t="n">
-        <v>160002022</v>
-      </c>
-      <c r="B23" s="2" t="inlineStr">
-        <is>
-          <t>3039</t>
-        </is>
-      </c>
-      <c r="C23" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">TAMPA ADESIVA 12MM OFF WHITE  </t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr"/>
-      <c r="E23" s="2" t="inlineStr"/>
-      <c r="F23" s="2" t="inlineStr"/>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>20.000,00</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="3" t="n">
-        <v>160002002</v>
-      </c>
-      <c r="B24" s="2" t="inlineStr">
-        <is>
-          <t>3057</t>
-        </is>
-      </c>
-      <c r="C24" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">TAMPA ADESIVA 18MM FREIJO     </t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr"/>
-      <c r="E24" s="2" t="inlineStr"/>
-      <c r="F24" s="2" t="inlineStr"/>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>10.000,00</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="3" t="n">
-        <v>160002015</v>
-      </c>
-      <c r="B25" s="2" t="inlineStr">
-        <is>
-          <t>3000</t>
-        </is>
-      </c>
-      <c r="C25" s="3" t="inlineStr">
-        <is>
-          <t>BATENTE SILICONE 8MM RESINA P.</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr"/>
-      <c r="E25" s="2" t="inlineStr"/>
-      <c r="F25" s="2" t="inlineStr"/>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>20.000,00</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/tabela_imprimir.xlsx
+++ b/tabela_imprimir.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -27,6 +27,9 @@
     </font>
     <font>
       <b val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
     </font>
   </fonts>
   <fills count="2">
@@ -55,11 +58,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,269 +432,790 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="10" customWidth="1" min="1" max="1"/>
+    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="30" customWidth="1" min="3" max="3"/>
+    <col width="5" customWidth="1" min="4" max="4"/>
+    <col width="5" customWidth="1" min="5" max="5"/>
+    <col width="5" customWidth="1" min="6" max="6"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="12" customWidth="1" min="8" max="8"/>
+    <col width="11" customWidth="1" min="9" max="9"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Produto_x</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Descrição Produto</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Qtde Mov</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Codigo</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Deriv</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Descricao</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>Rua</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>Secao</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>Andar</t>
         </is>
       </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>Quantidade</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>Requisição</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>150001005</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>FITA BORDA PAPEL 28 MM - 240G - OFF WHITE FOSCO</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>10724</v>
-      </c>
-      <c r="D2" t="inlineStr">
+      <c r="A2" s="3" t="n">
+        <v>160006053</v>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>PARAFUSO ESTRUTURAL 7X40 CABEC</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>R3E</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>E0</t>
+        </is>
+      </c>
+      <c r="G2" s="2" t="inlineStr">
+        <is>
+          <t>10.000,00</t>
+        </is>
+      </c>
+      <c r="H2" s="2" t="inlineStr">
+        <is>
+          <t>178.043</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="n">
+        <v>160006001</v>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>PARAFUSO 3,5X12 CABECA CHATA P</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t>R3E</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="F3" s="2" t="inlineStr">
+        <is>
+          <t>D2</t>
+        </is>
+      </c>
+      <c r="G3" s="2" t="inlineStr">
+        <is>
+          <t>20.000,00</t>
+        </is>
+      </c>
+      <c r="H3" s="2" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="n">
+        <v>160006003</v>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>PARAFUSO 3,5X14 CABECA FLANGEA</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>R3E</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>D2</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>14.000,00</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="n">
+        <v>160006018</v>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>PARAFUSO 4,5X22 CABECA CHATA -</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>R3E</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>D1</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>16.000,00</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>160006011</v>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>PREGO 8X8 COM CABECA LISO - 18</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>R3E</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>D0</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>200.000,00</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="n">
+        <v>160002050</v>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>BATENTE DE BORRACHA PARA PORTA</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>R3E</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>S4</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>E2</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>10.000,00</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="n">
+        <v>160006016</v>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>PARAFUSO 3,5X12 CABECA FLANGEA</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>R3E</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>S4</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>E1</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>100.000,00</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="n">
+        <v>160006044</v>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PARAFUSO M4 20MM CABECA CHATA </t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>R3E</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>S5</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>D1</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>6.000,00</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="n">
+        <v>160002004</v>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>3014</t>
+        </is>
+      </c>
+      <c r="C10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SAPATA OVAL 12X50 PRETO       </t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>R3E</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>S6</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>D0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>12.000,00</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="n">
+        <v>160001024</v>
+      </c>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C11" s="3" t="inlineStr">
+        <is>
+          <t>PINO GIROFIX COM ROSCA SOBERBA</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>R3E</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>S8</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>E0</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>70.000,00</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="n">
+        <v>160001011</v>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C12" s="3" t="inlineStr">
+        <is>
+          <t>SUPORTE ANGULAR CENTRAL MARRON</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>R3E</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>S8</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>D2</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>10.000,00</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="n">
+        <v>160001023</v>
+      </c>
+      <c r="B13" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C13" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAVILHA 6X30MM                </t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
         <is>
           <t>R3D</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>S1</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>S8</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>D0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>50.000,00</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="n">
+        <v>160001025</v>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C14" s="3" t="inlineStr">
+        <is>
+          <t>CASTANHA DO MINI-GIROFIX 12X9M</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>R3E</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>S9</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>E0</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>70.000,00</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="n">
+        <v>160002003</v>
+      </c>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>3014</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t>SUPORTE PRATELEIRA NYLON 8X10M</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>R3E</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>S9</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>E2</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>2.500,00</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="n">
+        <v>160001018</v>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C16" s="3" t="inlineStr">
+        <is>
+          <t>CANTONEIRA PLASTICA 20x20x42 C</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>R3D</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>S9</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>E3</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>30.000,00</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="n">
+        <v>160001004</v>
+      </c>
+      <c r="B17" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAVILHAS 8X30MM PINUS         </t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>R3E</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>S9</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
         <is>
           <t>D1</t>
         </is>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>160006015</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>PARAFUSO 6,0X75 CABECA CHATA PHS BICROMATIZADO</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>30000</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>R3E</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>S2</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>E0</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>160006003</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>PARAFUSO 3,5X14 CABECA FLANGEADA PHS PRETO</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>60000</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>R3E</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>D2</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>160006001</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>PARAFUSO 3,5X12 CABECA CHATA PHS REBAIXADO BICROMATIZADO - CORREDICA</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>60000</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>R3E</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>D2</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>160006018</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>PARAFUSO 4,5X22 CABECA CHATA - ZINCADO</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>72000</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>R3E</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>D1</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>160006016</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>PARAFUSO 3,5X12 CABECA FLANGEADA PHS BICROMATIZADO</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>11300</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>R3E</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>S4</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>E0</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>160006006</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>PARAFUSO 3,5X40 CABECA CHATA PHS BICROMATIZADO</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>60000</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>R3E</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>S5</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>E0</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>160002004</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>SAPATA OVAL 12X50 - PRETO</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>30000</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>R3E</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>S6</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>D0</t>
-        </is>
-      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>30.000,00</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="n">
+        <v>160003006</v>
+      </c>
+      <c r="B18" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C18" s="3" t="inlineStr">
+        <is>
+          <t>DISTANCIADOR DOBRADICA PARA CA</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr"/>
+      <c r="E18" s="2" t="inlineStr"/>
+      <c r="F18" s="2" t="inlineStr"/>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>5.000,00</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="n">
+        <v>160006032</v>
+      </c>
+      <c r="B19" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C19" s="3" t="inlineStr">
+        <is>
+          <t>PARAFUSO 4,5X35 CABECA FLANGEA</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr"/>
+      <c r="E19" s="2" t="inlineStr"/>
+      <c r="F19" s="2" t="inlineStr"/>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>14.000,00</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="n">
+        <v>160002002</v>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>3039</t>
+        </is>
+      </c>
+      <c r="C20" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TAMPA ADESIVA 18MM OFF WHITE  </t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr"/>
+      <c r="E20" s="2" t="inlineStr"/>
+      <c r="F20" s="2" t="inlineStr"/>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>40.000,00</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="n">
+        <v>160002012</v>
+      </c>
+      <c r="B21" s="2" t="inlineStr">
+        <is>
+          <t>3039</t>
+        </is>
+      </c>
+      <c r="C21" s="3" t="inlineStr">
+        <is>
+          <t>GIZ DE CORRECAO 15x8 OFF WHITE</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr"/>
+      <c r="E21" s="2" t="inlineStr"/>
+      <c r="F21" s="2" t="inlineStr"/>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>2.000,00</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="n">
+        <v>170001005</v>
+      </c>
+      <c r="B22" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C22" s="3" t="inlineStr">
+        <is>
+          <t>FILME POLIETILENO (PE) 590X280</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr"/>
+      <c r="E22" s="2" t="inlineStr"/>
+      <c r="F22" s="2" t="inlineStr"/>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>20,00</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="n">
+        <v>310007096</v>
+      </c>
+      <c r="B23" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C23" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TOALHA INDUSTRIA VERDE NOVA   </t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr"/>
+      <c r="E23" s="2" t="inlineStr"/>
+      <c r="F23" s="2" t="inlineStr"/>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>40,00</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/tabela_imprimir.xlsx
+++ b/tabela_imprimir.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tabela" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tabela" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="10" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
     <col width="30" customWidth="1" min="3" max="3"/>
     <col width="5" customWidth="1" min="4" max="4"/>
     <col width="5" customWidth="1" min="5" max="5"/>
@@ -459,7 +459,7 @@
       </c>
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>Deriv</t>
+          <t>Deriv_x</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
@@ -488,6 +488,11 @@
         </is>
       </c>
       <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>QTD Entregue</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
         <is>
           <t>Requisição</t>
         </is>
@@ -495,301 +500,341 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>160006053</v>
-      </c>
-      <c r="B2" s="2" t="inlineStr">
+        <v>160006018</v>
+      </c>
+      <c r="B2" s="3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>PARAFUSO ESTRUTURAL 7X40 CABEC</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>R3E</t>
-        </is>
-      </c>
-      <c r="E2" s="2" t="inlineStr">
+          <t>PARAFUSO 4,5X22 CABECA CHATA -</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>R3E</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
         <is>
           <t>S3</t>
         </is>
       </c>
-      <c r="F2" s="2" t="inlineStr">
-        <is>
-          <t>E0</t>
-        </is>
-      </c>
-      <c r="G2" s="2" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>D1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>10.000,00</t>
         </is>
       </c>
-      <c r="H2" s="2" t="inlineStr">
-        <is>
-          <t>178.043</t>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>176.750</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>160006001</v>
-      </c>
-      <c r="B3" s="2" t="inlineStr">
+        <v>160006011</v>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>PARAFUSO 3,5X12 CABECA CHATA P</t>
-        </is>
-      </c>
-      <c r="D3" s="2" t="inlineStr">
-        <is>
-          <t>R3E</t>
-        </is>
-      </c>
-      <c r="E3" s="2" t="inlineStr">
+          <t>PREGO 8X8 COM CABECA LISO - 18</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>R3E</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="inlineStr">
         <is>
           <t>S3</t>
         </is>
       </c>
-      <c r="F3" s="2" t="inlineStr">
-        <is>
-          <t>D2</t>
-        </is>
-      </c>
-      <c r="G3" s="2" t="inlineStr">
-        <is>
-          <t>20.000,00</t>
-        </is>
-      </c>
-      <c r="H3" s="2" t="inlineStr"/>
+      <c r="F3" s="3" t="inlineStr">
+        <is>
+          <t>D0</t>
+        </is>
+      </c>
+      <c r="G3" s="3" t="inlineStr">
+        <is>
+          <t>100.000,00</t>
+        </is>
+      </c>
+      <c r="H3" s="3" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I3" s="3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>160006003</v>
-      </c>
-      <c r="B4" s="2" t="inlineStr">
+        <v>160006016</v>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t>PARAFUSO 3,5X14 CABECA FLANGEA</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>R3E</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>D2</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>14.000,00</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr"/>
+          <t>PARAFUSO 3,5X12 CABECA FLANGEA</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="inlineStr">
+        <is>
+          <t>R3E</t>
+        </is>
+      </c>
+      <c r="E4" s="3" t="inlineStr">
+        <is>
+          <t>S4</t>
+        </is>
+      </c>
+      <c r="F4" s="3" t="inlineStr">
+        <is>
+          <t>E1</t>
+        </is>
+      </c>
+      <c r="G4" s="3" t="inlineStr">
+        <is>
+          <t>200.000,00</t>
+        </is>
+      </c>
+      <c r="H4" s="3" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I4" s="3" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>160006018</v>
-      </c>
-      <c r="B5" s="2" t="inlineStr">
+        <v>160006016</v>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>PARAFUSO 4,5X22 CABECA CHATA -</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>R3E</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>D1</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>16.000,00</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr"/>
+          <t>PARAFUSO 3,5X12 CABECA FLANGEA</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>R3E</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>S4</t>
+        </is>
+      </c>
+      <c r="F5" s="3" t="inlineStr">
+        <is>
+          <t>E0</t>
+        </is>
+      </c>
+      <c r="G5" s="3" t="inlineStr">
+        <is>
+          <t>200.000,00</t>
+        </is>
+      </c>
+      <c r="H5" s="3" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I5" s="3" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>160006011</v>
-      </c>
-      <c r="B6" s="2" t="inlineStr">
+        <v>160006022</v>
+      </c>
+      <c r="B6" s="3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>PREGO 8X8 COM CABECA LISO - 18</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>R3E</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>D0</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>200.000,00</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr"/>
+          <t>PARAFUSO M4 12MM CHATA PHS BIC</t>
+        </is>
+      </c>
+      <c r="D6" s="3" t="inlineStr">
+        <is>
+          <t>R3E</t>
+        </is>
+      </c>
+      <c r="E6" s="3" t="inlineStr">
+        <is>
+          <t>S5</t>
+        </is>
+      </c>
+      <c r="F6" s="3" t="inlineStr">
+        <is>
+          <t>D1</t>
+        </is>
+      </c>
+      <c r="G6" s="3" t="inlineStr">
+        <is>
+          <t>5.000,00</t>
+        </is>
+      </c>
+      <c r="H6" s="3" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I6" s="3" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>160002050</v>
-      </c>
-      <c r="B7" s="2" t="inlineStr">
-        <is>
-          <t>3000</t>
+        <v>160006006</v>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>BATENTE DE BORRACHA PARA PORTA</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>R3E</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>S4</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>E2</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>10.000,00</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr"/>
+          <t>PARAFUSO 3,5X40 CABECA CHATA P</t>
+        </is>
+      </c>
+      <c r="D7" s="3" t="inlineStr">
+        <is>
+          <t>R3E</t>
+        </is>
+      </c>
+      <c r="E7" s="3" t="inlineStr">
+        <is>
+          <t>S5</t>
+        </is>
+      </c>
+      <c r="F7" s="3" t="inlineStr">
+        <is>
+          <t>E0</t>
+        </is>
+      </c>
+      <c r="G7" s="3" t="inlineStr">
+        <is>
+          <t>30.000,00</t>
+        </is>
+      </c>
+      <c r="H7" s="3" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I7" s="3" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>160006016</v>
-      </c>
-      <c r="B8" s="2" t="inlineStr">
+        <v>160001001</v>
+      </c>
+      <c r="B8" s="3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>PARAFUSO 3,5X12 CABECA FLANGEA</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>R3E</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>S4</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
+          <t xml:space="preserve">COLA PARA MONTAGEM - 08GRS    </t>
+        </is>
+      </c>
+      <c r="D8" s="3" t="inlineStr">
+        <is>
+          <t>R3E</t>
+        </is>
+      </c>
+      <c r="E8" s="3" t="inlineStr">
+        <is>
+          <t>S5</t>
+        </is>
+      </c>
+      <c r="F8" s="3" t="inlineStr">
         <is>
           <t>E1</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>100.000,00</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr"/>
+      <c r="G8" s="3" t="inlineStr">
+        <is>
+          <t>2.000,00</t>
+        </is>
+      </c>
+      <c r="H8" s="3" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I8" s="3" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>160006044</v>
-      </c>
-      <c r="B9" s="2" t="inlineStr">
+        <v>160001002</v>
+      </c>
+      <c r="B9" s="3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">PARAFUSO M4 20MM CABECA CHATA </t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>R3E</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>S5</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>D1</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>6.000,00</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr"/>
+          <t xml:space="preserve">PRENDEDOR DE FUNDOS 13X13 COM </t>
+        </is>
+      </c>
+      <c r="D9" s="3" t="inlineStr">
+        <is>
+          <t>R3E</t>
+        </is>
+      </c>
+      <c r="E9" s="3" t="inlineStr">
+        <is>
+          <t>S6</t>
+        </is>
+      </c>
+      <c r="F9" s="3" t="inlineStr">
+        <is>
+          <t>E0</t>
+        </is>
+      </c>
+      <c r="G9" s="3" t="inlineStr">
+        <is>
+          <t>50.000,00</t>
+        </is>
+      </c>
+      <c r="H9" s="3" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I9" s="3" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
         <v>160002004</v>
       </c>
-      <c r="B10" s="2" t="inlineStr">
+      <c r="B10" s="3" t="inlineStr">
         <is>
           <t>3014</t>
         </is>
@@ -799,423 +844,773 @@
           <t xml:space="preserve">SAPATA OVAL 12X50 PRETO       </t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>R3E</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="D10" s="3" t="inlineStr">
+        <is>
+          <t>R3E</t>
+        </is>
+      </c>
+      <c r="E10" s="3" t="inlineStr">
         <is>
           <t>S6</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
+      <c r="F10" s="3" t="inlineStr">
         <is>
           <t>D0</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>12.000,00</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr"/>
+      <c r="G10" s="3" t="inlineStr">
+        <is>
+          <t>15.000,00</t>
+        </is>
+      </c>
+      <c r="H10" s="3" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I10" s="3" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>160001024</v>
-      </c>
-      <c r="B11" s="2" t="inlineStr">
+        <v>160001032</v>
+      </c>
+      <c r="B11" s="3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>PINO GIROFIX COM ROSCA SOBERBA</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>R3E</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>S8</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>E0</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>70.000,00</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr"/>
+          <t>CANTONEIRA PLASTICA CINZA 20X2</t>
+        </is>
+      </c>
+      <c r="D11" s="3" t="inlineStr">
+        <is>
+          <t>R3E</t>
+        </is>
+      </c>
+      <c r="E11" s="3" t="inlineStr">
+        <is>
+          <t>S7</t>
+        </is>
+      </c>
+      <c r="F11" s="3" t="inlineStr">
+        <is>
+          <t>E1</t>
+        </is>
+      </c>
+      <c r="G11" s="3" t="inlineStr">
+        <is>
+          <t>6.000,00</t>
+        </is>
+      </c>
+      <c r="H11" s="3" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I11" s="3" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>160001011</v>
-      </c>
-      <c r="B12" s="2" t="inlineStr">
+        <v>160001034</v>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>SUPORTE ANGULAR CENTRAL MARRON</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>R3E</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>S8</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>D2</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
+          <t>CHAPA JUNCAO 18X40 COM 2 FUROS</t>
+        </is>
+      </c>
+      <c r="D12" s="3" t="inlineStr">
+        <is>
+          <t>R3E</t>
+        </is>
+      </c>
+      <c r="E12" s="3" t="inlineStr">
+        <is>
+          <t>S7</t>
+        </is>
+      </c>
+      <c r="F12" s="3" t="inlineStr">
+        <is>
+          <t>E0</t>
+        </is>
+      </c>
+      <c r="G12" s="3" t="inlineStr">
         <is>
           <t>10.000,00</t>
         </is>
       </c>
-      <c r="H12" s="2" t="inlineStr"/>
+      <c r="H12" s="3" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I12" s="3" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>160001023</v>
-      </c>
-      <c r="B13" s="2" t="inlineStr">
+        <v>160001034</v>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">CAVILHA 6X30MM                </t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>R3D</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>S8</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
+          <t>CHAPA JUNCAO 18X40 COM 2 FUROS</t>
+        </is>
+      </c>
+      <c r="D13" s="3" t="inlineStr">
+        <is>
+          <t>R3E</t>
+        </is>
+      </c>
+      <c r="E13" s="3" t="inlineStr">
+        <is>
+          <t>S7</t>
+        </is>
+      </c>
+      <c r="F13" s="3" t="inlineStr">
         <is>
           <t>D0</t>
         </is>
       </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>50.000,00</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr"/>
+      <c r="G13" s="3" t="inlineStr">
+        <is>
+          <t>10.000,00</t>
+        </is>
+      </c>
+      <c r="H13" s="3" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I13" s="3" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>160001025</v>
-      </c>
-      <c r="B14" s="2" t="inlineStr">
+        <v>160001059</v>
+      </c>
+      <c r="B14" s="3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>CASTANHA DO MINI-GIROFIX 12X9M</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>R3E</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>S9</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>E0</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>70.000,00</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr"/>
+          <t xml:space="preserve">CAVILHA 5X25MM                </t>
+        </is>
+      </c>
+      <c r="D14" s="3" t="inlineStr">
+        <is>
+          <t>R3E</t>
+        </is>
+      </c>
+      <c r="E14" s="3" t="inlineStr">
+        <is>
+          <t>S8</t>
+        </is>
+      </c>
+      <c r="F14" s="3" t="inlineStr">
+        <is>
+          <t>E3</t>
+        </is>
+      </c>
+      <c r="G14" s="3" t="inlineStr">
+        <is>
+          <t>5.000,00</t>
+        </is>
+      </c>
+      <c r="H14" s="3" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I14" s="3" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>160002003</v>
-      </c>
-      <c r="B15" s="2" t="inlineStr">
-        <is>
-          <t>3014</t>
+        <v>160001024</v>
+      </c>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>SUPORTE PRATELEIRA NYLON 8X10M</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>R3E</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>S9</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>E2</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>2.500,00</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr"/>
+          <t>PINO GIROFIX COM ROSCA SOBERBA</t>
+        </is>
+      </c>
+      <c r="D15" s="3" t="inlineStr">
+        <is>
+          <t>R3E</t>
+        </is>
+      </c>
+      <c r="E15" s="3" t="inlineStr">
+        <is>
+          <t>S8</t>
+        </is>
+      </c>
+      <c r="F15" s="3" t="inlineStr">
+        <is>
+          <t>E0</t>
+        </is>
+      </c>
+      <c r="G15" s="3" t="inlineStr">
+        <is>
+          <t>40.000,00</t>
+        </is>
+      </c>
+      <c r="H15" s="3" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I15" s="3" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>160001018</v>
-      </c>
-      <c r="B16" s="2" t="inlineStr">
+        <v>160001024</v>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>CANTONEIRA PLASTICA 20x20x42 C</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>R3D</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>S9</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>E3</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>30.000,00</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr"/>
+          <t>PINO GIROFIX COM ROSCA SOBERBA</t>
+        </is>
+      </c>
+      <c r="D16" s="3" t="inlineStr">
+        <is>
+          <t>R3E</t>
+        </is>
+      </c>
+      <c r="E16" s="3" t="inlineStr">
+        <is>
+          <t>S8</t>
+        </is>
+      </c>
+      <c r="F16" s="3" t="inlineStr">
+        <is>
+          <t>D0</t>
+        </is>
+      </c>
+      <c r="G16" s="3" t="inlineStr">
+        <is>
+          <t>40.000,00</t>
+        </is>
+      </c>
+      <c r="H16" s="3" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I16" s="3" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>160001004</v>
-      </c>
-      <c r="B17" s="2" t="inlineStr">
+        <v>160001005</v>
+      </c>
+      <c r="B17" s="3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">CAVILHAS 8X30MM PINUS         </t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>R3E</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>S9</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>D1</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>30.000,00</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr"/>
+          <t xml:space="preserve">CAVILHA 8X55MM PINUS          </t>
+        </is>
+      </c>
+      <c r="D17" s="3" t="inlineStr">
+        <is>
+          <t>R3E</t>
+        </is>
+      </c>
+      <c r="E17" s="3" t="inlineStr">
+        <is>
+          <t>S8</t>
+        </is>
+      </c>
+      <c r="F17" s="3" t="inlineStr">
+        <is>
+          <t>E2</t>
+        </is>
+      </c>
+      <c r="G17" s="3" t="inlineStr">
+        <is>
+          <t>10.000,00</t>
+        </is>
+      </c>
+      <c r="H17" s="3" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I17" s="3" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>160003006</v>
-      </c>
-      <c r="B18" s="2" t="inlineStr">
+        <v>160001025</v>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>DISTANCIADOR DOBRADICA PARA CA</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr"/>
-      <c r="E18" s="2" t="inlineStr"/>
-      <c r="F18" s="2" t="inlineStr"/>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>5.000,00</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="inlineStr"/>
+          <t>CASTANHA DO MINI-GIROFIX 12X9M</t>
+        </is>
+      </c>
+      <c r="D18" s="3" t="inlineStr">
+        <is>
+          <t>R3E</t>
+        </is>
+      </c>
+      <c r="E18" s="3" t="inlineStr">
+        <is>
+          <t>S9</t>
+        </is>
+      </c>
+      <c r="F18" s="3" t="inlineStr">
+        <is>
+          <t>E0</t>
+        </is>
+      </c>
+      <c r="G18" s="3" t="inlineStr">
+        <is>
+          <t>40.000,00</t>
+        </is>
+      </c>
+      <c r="H18" s="3" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I18" s="3" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>160006032</v>
-      </c>
-      <c r="B19" s="2" t="inlineStr">
+        <v>160001025</v>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>PARAFUSO 4,5X35 CABECA FLANGEA</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr"/>
-      <c r="E19" s="2" t="inlineStr"/>
-      <c r="F19" s="2" t="inlineStr"/>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>14.000,00</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr"/>
+          <t>CASTANHA DO MINI-GIROFIX 12X9M</t>
+        </is>
+      </c>
+      <c r="D19" s="3" t="inlineStr">
+        <is>
+          <t>R3E</t>
+        </is>
+      </c>
+      <c r="E19" s="3" t="inlineStr">
+        <is>
+          <t>S9</t>
+        </is>
+      </c>
+      <c r="F19" s="3" t="inlineStr">
+        <is>
+          <t>D0</t>
+        </is>
+      </c>
+      <c r="G19" s="3" t="inlineStr">
+        <is>
+          <t>40.000,00</t>
+        </is>
+      </c>
+      <c r="H19" s="3" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I19" s="3" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>160002002</v>
-      </c>
-      <c r="B20" s="2" t="inlineStr">
-        <is>
-          <t>3039</t>
+        <v>160001012</v>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">TAMPA ADESIVA 18MM OFF WHITE  </t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr"/>
-      <c r="E20" s="2" t="inlineStr"/>
-      <c r="F20" s="2" t="inlineStr"/>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>40.000,00</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr"/>
+          <t xml:space="preserve">DISPOSITIVO TRAPEZIO CINZA    </t>
+        </is>
+      </c>
+      <c r="D20" s="3" t="inlineStr">
+        <is>
+          <t>R3E</t>
+        </is>
+      </c>
+      <c r="E20" s="3" t="inlineStr">
+        <is>
+          <t>S9</t>
+        </is>
+      </c>
+      <c r="F20" s="3" t="inlineStr">
+        <is>
+          <t>E1</t>
+        </is>
+      </c>
+      <c r="G20" s="3" t="inlineStr">
+        <is>
+          <t>15.000,00</t>
+        </is>
+      </c>
+      <c r="H20" s="3" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I20" s="3" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>160002012</v>
-      </c>
-      <c r="B21" s="2" t="inlineStr">
-        <is>
-          <t>3039</t>
+        <v>160002003</v>
+      </c>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>3014</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr">
         <is>
-          <t>GIZ DE CORRECAO 15x8 OFF WHITE</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr"/>
-      <c r="E21" s="2" t="inlineStr"/>
-      <c r="F21" s="2" t="inlineStr"/>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>2.000,00</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr"/>
+          <t>SUPORTE PRATELEIRA NYLON 8X10M</t>
+        </is>
+      </c>
+      <c r="D21" s="3" t="inlineStr">
+        <is>
+          <t>R3E</t>
+        </is>
+      </c>
+      <c r="E21" s="3" t="inlineStr">
+        <is>
+          <t>S9</t>
+        </is>
+      </c>
+      <c r="F21" s="3" t="inlineStr">
+        <is>
+          <t>E2</t>
+        </is>
+      </c>
+      <c r="G21" s="3" t="inlineStr">
+        <is>
+          <t>5.000,00</t>
+        </is>
+      </c>
+      <c r="H21" s="3" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I21" s="3" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>170001005</v>
-      </c>
-      <c r="B22" s="2" t="inlineStr">
+        <v>160001018</v>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr">
         <is>
-          <t>FILME POLIETILENO (PE) 590X280</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr"/>
-      <c r="E22" s="2" t="inlineStr"/>
-      <c r="F22" s="2" t="inlineStr"/>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>20,00</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr"/>
+          <t>CANTONEIRA PLASTICA 20x20x42 C</t>
+        </is>
+      </c>
+      <c r="D22" s="3" t="inlineStr"/>
+      <c r="E22" s="3" t="inlineStr"/>
+      <c r="F22" s="3" t="inlineStr"/>
+      <c r="G22" s="3" t="inlineStr">
+        <is>
+          <t>21.000,00</t>
+        </is>
+      </c>
+      <c r="H22" s="3" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I22" s="3" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
-        <v>310007096</v>
-      </c>
-      <c r="B23" s="2" t="inlineStr">
+        <v>160001003</v>
+      </c>
+      <c r="B23" s="3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">TOALHA INDUSTRIA VERDE NOVA   </t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr"/>
-      <c r="E23" s="2" t="inlineStr"/>
-      <c r="F23" s="2" t="inlineStr"/>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>40,00</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr"/>
+          <t xml:space="preserve">CAVILHAS 8X20MM PINUS         </t>
+        </is>
+      </c>
+      <c r="D23" s="3" t="inlineStr"/>
+      <c r="E23" s="3" t="inlineStr"/>
+      <c r="F23" s="3" t="inlineStr"/>
+      <c r="G23" s="3" t="inlineStr">
+        <is>
+          <t>20.000,00</t>
+        </is>
+      </c>
+      <c r="H23" s="3" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I23" s="3" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="n">
+        <v>160001023</v>
+      </c>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C24" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAVILHA 6X30MM                </t>
+        </is>
+      </c>
+      <c r="D24" s="3" t="inlineStr"/>
+      <c r="E24" s="3" t="inlineStr"/>
+      <c r="F24" s="3" t="inlineStr"/>
+      <c r="G24" s="3" t="inlineStr">
+        <is>
+          <t>50.000,00</t>
+        </is>
+      </c>
+      <c r="H24" s="3" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I24" s="3" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="n">
+        <v>160002005</v>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>3039</t>
+        </is>
+      </c>
+      <c r="C25" s="3" t="inlineStr">
+        <is>
+          <t>GUIA CABO / PASSA FIO 46MM +/-</t>
+        </is>
+      </c>
+      <c r="D25" s="3" t="inlineStr"/>
+      <c r="E25" s="3" t="inlineStr"/>
+      <c r="F25" s="3" t="inlineStr"/>
+      <c r="G25" s="3" t="inlineStr">
+        <is>
+          <t>2.000,00</t>
+        </is>
+      </c>
+      <c r="H25" s="3" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I25" s="3" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="n">
+        <v>160002012</v>
+      </c>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>3039</t>
+        </is>
+      </c>
+      <c r="C26" s="3" t="inlineStr">
+        <is>
+          <t>GIZ DE CORRECAO 15x8 OFF WHITE</t>
+        </is>
+      </c>
+      <c r="D26" s="3" t="inlineStr"/>
+      <c r="E26" s="3" t="inlineStr"/>
+      <c r="F26" s="3" t="inlineStr"/>
+      <c r="G26" s="3" t="inlineStr">
+        <is>
+          <t>1.000,00</t>
+        </is>
+      </c>
+      <c r="H26" s="3" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I26" s="3" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="n">
+        <v>160002012</v>
+      </c>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>3039</t>
+        </is>
+      </c>
+      <c r="C27" s="3" t="inlineStr">
+        <is>
+          <t>GIZ DE CORRECAO 15x8 OFF WHITE</t>
+        </is>
+      </c>
+      <c r="D27" s="3" t="inlineStr"/>
+      <c r="E27" s="3" t="inlineStr"/>
+      <c r="F27" s="3" t="inlineStr"/>
+      <c r="G27" s="3" t="inlineStr">
+        <is>
+          <t>2.000,00</t>
+        </is>
+      </c>
+      <c r="H27" s="3" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I27" s="3" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="3" t="n">
+        <v>160002012</v>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>3011</t>
+        </is>
+      </c>
+      <c r="C28" s="3" t="inlineStr">
+        <is>
+          <t>GIZ DE CORRECAO 15x8 CAPUCCINO</t>
+        </is>
+      </c>
+      <c r="D28" s="3" t="inlineStr"/>
+      <c r="E28" s="3" t="inlineStr"/>
+      <c r="F28" s="3" t="inlineStr"/>
+      <c r="G28" s="3" t="inlineStr">
+        <is>
+          <t>2.000,00</t>
+        </is>
+      </c>
+      <c r="H28" s="3" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I28" s="3" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="n">
+        <v>160002002</v>
+      </c>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>3080</t>
+        </is>
+      </c>
+      <c r="C29" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TAMPA ADESIVA 18MM TAUARI     </t>
+        </is>
+      </c>
+      <c r="D29" s="3" t="inlineStr"/>
+      <c r="E29" s="3" t="inlineStr"/>
+      <c r="F29" s="3" t="inlineStr"/>
+      <c r="G29" s="3" t="inlineStr">
+        <is>
+          <t>20.000,00</t>
+        </is>
+      </c>
+      <c r="H29" s="3" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I29" s="3" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="3" t="n">
+        <v>160002007</v>
+      </c>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="C30" s="3" t="inlineStr">
+        <is>
+          <t>EMBALAGEM PLASTICA VIRGEM 10X1</t>
+        </is>
+      </c>
+      <c r="D30" s="3" t="inlineStr"/>
+      <c r="E30" s="3" t="inlineStr"/>
+      <c r="F30" s="3" t="inlineStr"/>
+      <c r="G30" s="3" t="inlineStr">
+        <is>
+          <t>2.000,00</t>
+        </is>
+      </c>
+      <c r="H30" s="3" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I30" s="3" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="n">
+        <v>170001005</v>
+      </c>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C31" s="3" t="inlineStr">
+        <is>
+          <t>FILME POLIETILENO (PE) 590X280</t>
+        </is>
+      </c>
+      <c r="D31" s="3" t="inlineStr"/>
+      <c r="E31" s="3" t="inlineStr"/>
+      <c r="F31" s="3" t="inlineStr"/>
+      <c r="G31" s="3" t="inlineStr">
+        <is>
+          <t>20,00</t>
+        </is>
+      </c>
+      <c r="H31" s="3" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I31" s="3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/tabela_imprimir.xlsx
+++ b/tabela_imprimir.xlsx
@@ -9,7 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tabela" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tabela'!$A$1:$B$5</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tabela'!$A$1:$B$4</definedName>
   </definedNames>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
@@ -18,7 +18,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="9">
+  <fonts count="7">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -44,19 +44,10 @@
       <name val="Calibri"/>
       <family val="2"/>
       <b val="1"/>
-      <sz val="28"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <b val="1"/>
-      <sz val="24"/>
+      <sz val="30"/>
     </font>
     <font>
       <sz val="150"/>
-    </font>
-    <font>
-      <sz val="50"/>
     </font>
     <font>
       <sz val="60"/>
@@ -124,7 +115,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -137,25 +128,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -567,7 +552,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
@@ -580,58 +565,46 @@
   </cols>
   <sheetData>
     <row r="1" ht="32.25" customHeight="1" thickBot="1">
-      <c r="A1" s="7" t="n"/>
-      <c r="B1" s="8" t="inlineStr">
+      <c r="A1" s="6" t="n"/>
+      <c r="B1" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">IDENTIFICAÇÃO DE MATERIAIS </t>
         </is>
       </c>
     </row>
-    <row r="2" ht="120" customHeight="1" thickBot="1">
-      <c r="A2" s="6" t="inlineStr">
+    <row r="2" ht="236.25" customHeight="1" thickBot="1">
+      <c r="A2" s="5" t="inlineStr">
         <is>
           <t>PRODUTO</t>
         </is>
       </c>
-      <c r="B2" s="9" t="inlineStr">
+      <c r="B2" s="8" t="inlineStr">
         <is>
-          <t>Fita Borda Papel 18MM</t>
+          <t>PARAFUSO 3,5X25 CABECA CHATA</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="138.75" customHeight="1" thickBot="1">
-      <c r="A3" s="5" t="inlineStr">
-        <is>
-          <t>COR</t>
-        </is>
-      </c>
-      <c r="B3" s="10" t="inlineStr">
-        <is>
-          <t>NATURE</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="225" customHeight="1" thickBot="1">
-      <c r="A4" s="3" t="inlineStr">
+    <row r="3" ht="236.25" customHeight="1" thickBot="1">
+      <c r="A3" s="3" t="inlineStr">
         <is>
           <t>QTDE</t>
         </is>
       </c>
-      <c r="B4" s="11" t="inlineStr">
+      <c r="B3" s="9" t="inlineStr">
         <is>
-          <t>33860</t>
+          <t>40000</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="236.25" customHeight="1" thickBot="1">
-      <c r="A5" s="3" t="inlineStr">
+    <row r="4" ht="236.25" customHeight="1" thickBot="1">
+      <c r="A4" s="3" t="inlineStr">
         <is>
           <t>CODIGO</t>
         </is>
       </c>
-      <c r="B5" s="12" t="inlineStr">
+      <c r="B4" s="10" t="inlineStr">
         <is>
-          <t>150001004</t>
+          <t>160006055</t>
         </is>
       </c>
     </row>

--- a/tabela_imprimir.xlsx
+++ b/tabela_imprimir.xlsx
@@ -580,7 +580,7 @@
       </c>
       <c r="B2" s="8" t="inlineStr">
         <is>
-          <t>PARAFUSO 3,5X25 CABECA CHATA</t>
+          <t>PARAFUSO 3,5X12 CABECA CHATA</t>
         </is>
       </c>
     </row>
@@ -592,7 +592,7 @@
       </c>
       <c r="B3" s="9" t="inlineStr">
         <is>
-          <t>40000</t>
+          <t>15000</t>
         </is>
       </c>
     </row>
@@ -604,7 +604,7 @@
       </c>
       <c r="B4" s="10" t="inlineStr">
         <is>
-          <t>160006055</t>
+          <t>160006001</t>
         </is>
       </c>
     </row>

--- a/tabela_imprimir.xlsx
+++ b/tabela_imprimir.xlsx
@@ -9,7 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tabela" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tabela'!$A$1:$B$4</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tabela'!$A$1:$B$5</definedName>
   </definedNames>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
@@ -18,7 +18,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -44,10 +44,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <b val="1"/>
-      <sz val="30"/>
+      <sz val="28"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <b val="1"/>
+      <sz val="24"/>
     </font>
     <font>
       <sz val="150"/>
+    </font>
+    <font>
+      <sz val="50"/>
     </font>
     <font>
       <sz val="60"/>
@@ -115,7 +124,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -128,19 +137,25 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -552,7 +567,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
@@ -565,46 +580,58 @@
   </cols>
   <sheetData>
     <row r="1" ht="32.25" customHeight="1" thickBot="1">
-      <c r="A1" s="6" t="n"/>
-      <c r="B1" s="7" t="inlineStr">
+      <c r="A1" s="7" t="n"/>
+      <c r="B1" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">IDENTIFICAÇÃO DE MATERIAIS </t>
         </is>
       </c>
     </row>
-    <row r="2" ht="236.25" customHeight="1" thickBot="1">
-      <c r="A2" s="5" t="inlineStr">
+    <row r="2" ht="120" customHeight="1" thickBot="1">
+      <c r="A2" s="6" t="inlineStr">
         <is>
           <t>PRODUTO</t>
         </is>
       </c>
-      <c r="B2" s="8" t="inlineStr">
-        <is>
-          <t>PARAFUSO 3,5X12 CABECA CHATA</t>
+      <c r="B2" s="9" t="inlineStr">
+        <is>
+          <t>Fita Borda PS</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="236.25" customHeight="1" thickBot="1">
-      <c r="A3" s="3" t="inlineStr">
+    <row r="3" ht="138.75" customHeight="1" thickBot="1">
+      <c r="A3" s="5" t="inlineStr">
+        <is>
+          <t>COR</t>
+        </is>
+      </c>
+      <c r="B3" s="10" t="inlineStr">
+        <is>
+          <t>OFF WHITE FOSCO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="225" customHeight="1" thickBot="1">
+      <c r="A4" s="3" t="inlineStr">
         <is>
           <t>QTDE</t>
         </is>
       </c>
-      <c r="B3" s="9" t="inlineStr">
-        <is>
-          <t>15000</t>
+      <c r="B4" s="11" t="inlineStr">
+        <is>
+          <t>36515</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="236.25" customHeight="1" thickBot="1">
-      <c r="A4" s="3" t="inlineStr">
+    <row r="5" ht="236.25" customHeight="1" thickBot="1">
+      <c r="A5" s="3" t="inlineStr">
         <is>
           <t>CODIGO</t>
         </is>
       </c>
-      <c r="B4" s="10" t="inlineStr">
-        <is>
-          <t>160006001</t>
+      <c r="B5" s="12" t="inlineStr">
+        <is>
+          <t>150002001</t>
         </is>
       </c>
     </row>
